--- a/Gabari/Data.xlsx
+++ b/Gabari/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ایستگاه ها" sheetId="1" r:id="rId1"/>
@@ -36772,9 +36772,9 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:M487"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L273" sqref="L273"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37419,7 +37419,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -37458,7 +37458,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -37497,7 +37497,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -37536,7 +37536,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -37575,7 +37575,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -37614,7 +37614,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
@@ -37692,7 +37692,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>23</v>
       </c>
@@ -37725,13 +37725,13 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="32" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>24</v>
       </c>
@@ -37764,13 +37764,13 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="32" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>25</v>
       </c>
@@ -37809,7 +37809,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>26</v>
       </c>
@@ -37848,7 +37848,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>27</v>
       </c>
@@ -37887,7 +37887,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>28</v>
       </c>
@@ -37926,7 +37926,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>29</v>
       </c>
@@ -37965,7 +37965,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>30</v>
       </c>
@@ -37998,13 +37998,13 @@
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" s="32" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>31</v>
       </c>
@@ -38037,13 +38037,13 @@
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" s="32" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>32</v>
       </c>
@@ -38076,13 +38076,13 @@
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" s="32" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>33</v>
       </c>
@@ -38121,7 +38121,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>34</v>
       </c>
@@ -38160,7 +38160,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>35</v>
       </c>
@@ -38199,7 +38199,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>36</v>
       </c>
@@ -38238,7 +38238,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>37</v>
       </c>
@@ -38277,7 +38277,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>38</v>
       </c>
@@ -38316,7 +38316,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -38394,7 +38394,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
@@ -38433,7 +38433,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>43</v>
       </c>
@@ -38511,7 +38511,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>44</v>
       </c>
@@ -38550,7 +38550,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>45</v>
       </c>
@@ -38589,7 +38589,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>46</v>
       </c>
@@ -38628,7 +38628,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>47</v>
       </c>
@@ -38667,7 +38667,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>48</v>
       </c>
@@ -38700,13 +38700,13 @@
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
       <c r="L49" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M49" s="32" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
@@ -38745,7 +38745,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>50</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>51</v>
       </c>
@@ -42972,7 +42972,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <v>154</v>
       </c>
@@ -43018,7 +43018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <v>155</v>
       </c>
@@ -43064,7 +43064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
         <v>156</v>
       </c>
@@ -43110,7 +43110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <v>157</v>
       </c>
@@ -43156,7 +43156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <v>158</v>
       </c>
@@ -43202,7 +43202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <v>159</v>
       </c>
@@ -43248,7 +43248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <v>160</v>
       </c>
@@ -43294,7 +43294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <v>161</v>
       </c>
@@ -43340,7 +43340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <v>162</v>
       </c>
@@ -43386,7 +43386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <v>163</v>
       </c>
@@ -43432,7 +43432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <v>164</v>
       </c>
@@ -43478,7 +43478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <v>165</v>
       </c>
@@ -43524,7 +43524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <v>166</v>
       </c>
@@ -43562,7 +43562,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <v>167</v>
       </c>
@@ -43601,7 +43601,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <v>168</v>
       </c>
@@ -43640,7 +43640,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <v>169</v>
       </c>
@@ -43679,7 +43679,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <v>170</v>
       </c>
@@ -43718,7 +43718,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <v>171</v>
       </c>
@@ -43757,7 +43757,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <v>172</v>
       </c>
@@ -43796,7 +43796,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <v>173</v>
       </c>
@@ -43835,7 +43835,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <v>174</v>
       </c>
@@ -43874,7 +43874,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <v>175</v>
       </c>
@@ -43913,7 +43913,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <v>176</v>
       </c>
@@ -43952,7 +43952,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <v>177</v>
       </c>
@@ -43997,7 +43997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <v>178</v>
       </c>
@@ -44042,7 +44042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <v>179</v>
       </c>
@@ -44081,7 +44081,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <v>180</v>
       </c>
@@ -44120,7 +44120,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="47">
         <v>181</v>
       </c>
@@ -47622,7 +47622,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="47">
         <v>271</v>
       </c>
@@ -47668,7 +47668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="47">
         <v>272</v>
       </c>
@@ -47714,7 +47714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="47">
         <v>273</v>
       </c>
@@ -47760,7 +47760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="47">
         <v>274</v>
       </c>
@@ -47806,7 +47806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="47">
         <v>275</v>
       </c>
@@ -47852,7 +47852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="47">
         <v>276</v>
       </c>
@@ -47898,7 +47898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="47">
         <v>277</v>
       </c>
@@ -47944,7 +47944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="47">
         <v>278</v>
       </c>
@@ -47990,7 +47990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="47">
         <v>279</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="47">
         <v>280</v>
       </c>
@@ -48082,7 +48082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="47">
         <v>281</v>
       </c>
@@ -48128,7 +48128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="47">
         <v>282</v>
       </c>
@@ -48174,7 +48174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="47">
         <v>283</v>
       </c>
@@ -48220,7 +48220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="47">
         <v>284</v>
       </c>
@@ -48266,7 +48266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="47">
         <v>285</v>
       </c>
@@ -48312,7 +48312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="47">
         <v>286</v>
       </c>
@@ -48358,7 +48358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="47">
         <v>287</v>
       </c>
@@ -48404,7 +48404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="47">
         <v>288</v>
       </c>
@@ -48450,7 +48450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="47">
         <v>289</v>
       </c>
@@ -48496,7 +48496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="47">
         <v>290</v>
       </c>
@@ -48542,7 +48542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="47">
         <v>291</v>
       </c>
@@ -48588,7 +48588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="47">
         <v>292</v>
       </c>
@@ -48634,7 +48634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="47">
         <v>293</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="47">
         <v>294</v>
       </c>
@@ -48726,7 +48726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="47">
         <v>295</v>
       </c>
@@ -48772,7 +48772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="47">
         <v>296</v>
       </c>
@@ -48818,7 +48818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="47">
         <v>297</v>
       </c>
@@ -48864,7 +48864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="47">
         <v>298</v>
       </c>
@@ -48910,7 +48910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="47">
         <v>299</v>
       </c>
@@ -56434,8 +56434,7 @@
   <autoFilter ref="A1:M487">
     <filterColumn colId="1">
       <filters>
-        <filter val="خراسان"/>
-        <filter val="شمال شرق 1"/>
+        <filter val="اصفهان"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -56690,8 +56689,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G560"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56736,11 +56735,11 @@
         <v>244</v>
       </c>
       <c r="E2" s="49" t="str">
-        <f>IF(G2=0,"نا مشخص",IF(G2=1,"گاباری 4.7",IF(G2=2,"گاباری 4.6",IF(G2=3,"گاباری 4.9",IF(G2=4,"گاباری 5.2",IF(G2=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E2:E65" si="0">IF(G2=0,"نا مشخص",IF(G2=1,"گاباری 4.7",IF(G2=2,"گاباری 4.6",IF(G2=3,"گاباری 4.9",IF(G2=4,"گاباری 5.2",IF(G2=5,"گاباری 5.4"))))))</f>
         <v>گاباری 4.9</v>
       </c>
       <c r="F2" s="49" t="str">
-        <f>C2&amp;D2</f>
+        <f t="shared" ref="F2:F65" si="1">C2&amp;D2</f>
         <v>تهراننیک پسندی</v>
       </c>
       <c r="G2" s="49">
@@ -56758,11 +56757,11 @@
         <v>248</v>
       </c>
       <c r="E3" s="49" t="str">
-        <f>IF(G3=0,"نا مشخص",IF(G3=1,"گاباری 4.7",IF(G3=2,"گاباری 4.6",IF(G3=3,"گاباری 4.9",IF(G3=4,"گاباری 5.2",IF(G3=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F3" s="49" t="str">
-        <f>C3&amp;D3</f>
+        <f t="shared" si="1"/>
         <v>نیک پسندیلشکر</v>
       </c>
       <c r="G3" s="49">
@@ -56780,11 +56779,11 @@
         <v>299</v>
       </c>
       <c r="E4" s="49" t="str">
-        <f>IF(G4=0,"نا مشخص",IF(G4=1,"گاباری 4.7",IF(G4=2,"گاباری 4.6",IF(G4=3,"گاباری 4.9",IF(G4=4,"گاباری 5.2",IF(G4=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F4" s="49" t="str">
-        <f>C4&amp;D4</f>
+        <f t="shared" si="1"/>
         <v>لشکرملکی</v>
       </c>
       <c r="G4" s="49">
@@ -56802,11 +56801,11 @@
         <v>210</v>
       </c>
       <c r="E5" s="49" t="str">
-        <f>IF(G5=0,"نا مشخص",IF(G5=1,"گاباری 4.7",IF(G5=2,"گاباری 4.6",IF(G5=3,"گاباری 4.9",IF(G5=4,"گاباری 5.2",IF(G5=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F5" s="49" t="str">
-        <f>C5&amp;D5</f>
+        <f t="shared" si="1"/>
         <v>ملکیکرج</v>
       </c>
       <c r="G5" s="49">
@@ -56826,11 +56825,11 @@
         <v>13</v>
       </c>
       <c r="E6" s="49" t="str">
-        <f>IF(G6=0,"نا مشخص",IF(G6=1,"گاباری 4.7",IF(G6=2,"گاباری 4.6",IF(G6=3,"گاباری 4.9",IF(G6=4,"گاباری 5.2",IF(G6=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F6" s="49" t="str">
-        <f>C6&amp;D6</f>
+        <f t="shared" si="1"/>
         <v>نیک پسندیتهران</v>
       </c>
       <c r="G6" s="49">
@@ -56848,11 +56847,11 @@
         <v>244</v>
       </c>
       <c r="E7" s="49" t="str">
-        <f>IF(G7=0,"نا مشخص",IF(G7=1,"گاباری 4.7",IF(G7=2,"گاباری 4.6",IF(G7=3,"گاباری 4.9",IF(G7=4,"گاباری 5.2",IF(G7=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F7" s="49" t="str">
-        <f>C7&amp;D7</f>
+        <f t="shared" si="1"/>
         <v>لشکرنیک پسندی</v>
       </c>
       <c r="G7" s="49">
@@ -56870,11 +56869,11 @@
         <v>248</v>
       </c>
       <c r="E8" s="49" t="str">
-        <f>IF(G8=0,"نا مشخص",IF(G8=1,"گاباری 4.7",IF(G8=2,"گاباری 4.6",IF(G8=3,"گاباری 4.9",IF(G8=4,"گاباری 5.2",IF(G8=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F8" s="49" t="str">
-        <f>C8&amp;D8</f>
+        <f t="shared" si="1"/>
         <v>ملکیلشکر</v>
       </c>
       <c r="G8" s="49">
@@ -56892,11 +56891,11 @@
         <v>299</v>
       </c>
       <c r="E9" s="49" t="str">
-        <f>IF(G9=0,"نا مشخص",IF(G9=1,"گاباری 4.7",IF(G9=2,"گاباری 4.6",IF(G9=3,"گاباری 4.9",IF(G9=4,"گاباری 5.2",IF(G9=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F9" s="49" t="str">
-        <f>C9&amp;D9</f>
+        <f t="shared" si="1"/>
         <v>کرجملکی</v>
       </c>
       <c r="G9" s="49">
@@ -56918,11 +56917,11 @@
         <v>300</v>
       </c>
       <c r="E10" s="49" t="str">
-        <f>IF(G10=0,"نا مشخص",IF(G10=1,"گاباری 4.7",IF(G10=2,"گاباری 4.6",IF(G10=3,"گاباری 4.9",IF(G10=4,"گاباری 5.2",IF(G10=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F10" s="49" t="str">
-        <f>C10&amp;D10</f>
+        <f t="shared" si="1"/>
         <v>کرجکردان</v>
       </c>
       <c r="G10" s="49">
@@ -56940,11 +56939,11 @@
         <v>39</v>
       </c>
       <c r="E11" s="49" t="str">
-        <f>IF(G11=0,"نا مشخص",IF(G11=1,"گاباری 4.7",IF(G11=2,"گاباری 4.6",IF(G11=3,"گاباری 4.9",IF(G11=4,"گاباری 5.2",IF(G11=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F11" s="49" t="str">
-        <f>C11&amp;D11</f>
+        <f t="shared" si="1"/>
         <v>کردانهشتگرد</v>
       </c>
       <c r="G11" s="49">
@@ -56962,11 +56961,11 @@
         <v>301</v>
       </c>
       <c r="E12" s="49" t="str">
-        <f>IF(G12=0,"نا مشخص",IF(G12=1,"گاباری 4.7",IF(G12=2,"گاباری 4.6",IF(G12=3,"گاباری 4.9",IF(G12=4,"گاباری 5.2",IF(G12=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F12" s="49" t="str">
-        <f>C12&amp;D12</f>
+        <f t="shared" si="1"/>
         <v>هشتگردآبیک</v>
       </c>
       <c r="G12" s="49">
@@ -56986,11 +56985,11 @@
         <v>302</v>
       </c>
       <c r="E13" s="49" t="str">
-        <f>IF(G13=0,"نا مشخص",IF(G13=1,"گاباری 4.7",IF(G13=2,"گاباری 4.6",IF(G13=3,"گاباری 4.9",IF(G13=4,"گاباری 5.2",IF(G13=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F13" s="49" t="str">
-        <f>C13&amp;D13</f>
+        <f t="shared" si="1"/>
         <v>آبیکزیاران</v>
       </c>
       <c r="G13" s="49">
@@ -57008,11 +57007,11 @@
         <v>223</v>
       </c>
       <c r="E14" s="49" t="str">
-        <f>IF(G14=0,"نا مشخص",IF(G14=1,"گاباری 4.7",IF(G14=2,"گاباری 4.6",IF(G14=3,"گاباری 4.9",IF(G14=4,"گاباری 5.2",IF(G14=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F14" s="49" t="str">
-        <f>C14&amp;D14</f>
+        <f t="shared" si="1"/>
         <v>زیارانکهندژ</v>
       </c>
       <c r="G14" s="49">
@@ -57030,11 +57029,11 @@
         <v>227</v>
       </c>
       <c r="E15" s="49" t="str">
-        <f>IF(G15=0,"نا مشخص",IF(G15=1,"گاباری 4.7",IF(G15=2,"گاباری 4.6",IF(G15=3,"گاباری 4.9",IF(G15=4,"گاباری 5.2",IF(G15=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F15" s="49" t="str">
-        <f>C15&amp;D15</f>
+        <f t="shared" si="1"/>
         <v>کهندژقزوین</v>
       </c>
       <c r="G15" s="49">
@@ -57056,11 +57055,11 @@
         <v>210</v>
       </c>
       <c r="E16" s="49" t="str">
-        <f>IF(G16=0,"نا مشخص",IF(G16=1,"گاباری 4.7",IF(G16=2,"گاباری 4.6",IF(G16=3,"گاباری 4.9",IF(G16=4,"گاباری 5.2",IF(G16=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F16" s="49" t="str">
-        <f>C16&amp;D16</f>
+        <f t="shared" si="1"/>
         <v>کردانکرج</v>
       </c>
       <c r="G16" s="49">
@@ -57078,11 +57077,11 @@
         <v>300</v>
       </c>
       <c r="E17" s="49" t="str">
-        <f>IF(G17=0,"نا مشخص",IF(G17=1,"گاباری 4.7",IF(G17=2,"گاباری 4.6",IF(G17=3,"گاباری 4.9",IF(G17=4,"گاباری 5.2",IF(G17=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F17" s="49" t="str">
-        <f>C17&amp;D17</f>
+        <f t="shared" si="1"/>
         <v>هشتگردکردان</v>
       </c>
       <c r="G17" s="49">
@@ -57100,11 +57099,11 @@
         <v>39</v>
       </c>
       <c r="E18" s="49" t="str">
-        <f>IF(G18=0,"نا مشخص",IF(G18=1,"گاباری 4.7",IF(G18=2,"گاباری 4.6",IF(G18=3,"گاباری 4.9",IF(G18=4,"گاباری 5.2",IF(G18=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F18" s="49" t="str">
-        <f>C18&amp;D18</f>
+        <f t="shared" si="1"/>
         <v>آبیکهشتگرد</v>
       </c>
       <c r="G18" s="49">
@@ -57124,11 +57123,11 @@
         <v>301</v>
       </c>
       <c r="E19" s="49" t="str">
-        <f>IF(G19=0,"نا مشخص",IF(G19=1,"گاباری 4.7",IF(G19=2,"گاباری 4.6",IF(G19=3,"گاباری 4.9",IF(G19=4,"گاباری 5.2",IF(G19=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F19" s="49" t="str">
-        <f>C19&amp;D19</f>
+        <f t="shared" si="1"/>
         <v>زیارانآبیک</v>
       </c>
       <c r="G19" s="49">
@@ -57146,11 +57145,11 @@
         <v>302</v>
       </c>
       <c r="E20" s="49" t="str">
-        <f>IF(G20=0,"نا مشخص",IF(G20=1,"گاباری 4.7",IF(G20=2,"گاباری 4.6",IF(G20=3,"گاباری 4.9",IF(G20=4,"گاباری 5.2",IF(G20=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F20" s="49" t="str">
-        <f>C20&amp;D20</f>
+        <f t="shared" si="1"/>
         <v>کهندژزیاران</v>
       </c>
       <c r="G20" s="49">
@@ -57168,11 +57167,11 @@
         <v>223</v>
       </c>
       <c r="E21" s="49" t="str">
-        <f>IF(G21=0,"نا مشخص",IF(G21=1,"گاباری 4.7",IF(G21=2,"گاباری 4.6",IF(G21=3,"گاباری 4.9",IF(G21=4,"گاباری 5.2",IF(G21=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F21" s="50" t="str">
-        <f>C21&amp;D21</f>
+        <f t="shared" si="1"/>
         <v>قزوینکهندژ</v>
       </c>
       <c r="G21" s="49">
@@ -57194,11 +57193,11 @@
         <v>211</v>
       </c>
       <c r="E22" s="49" t="str">
-        <f>IF(G22=0,"نا مشخص",IF(G22=1,"گاباری 4.7",IF(G22=2,"گاباری 4.6",IF(G22=3,"گاباری 4.9",IF(G22=4,"گاباری 5.2",IF(G22=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F22" s="49" t="str">
-        <f>C22&amp;D22</f>
+        <f t="shared" si="1"/>
         <v>اسلام شهررباط کریم</v>
       </c>
       <c r="G22" s="49">
@@ -57216,11 +57215,11 @@
         <v>1003</v>
       </c>
       <c r="E23" s="49" t="str">
-        <f>IF(G23=0,"نا مشخص",IF(G23=1,"گاباری 4.7",IF(G23=2,"گاباری 4.6",IF(G23=3,"گاباری 4.9",IF(G23=4,"گاباری 5.2",IF(G23=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F23" s="49" t="str">
-        <f>C23&amp;D23</f>
+        <f t="shared" si="1"/>
         <v>رباط کریمجدایش</v>
       </c>
       <c r="G23" s="49">
@@ -57238,11 +57237,11 @@
         <v>1006</v>
       </c>
       <c r="E24" s="49" t="str">
-        <f>IF(G24=0,"نا مشخص",IF(G24=1,"گاباری 4.7",IF(G24=2,"گاباری 4.6",IF(G24=3,"گاباری 4.9",IF(G24=4,"گاباری 5.2",IF(G24=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F24" s="49" t="str">
-        <f>C24&amp;D24</f>
+        <f t="shared" si="1"/>
         <v>جدایشرودشور (تهران)</v>
       </c>
       <c r="G24" s="49">
@@ -57260,11 +57259,11 @@
         <v>177</v>
       </c>
       <c r="E25" s="49" t="str">
-        <f>IF(G25=0,"نا مشخص",IF(G25=1,"گاباری 4.7",IF(G25=2,"گاباری 4.6",IF(G25=3,"گاباری 4.9",IF(G25=4,"گاباری 5.2",IF(G25=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F25" s="49" t="str">
-        <f>C25&amp;D25</f>
+        <f t="shared" si="1"/>
         <v>رودشور (تهران)پرندک</v>
       </c>
       <c r="G25" s="49">
@@ -57284,11 +57283,11 @@
         <v>310</v>
       </c>
       <c r="E26" s="49" t="str">
-        <f>IF(G26=0,"نا مشخص",IF(G26=1,"گاباری 4.7",IF(G26=2,"گاباری 4.6",IF(G26=3,"گاباری 4.9",IF(G26=4,"گاباری 5.2",IF(G26=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F26" s="49" t="str">
-        <f>C26&amp;D26</f>
+        <f t="shared" si="1"/>
         <v>پرندکشهید خیری پور</v>
       </c>
       <c r="G26" s="49">
@@ -57306,11 +57305,11 @@
         <v>178</v>
       </c>
       <c r="E27" s="49" t="str">
-        <f>IF(G27=0,"نا مشخص",IF(G27=1,"گاباری 4.7",IF(G27=2,"گاباری 4.6",IF(G27=3,"گاباری 4.9",IF(G27=4,"گاباری 5.2",IF(G27=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F27" s="49" t="str">
-        <f>C27&amp;D27</f>
+        <f t="shared" si="1"/>
         <v>شهید خیری پورکوه پنگ</v>
       </c>
       <c r="G27" s="49">
@@ -57328,11 +57327,11 @@
         <v>219</v>
       </c>
       <c r="E28" s="49" t="str">
-        <f>IF(G28=0,"نا مشخص",IF(G28=1,"گاباری 4.7",IF(G28=2,"گاباری 4.6",IF(G28=3,"گاباری 4.9",IF(G28=4,"گاباری 5.2",IF(G28=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F28" s="49" t="str">
-        <f>C28&amp;D28</f>
+        <f t="shared" si="1"/>
         <v>کوه پنگانجیلاوند</v>
       </c>
       <c r="G28" s="49">
@@ -57350,11 +57349,11 @@
         <v>179</v>
       </c>
       <c r="E29" s="49" t="str">
-        <f>IF(G29=0,"نا مشخص",IF(G29=1,"گاباری 4.7",IF(G29=2,"گاباری 4.6",IF(G29=3,"گاباری 4.9",IF(G29=4,"گاباری 5.2",IF(G29=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F29" s="49" t="str">
-        <f>C29&amp;D29</f>
+        <f t="shared" si="1"/>
         <v>انجیلاوندنودژ</v>
       </c>
       <c r="G29" s="49">
@@ -57372,11 +57371,11 @@
         <v>181</v>
       </c>
       <c r="E30" s="49" t="str">
-        <f>IF(G30=0,"نا مشخص",IF(G30=1,"گاباری 4.7",IF(G30=2,"گاباری 4.6",IF(G30=3,"گاباری 4.9",IF(G30=4,"گاباری 5.2",IF(G30=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F30" s="49" t="str">
-        <f>C30&amp;D30</f>
+        <f t="shared" si="1"/>
         <v>نودژگار</v>
       </c>
       <c r="G30" s="49">
@@ -57398,11 +57397,11 @@
         <v>247</v>
       </c>
       <c r="E31" s="49" t="str">
-        <f>IF(G31=0,"نا مشخص",IF(G31=1,"گاباری 4.7",IF(G31=2,"گاباری 4.6",IF(G31=3,"گاباری 4.9",IF(G31=4,"گاباری 5.2",IF(G31=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F31" s="49" t="str">
-        <f>C31&amp;D31</f>
+        <f t="shared" si="1"/>
         <v>تهرانتپه سپید</v>
       </c>
       <c r="G31" s="49">
@@ -57420,11 +57419,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="49" t="str">
-        <f>IF(G32=0,"نا مشخص",IF(G32=1,"گاباری 4.7",IF(G32=2,"گاباری 4.6",IF(G32=3,"گاباری 4.9",IF(G32=4,"گاباری 5.2",IF(G32=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F32" s="49" t="str">
-        <f>C32&amp;D32</f>
+        <f t="shared" si="1"/>
         <v>تپه سپیداسلام شهر</v>
       </c>
       <c r="G32" s="49">
@@ -57442,11 +57441,11 @@
         <v>15</v>
       </c>
       <c r="E33" s="49" t="str">
-        <f>IF(G33=0,"نا مشخص",IF(G33=1,"گاباری 4.7",IF(G33=2,"گاباری 4.6",IF(G33=3,"گاباری 4.9",IF(G33=4,"گاباری 5.2",IF(G33=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F33" s="49" t="str">
-        <f>C33&amp;D33</f>
+        <f t="shared" si="1"/>
         <v>اسلام شهرفرودگاه</v>
       </c>
       <c r="G33" s="49">
@@ -57464,11 +57463,11 @@
         <v>279</v>
       </c>
       <c r="E34" s="49" t="str">
-        <f>IF(G34=0,"نا مشخص",IF(G34=1,"گاباری 4.7",IF(G34=2,"گاباری 4.6",IF(G34=3,"گاباری 4.9",IF(G34=4,"گاباری 5.2",IF(G34=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F34" s="49" t="str">
-        <f>C34&amp;D34</f>
+        <f t="shared" si="1"/>
         <v>فرودگاهعلی آباد</v>
       </c>
       <c r="G34" s="49">
@@ -57488,11 +57487,11 @@
         <v>280</v>
       </c>
       <c r="E35" s="49" t="str">
-        <f>IF(G35=0,"نا مشخص",IF(G35=1,"گاباری 4.7",IF(G35=2,"گاباری 4.6",IF(G35=3,"گاباری 4.9",IF(G35=4,"گاباری 5.2",IF(G35=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F35" s="49" t="str">
-        <f>C35&amp;D35</f>
+        <f t="shared" si="1"/>
         <v>علی آباددریاچه (نمکزار)</v>
       </c>
       <c r="G35" s="49">
@@ -57510,11 +57509,11 @@
         <v>16</v>
       </c>
       <c r="E36" s="49" t="str">
-        <f>IF(G36=0,"نا مشخص",IF(G36=1,"گاباری 4.7",IF(G36=2,"گاباری 4.6",IF(G36=3,"گاباری 4.9",IF(G36=4,"گاباری 5.2",IF(G36=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F36" s="49" t="str">
-        <f>C36&amp;D36</f>
+        <f t="shared" si="1"/>
         <v>دریاچه (نمکزار)سپر رستم</v>
       </c>
       <c r="G36" s="49">
@@ -57532,11 +57531,11 @@
         <v>183</v>
       </c>
       <c r="E37" s="49" t="str">
-        <f>IF(G37=0,"نا مشخص",IF(G37=1,"گاباری 4.7",IF(G37=2,"گاباری 4.6",IF(G37=3,"گاباری 4.9",IF(G37=4,"گاباری 5.2",IF(G37=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F37" s="49" t="str">
-        <f>C37&amp;D37</f>
+        <f t="shared" si="1"/>
         <v>سپر رستمقمرود</v>
       </c>
       <c r="G37" s="49">
@@ -57554,11 +57553,11 @@
         <v>311</v>
       </c>
       <c r="E38" s="49" t="str">
-        <f>IF(G38=0,"نا مشخص",IF(G38=1,"گاباری 4.7",IF(G38=2,"گاباری 4.6",IF(G38=3,"گاباری 4.9",IF(G38=4,"گاباری 5.2",IF(G38=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F38" s="49" t="str">
-        <f>C38&amp;D38</f>
+        <f t="shared" si="1"/>
         <v>قمرودمحمدیه</v>
       </c>
       <c r="G38" s="49">
@@ -57580,11 +57579,11 @@
         <v>13</v>
       </c>
       <c r="E39" s="49" t="str">
-        <f>IF(G39=0,"نا مشخص",IF(G39=1,"گاباری 4.7",IF(G39=2,"گاباری 4.6",IF(G39=3,"گاباری 4.9",IF(G39=4,"گاباری 5.2",IF(G39=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F39" s="49" t="str">
-        <f>C39&amp;D39</f>
+        <f t="shared" si="1"/>
         <v>تپه سپیدتهران</v>
       </c>
       <c r="G39" s="49">
@@ -57602,11 +57601,11 @@
         <v>247</v>
       </c>
       <c r="E40" s="49" t="str">
-        <f>IF(G40=0,"نا مشخص",IF(G40=1,"گاباری 4.7",IF(G40=2,"گاباری 4.6",IF(G40=3,"گاباری 4.9",IF(G40=4,"گاباری 5.2",IF(G40=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F40" s="49" t="str">
-        <f>C40&amp;D40</f>
+        <f t="shared" si="1"/>
         <v>اسلام شهرتپه سپید</v>
       </c>
       <c r="G40" s="49">
@@ -57624,11 +57623,11 @@
         <v>14</v>
       </c>
       <c r="E41" s="49" t="str">
-        <f>IF(G41=0,"نا مشخص",IF(G41=1,"گاباری 4.7",IF(G41=2,"گاباری 4.6",IF(G41=3,"گاباری 4.9",IF(G41=4,"گاباری 5.2",IF(G41=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F41" s="49" t="str">
-        <f>C41&amp;D41</f>
+        <f t="shared" si="1"/>
         <v>فرودگاهاسلام شهر</v>
       </c>
       <c r="G41" s="49">
@@ -57646,11 +57645,11 @@
         <v>15</v>
       </c>
       <c r="E42" s="49" t="str">
-        <f>IF(G42=0,"نا مشخص",IF(G42=1,"گاباری 4.7",IF(G42=2,"گاباری 4.6",IF(G42=3,"گاباری 4.9",IF(G42=4,"گاباری 5.2",IF(G42=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F42" s="49" t="str">
-        <f>C42&amp;D42</f>
+        <f t="shared" si="1"/>
         <v>علی آبادفرودگاه</v>
       </c>
       <c r="G42" s="49">
@@ -57670,11 +57669,11 @@
         <v>279</v>
       </c>
       <c r="E43" s="49" t="str">
-        <f>IF(G43=0,"نا مشخص",IF(G43=1,"گاباری 4.7",IF(G43=2,"گاباری 4.6",IF(G43=3,"گاباری 4.9",IF(G43=4,"گاباری 5.2",IF(G43=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F43" s="49" t="str">
-        <f>C43&amp;D43</f>
+        <f t="shared" si="1"/>
         <v>دریاچه (نمکزار)علی آباد</v>
       </c>
       <c r="G43" s="49">
@@ -57692,11 +57691,11 @@
         <v>280</v>
       </c>
       <c r="E44" s="49" t="str">
-        <f>IF(G44=0,"نا مشخص",IF(G44=1,"گاباری 4.7",IF(G44=2,"گاباری 4.6",IF(G44=3,"گاباری 4.9",IF(G44=4,"گاباری 5.2",IF(G44=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F44" s="49" t="str">
-        <f>C44&amp;D44</f>
+        <f t="shared" si="1"/>
         <v>سپر رستمدریاچه (نمکزار)</v>
       </c>
       <c r="G44" s="49">
@@ -57714,11 +57713,11 @@
         <v>16</v>
       </c>
       <c r="E45" s="49" t="str">
-        <f>IF(G45=0,"نا مشخص",IF(G45=1,"گاباری 4.7",IF(G45=2,"گاباری 4.6",IF(G45=3,"گاباری 4.9",IF(G45=4,"گاباری 5.2",IF(G45=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F45" s="49" t="str">
-        <f>C45&amp;D45</f>
+        <f t="shared" si="1"/>
         <v>قمرودسپر رستم</v>
       </c>
       <c r="G45" s="49">
@@ -57736,11 +57735,11 @@
         <v>183</v>
       </c>
       <c r="E46" s="49" t="str">
-        <f>IF(G46=0,"نا مشخص",IF(G46=1,"گاباری 4.7",IF(G46=2,"گاباری 4.6",IF(G46=3,"گاباری 4.9",IF(G46=4,"گاباری 5.2",IF(G46=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F46" s="49" t="str">
-        <f>C46&amp;D46</f>
+        <f t="shared" si="1"/>
         <v>محمدیهقمرود</v>
       </c>
       <c r="G46" s="49">
@@ -57762,11 +57761,11 @@
         <v>216</v>
       </c>
       <c r="E47" s="49" t="str">
-        <f>IF(G47=0,"نا مشخص",IF(G47=1,"گاباری 4.7",IF(G47=2,"گاباری 4.6",IF(G47=3,"گاباری 4.9",IF(G47=4,"گاباری 5.2",IF(G47=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f>C47&amp;D47</f>
+        <f t="shared" si="1"/>
         <v>بهرامآپرین</v>
       </c>
       <c r="G47" s="49">
@@ -57784,11 +57783,11 @@
         <v>14</v>
       </c>
       <c r="E48" s="49" t="str">
-        <f>IF(G48=0,"نا مشخص",IF(G48=1,"گاباری 4.7",IF(G48=2,"گاباری 4.6",IF(G48=3,"گاباری 4.9",IF(G48=4,"گاباری 5.2",IF(G48=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f>C48&amp;D48</f>
+        <f t="shared" si="1"/>
         <v>آپریناسلام شهر</v>
       </c>
       <c r="G48" s="49">
@@ -57806,11 +57805,11 @@
         <v>216</v>
       </c>
       <c r="E49" s="49" t="str">
-        <f>IF(G49=0,"نا مشخص",IF(G49=1,"گاباری 4.7",IF(G49=2,"گاباری 4.6",IF(G49=3,"گاباری 4.9",IF(G49=4,"گاباری 5.2",IF(G49=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F49" s="10" t="str">
-        <f>C49&amp;D49</f>
+        <f t="shared" si="1"/>
         <v>تپه سپیدآپرین</v>
       </c>
       <c r="G49" s="49">
@@ -57828,11 +57827,11 @@
         <v>299</v>
       </c>
       <c r="E50" s="49" t="str">
-        <f>IF(G50=0,"نا مشخص",IF(G50=1,"گاباری 4.7",IF(G50=2,"گاباری 4.6",IF(G50=3,"گاباری 4.9",IF(G50=4,"گاباری 5.2",IF(G50=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F50" s="10" t="str">
-        <f>C50&amp;D50</f>
+        <f t="shared" si="1"/>
         <v>آپرینملکی</v>
       </c>
       <c r="G50" s="49">
@@ -57852,11 +57851,11 @@
         <v>225</v>
       </c>
       <c r="E51" s="49" t="str">
-        <f>IF(G51=0,"نا مشخص",IF(G51=1,"گاباری 4.7",IF(G51=2,"گاباری 4.6",IF(G51=3,"گاباری 4.9",IF(G51=4,"گاباری 5.2",IF(G51=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F51" s="11" t="str">
-        <f>C51&amp;D51</f>
+        <f t="shared" si="1"/>
         <v>تهرانری</v>
       </c>
       <c r="G51" s="49">
@@ -57874,11 +57873,11 @@
         <v>12</v>
       </c>
       <c r="E52" s="49" t="str">
-        <f>IF(G52=0,"نا مشخص",IF(G52=1,"گاباری 4.7",IF(G52=2,"گاباری 4.6",IF(G52=3,"گاباری 4.9",IF(G52=4,"گاباری 5.2",IF(G52=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F52" s="49" t="str">
-        <f>C52&amp;D52</f>
+        <f t="shared" si="1"/>
         <v>ریبهرام</v>
       </c>
       <c r="G52" s="49">
@@ -57896,11 +57895,11 @@
         <v>276</v>
       </c>
       <c r="E53" s="49" t="str">
-        <f>IF(G53=0,"نا مشخص",IF(G53=1,"گاباری 4.7",IF(G53=2,"گاباری 4.6",IF(G53=3,"گاباری 4.9",IF(G53=4,"گاباری 5.2",IF(G53=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F53" s="49" t="str">
-        <f>C53&amp;D53</f>
+        <f t="shared" si="1"/>
         <v>بهرامورامین</v>
       </c>
       <c r="G53" s="49">
@@ -57918,11 +57917,11 @@
         <v>277</v>
       </c>
       <c r="E54" s="49" t="str">
-        <f>IF(G54=0,"نا مشخص",IF(G54=1,"گاباری 4.7",IF(G54=2,"گاباری 4.6",IF(G54=3,"گاباری 4.9",IF(G54=4,"گاباری 5.2",IF(G54=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F54" s="49" t="str">
-        <f>C54&amp;D54</f>
+        <f t="shared" si="1"/>
         <v>ورامینپیشوا</v>
       </c>
       <c r="G54" s="49">
@@ -57940,11 +57939,11 @@
         <v>11</v>
       </c>
       <c r="E55" s="49" t="str">
-        <f>IF(G55=0,"نا مشخص",IF(G55=1,"گاباری 4.7",IF(G55=2,"گاباری 4.6",IF(G55=3,"گاباری 4.9",IF(G55=4,"گاباری 5.2",IF(G55=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F55" s="49" t="str">
-        <f>C55&amp;D55</f>
+        <f t="shared" si="1"/>
         <v>پیشواابردژ</v>
       </c>
       <c r="G55" s="49">
@@ -57962,11 +57961,11 @@
         <v>278</v>
       </c>
       <c r="E56" s="49" t="str">
-        <f>IF(G56=0,"نا مشخص",IF(G56=1,"گاباری 4.7",IF(G56=2,"گاباری 4.6",IF(G56=3,"گاباری 4.9",IF(G56=4,"گاباری 5.2",IF(G56=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F56" s="49" t="str">
-        <f>C56&amp;D56</f>
+        <f t="shared" si="1"/>
         <v>ابردژکویر</v>
       </c>
       <c r="G56" s="49">
@@ -57984,11 +57983,11 @@
         <v>10</v>
       </c>
       <c r="E57" s="49" t="str">
-        <f>IF(G57=0,"نا مشخص",IF(G57=1,"گاباری 4.7",IF(G57=2,"گاباری 4.6",IF(G57=3,"گاباری 4.9",IF(G57=4,"گاباری 5.2",IF(G57=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F57" s="49" t="str">
-        <f>C57&amp;D57</f>
+        <f t="shared" si="1"/>
         <v>کویرگرمسار</v>
       </c>
       <c r="G57" s="49">
@@ -58008,11 +58007,11 @@
         <v>13</v>
       </c>
       <c r="E58" s="49" t="str">
-        <f>IF(G58=0,"نا مشخص",IF(G58=1,"گاباری 4.7",IF(G58=2,"گاباری 4.6",IF(G58=3,"گاباری 4.9",IF(G58=4,"گاباری 5.2",IF(G58=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F58" s="49" t="str">
-        <f>C58&amp;D58</f>
+        <f t="shared" si="1"/>
         <v>ریتهران</v>
       </c>
       <c r="G58" s="49">
@@ -58030,11 +58029,11 @@
         <v>225</v>
       </c>
       <c r="E59" s="49" t="str">
-        <f>IF(G59=0,"نا مشخص",IF(G59=1,"گاباری 4.7",IF(G59=2,"گاباری 4.6",IF(G59=3,"گاباری 4.9",IF(G59=4,"گاباری 5.2",IF(G59=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F59" s="49" t="str">
-        <f>C59&amp;D59</f>
+        <f t="shared" si="1"/>
         <v>بهرامری</v>
       </c>
       <c r="G59" s="49">
@@ -58052,11 +58051,11 @@
         <v>12</v>
       </c>
       <c r="E60" s="49" t="str">
-        <f>IF(G60=0,"نا مشخص",IF(G60=1,"گاباری 4.7",IF(G60=2,"گاباری 4.6",IF(G60=3,"گاباری 4.9",IF(G60=4,"گاباری 5.2",IF(G60=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F60" s="49" t="str">
-        <f>C60&amp;D60</f>
+        <f t="shared" si="1"/>
         <v>ورامینبهرام</v>
       </c>
       <c r="G60" s="49">
@@ -58074,11 +58073,11 @@
         <v>276</v>
       </c>
       <c r="E61" s="49" t="str">
-        <f>IF(G61=0,"نا مشخص",IF(G61=1,"گاباری 4.7",IF(G61=2,"گاباری 4.6",IF(G61=3,"گاباری 4.9",IF(G61=4,"گاباری 5.2",IF(G61=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F61" s="49" t="str">
-        <f>C61&amp;D61</f>
+        <f t="shared" si="1"/>
         <v>پیشواورامین</v>
       </c>
       <c r="G61" s="49">
@@ -58096,11 +58095,11 @@
         <v>277</v>
       </c>
       <c r="E62" s="49" t="str">
-        <f>IF(G62=0,"نا مشخص",IF(G62=1,"گاباری 4.7",IF(G62=2,"گاباری 4.6",IF(G62=3,"گاباری 4.9",IF(G62=4,"گاباری 5.2",IF(G62=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F62" s="49" t="str">
-        <f>C62&amp;D62</f>
+        <f t="shared" si="1"/>
         <v>ابردژپیشوا</v>
       </c>
       <c r="G62" s="49">
@@ -58118,11 +58117,11 @@
         <v>11</v>
       </c>
       <c r="E63" s="49" t="str">
-        <f>IF(G63=0,"نا مشخص",IF(G63=1,"گاباری 4.7",IF(G63=2,"گاباری 4.6",IF(G63=3,"گاباری 4.9",IF(G63=4,"گاباری 5.2",IF(G63=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F63" s="49" t="str">
-        <f>C63&amp;D63</f>
+        <f t="shared" si="1"/>
         <v>کویرابردژ</v>
       </c>
       <c r="G63" s="49">
@@ -58140,11 +58139,11 @@
         <v>278</v>
       </c>
       <c r="E64" s="49" t="str">
-        <f>IF(G64=0,"نا مشخص",IF(G64=1,"گاباری 4.7",IF(G64=2,"گاباری 4.6",IF(G64=3,"گاباری 4.9",IF(G64=4,"گاباری 5.2",IF(G64=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F64" s="49" t="str">
-        <f>C64&amp;D64</f>
+        <f t="shared" si="1"/>
         <v>گرمسارکویر</v>
       </c>
       <c r="G64" s="49">
@@ -58166,11 +58165,11 @@
         <v>688</v>
       </c>
       <c r="E65" s="49" t="str">
-        <f>IF(G65=0,"نا مشخص",IF(G65=1,"گاباری 4.7",IF(G65=2,"گاباری 4.6",IF(G65=3,"گاباری 4.9",IF(G65=4,"گاباری 5.2",IF(G65=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="0"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F65" s="49" t="str">
-        <f>C65&amp;D65</f>
+        <f t="shared" si="1"/>
         <v>شورآبفیروزآباد</v>
       </c>
       <c r="G65" s="49">
@@ -58188,11 +58187,11 @@
         <v>88</v>
       </c>
       <c r="E66" s="49" t="str">
-        <f>IF(G66=0,"نا مشخص",IF(G66=1,"گاباری 4.7",IF(G66=2,"گاباری 4.6",IF(G66=3,"گاباری 4.9",IF(G66=4,"گاباری 5.2",IF(G66=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E66:E129" si="2">IF(G66=0,"نا مشخص",IF(G66=1,"گاباری 4.7",IF(G66=2,"گاباری 4.6",IF(G66=3,"گاباری 4.9",IF(G66=4,"گاباری 5.2",IF(G66=5,"گاباری 5.4"))))))</f>
         <v>گاباری 5.4</v>
       </c>
       <c r="F66" s="49" t="str">
-        <f>C66&amp;D66</f>
+        <f t="shared" ref="F66:F129" si="3">C66&amp;D66</f>
         <v>فیروزآباددهنار</v>
       </c>
       <c r="G66" s="49">
@@ -58210,11 +58209,11 @@
         <v>702</v>
       </c>
       <c r="E67" s="49" t="str">
-        <f>IF(G67=0,"نا مشخص",IF(G67=1,"گاباری 4.7",IF(G67=2,"گاباری 4.6",IF(G67=3,"گاباری 4.9",IF(G67=4,"گاباری 5.2",IF(G67=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F67" s="49" t="str">
-        <f>C67&amp;D67</f>
+        <f t="shared" si="3"/>
         <v>دهنارمدآباد</v>
       </c>
       <c r="G67" s="49">
@@ -58232,11 +58231,11 @@
         <v>365</v>
       </c>
       <c r="E68" s="49" t="str">
-        <f>IF(G68=0,"نا مشخص",IF(G68=1,"گاباری 4.7",IF(G68=2,"گاباری 4.6",IF(G68=3,"گاباری 4.9",IF(G68=4,"گاباری 5.2",IF(G68=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F68" s="49" t="str">
-        <f>C68&amp;D68</f>
+        <f t="shared" si="3"/>
         <v>مدآبادکاشان</v>
       </c>
       <c r="G68" s="49">
@@ -58256,11 +58255,11 @@
         <v>709</v>
       </c>
       <c r="E69" s="49" t="str">
-        <f>IF(G69=0,"نا مشخص",IF(G69=1,"گاباری 4.7",IF(G69=2,"گاباری 4.6",IF(G69=3,"گاباری 4.9",IF(G69=4,"گاباری 5.2",IF(G69=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F69" s="49" t="str">
-        <f>C69&amp;D69</f>
+        <f t="shared" si="3"/>
         <v>کاشانگز</v>
       </c>
       <c r="G69" s="49">
@@ -58278,11 +58277,11 @@
         <v>90</v>
       </c>
       <c r="E70" s="49" t="str">
-        <f>IF(G70=0,"نا مشخص",IF(G70=1,"گاباری 4.7",IF(G70=2,"گاباری 4.6",IF(G70=3,"گاباری 4.9",IF(G70=4,"گاباری 5.2",IF(G70=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F70" s="49" t="str">
-        <f>C70&amp;D70</f>
+        <f t="shared" si="3"/>
         <v>گزسرخ گل</v>
       </c>
       <c r="G70" s="49">
@@ -58300,11 +58299,11 @@
         <v>710</v>
       </c>
       <c r="E71" s="49" t="str">
-        <f>IF(G71=0,"نا مشخص",IF(G71=1,"گاباری 4.7",IF(G71=2,"گاباری 4.6",IF(G71=3,"گاباری 4.9",IF(G71=4,"گاباری 5.2",IF(G71=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F71" s="49" t="str">
-        <f>C71&amp;D71</f>
+        <f t="shared" si="3"/>
         <v>سرخ گلده آباد</v>
       </c>
       <c r="G71" s="49">
@@ -58322,11 +58321,11 @@
         <v>92</v>
       </c>
       <c r="E72" s="49" t="str">
-        <f>IF(G72=0,"نا مشخص",IF(G72=1,"گاباری 4.7",IF(G72=2,"گاباری 4.6",IF(G72=3,"گاباری 4.9",IF(G72=4,"گاباری 5.2",IF(G72=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F72" s="49" t="str">
-        <f>C72&amp;D72</f>
+        <f t="shared" si="3"/>
         <v>ده آبادبادرود</v>
       </c>
       <c r="G72" s="49">
@@ -58346,11 +58345,11 @@
         <v>366</v>
       </c>
       <c r="E73" s="49" t="str">
-        <f>IF(G73=0,"نا مشخص",IF(G73=1,"گاباری 4.7",IF(G73=2,"گاباری 4.6",IF(G73=3,"گاباری 4.9",IF(G73=4,"گاباری 5.2",IF(G73=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F73" s="49" t="str">
-        <f>C73&amp;D73</f>
+        <f t="shared" si="3"/>
         <v>بادروداسپیدان</v>
       </c>
       <c r="G73" s="49">
@@ -58368,11 +58367,11 @@
         <v>367</v>
       </c>
       <c r="E74" s="49" t="str">
-        <f>IF(G74=0,"نا مشخص",IF(G74=1,"گاباری 4.7",IF(G74=2,"گاباری 4.6",IF(G74=3,"گاباری 4.9",IF(G74=4,"گاباری 5.2",IF(G74=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F74" s="49" t="str">
-        <f>C74&amp;D74</f>
+        <f t="shared" si="3"/>
         <v>اسپیدانابیازان</v>
       </c>
       <c r="G74" s="49">
@@ -58390,11 +58389,11 @@
         <v>368</v>
       </c>
       <c r="E75" s="49" t="str">
-        <f>IF(G75=0,"نا مشخص",IF(G75=1,"گاباری 4.7",IF(G75=2,"گاباری 4.6",IF(G75=3,"گاباری 4.9",IF(G75=4,"گاباری 5.2",IF(G75=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F75" s="49" t="str">
-        <f>C75&amp;D75</f>
+        <f t="shared" si="3"/>
         <v>ابیازانرنکان</v>
       </c>
       <c r="G75" s="49">
@@ -58412,11 +58411,11 @@
         <v>369</v>
       </c>
       <c r="E76" s="49" t="str">
-        <f>IF(G76=0,"نا مشخص",IF(G76=1,"گاباری 4.7",IF(G76=2,"گاباری 4.6",IF(G76=3,"گاباری 4.9",IF(G76=4,"گاباری 5.2",IF(G76=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F76" s="49" t="str">
-        <f>C76&amp;D76</f>
+        <f t="shared" si="3"/>
         <v>رنکانچاریسه</v>
       </c>
       <c r="G76" s="49">
@@ -58434,16 +58433,16 @@
         <v>93</v>
       </c>
       <c r="E77" s="49" t="str">
-        <f>IF(G77=0,"نا مشخص",IF(G77=1,"گاباری 4.7",IF(G77=2,"گاباری 4.6",IF(G77=3,"گاباری 4.9",IF(G77=4,"گاباری 5.2",IF(G77=5,"گاباری 5.4"))))))</f>
-        <v>گاباری 4.9</v>
+        <f t="shared" si="2"/>
+        <v>گاباری 5.2</v>
       </c>
       <c r="F77" s="49" t="str">
-        <f>C77&amp;D77</f>
+        <f t="shared" si="3"/>
         <v>چاریسهورتون</v>
       </c>
       <c r="G77" s="49">
         <f>IFERROR(VLOOKUP(F77,'بلاک ها'!H:M,5,FALSE),IFERROR(VLOOKUP('خلاصه گاباری'!F77,'بلاک ها'!J:M,4,FALSE),0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -58456,16 +58455,16 @@
         <v>217</v>
       </c>
       <c r="E78" s="49" t="str">
-        <f>IF(G78=0,"نا مشخص",IF(G78=1,"گاباری 4.7",IF(G78=2,"گاباری 4.6",IF(G78=3,"گاباری 4.9",IF(G78=4,"گاباری 5.2",IF(G78=5,"گاباری 5.4"))))))</f>
-        <v>گاباری 4.9</v>
+        <f t="shared" si="2"/>
+        <v>گاباری 5.2</v>
       </c>
       <c r="F78" s="49" t="str">
-        <f>C78&amp;D78</f>
+        <f t="shared" si="3"/>
         <v>ورتونسیستان</v>
       </c>
       <c r="G78" s="49">
         <f>IFERROR(VLOOKUP(F78,'بلاک ها'!H:M,5,FALSE),IFERROR(VLOOKUP('خلاصه گاباری'!F78,'بلاک ها'!J:M,4,FALSE),0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -58480,11 +58479,11 @@
         <v>246</v>
       </c>
       <c r="E79" s="49" t="str">
-        <f>IF(G79=0,"نا مشخص",IF(G79=1,"گاباری 4.7",IF(G79=2,"گاباری 4.6",IF(G79=3,"گاباری 4.9",IF(G79=4,"گاباری 5.2",IF(G79=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F79" s="49" t="str">
-        <f>C79&amp;D79</f>
+        <f t="shared" si="3"/>
         <v>سیستانفیروزه</v>
       </c>
       <c r="G79" s="49">
@@ -58502,11 +58501,11 @@
         <v>94</v>
       </c>
       <c r="E80" s="49" t="str">
-        <f>IF(G80=0,"نا مشخص",IF(G80=1,"گاباری 4.7",IF(G80=2,"گاباری 4.6",IF(G80=3,"گاباری 4.9",IF(G80=4,"گاباری 5.2",IF(G80=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F80" s="49" t="str">
-        <f>C80&amp;D80</f>
+        <f t="shared" si="3"/>
         <v>فیروزهاصفهان</v>
       </c>
       <c r="G80" s="49">
@@ -58526,16 +58525,16 @@
         <v>373</v>
       </c>
       <c r="E81" s="49" t="str">
-        <f>IF(G81=0,"نا مشخص",IF(G81=1,"گاباری 4.7",IF(G81=2,"گاباری 4.6",IF(G81=3,"گاباری 4.9",IF(G81=4,"گاباری 5.2",IF(G81=5,"گاباری 5.4"))))))</f>
-        <v>گاباری 5.4</v>
+        <f t="shared" si="2"/>
+        <v>گاباری 4.9</v>
       </c>
       <c r="F81" s="49" t="str">
-        <f>C81&amp;D81</f>
+        <f t="shared" si="3"/>
         <v>سیستانخیرآباد</v>
       </c>
       <c r="G81" s="49">
         <f>IFERROR(VLOOKUP(F81,'بلاک ها'!H:M,5,FALSE),IFERROR(VLOOKUP('خلاصه گاباری'!F81,'بلاک ها'!J:M,4,FALSE),0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -58548,16 +58547,16 @@
         <v>95</v>
       </c>
       <c r="E82" s="49" t="str">
-        <f>IF(G82=0,"نا مشخص",IF(G82=1,"گاباری 4.7",IF(G82=2,"گاباری 4.6",IF(G82=3,"گاباری 4.9",IF(G82=4,"گاباری 5.2",IF(G82=5,"گاباری 5.4"))))))</f>
-        <v>گاباری 5.4</v>
+        <f t="shared" si="2"/>
+        <v>گاباری 4.9</v>
       </c>
       <c r="F82" s="49" t="str">
-        <f>C82&amp;D82</f>
+        <f t="shared" si="3"/>
         <v>خیرآبادهرند</v>
       </c>
       <c r="G82" s="49">
         <f>IFERROR(VLOOKUP(F82,'بلاک ها'!H:M,5,FALSE),IFERROR(VLOOKUP('خلاصه گاباری'!F82,'بلاک ها'!J:M,4,FALSE),0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -58570,16 +58569,16 @@
         <v>716</v>
       </c>
       <c r="E83" s="49" t="str">
-        <f>IF(G83=0,"نا مشخص",IF(G83=1,"گاباری 4.7",IF(G83=2,"گاباری 4.6",IF(G83=3,"گاباری 4.9",IF(G83=4,"گاباری 5.2",IF(G83=5,"گاباری 5.4"))))))</f>
-        <v>گاباری 5.4</v>
+        <f t="shared" si="2"/>
+        <v>گاباری 4.9</v>
       </c>
       <c r="F83" s="49" t="str">
-        <f>C83&amp;D83</f>
+        <f t="shared" si="3"/>
         <v>هرندمشک</v>
       </c>
       <c r="G83" s="49">
         <f>IFERROR(VLOOKUP(F83,'بلاک ها'!H:M,5,FALSE),IFERROR(VLOOKUP('خلاصه گاباری'!F83,'بلاک ها'!J:M,4,FALSE),0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -58592,16 +58591,16 @@
         <v>96</v>
       </c>
       <c r="E84" s="49" t="str">
-        <f>IF(G84=0,"نا مشخص",IF(G84=1,"گاباری 4.7",IF(G84=2,"گاباری 4.6",IF(G84=3,"گاباری 4.9",IF(G84=4,"گاباری 5.2",IF(G84=5,"گاباری 5.4"))))))</f>
-        <v>گاباری 5.4</v>
+        <f t="shared" si="2"/>
+        <v>گاباری 4.9</v>
       </c>
       <c r="F84" s="49" t="str">
-        <f>C84&amp;D84</f>
+        <f t="shared" si="3"/>
         <v>مشکورزنه</v>
       </c>
       <c r="G84" s="49">
         <f>IFERROR(VLOOKUP(F84,'بلاک ها'!H:M,5,FALSE),IFERROR(VLOOKUP('خلاصه گاباری'!F84,'بلاک ها'!J:M,4,FALSE),0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -58614,11 +58613,11 @@
         <v>719</v>
       </c>
       <c r="E85" s="49" t="str">
-        <f>IF(G85=0,"نا مشخص",IF(G85=1,"گاباری 4.7",IF(G85=2,"گاباری 4.6",IF(G85=3,"گاباری 4.9",IF(G85=4,"گاباری 5.2",IF(G85=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F85" s="49" t="str">
-        <f>C85&amp;D85</f>
+        <f t="shared" si="3"/>
         <v>ورزنهشیرازکوه</v>
       </c>
       <c r="G85" s="49">
@@ -58636,11 +58635,11 @@
         <v>97</v>
       </c>
       <c r="E86" s="49" t="str">
-        <f>IF(G86=0,"نا مشخص",IF(G86=1,"گاباری 4.7",IF(G86=2,"گاباری 4.6",IF(G86=3,"گاباری 4.9",IF(G86=4,"گاباری 5.2",IF(G86=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F86" s="49" t="str">
-        <f>C86&amp;D86</f>
+        <f t="shared" si="3"/>
         <v>شیرازکوهشبنم</v>
       </c>
       <c r="G86" s="49">
@@ -58658,11 +58657,11 @@
         <v>98</v>
       </c>
       <c r="E87" s="49" t="str">
-        <f>IF(G87=0,"نا مشخص",IF(G87=1,"گاباری 4.7",IF(G87=2,"گاباری 4.6",IF(G87=3,"گاباری 4.9",IF(G87=4,"گاباری 5.2",IF(G87=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F87" s="49" t="str">
-        <f>C87&amp;D87</f>
+        <f t="shared" si="3"/>
         <v>شبنمهما</v>
       </c>
       <c r="G87" s="49">
@@ -58680,11 +58679,11 @@
         <v>99</v>
       </c>
       <c r="E88" s="49" t="str">
-        <f>IF(G88=0,"نا مشخص",IF(G88=1,"گاباری 4.7",IF(G88=2,"گاباری 4.6",IF(G88=3,"گاباری 4.9",IF(G88=4,"گاباری 5.2",IF(G88=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F88" s="49" t="str">
-        <f>C88&amp;D88</f>
+        <f t="shared" si="3"/>
         <v>هماساسان</v>
       </c>
       <c r="G88" s="49">
@@ -58702,11 +58701,11 @@
         <v>376</v>
       </c>
       <c r="E89" s="49" t="str">
-        <f>IF(G89=0,"نا مشخص",IF(G89=1,"گاباری 4.7",IF(G89=2,"گاباری 4.6",IF(G89=3,"گاباری 4.9",IF(G89=4,"گاباری 5.2",IF(G89=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F89" s="49" t="str">
-        <f>C89&amp;D89</f>
+        <f t="shared" si="3"/>
         <v>ساساناشک</v>
       </c>
       <c r="G89" s="49">
@@ -58724,11 +58723,11 @@
         <v>100</v>
       </c>
       <c r="E90" s="49" t="str">
-        <f>IF(G90=0,"نا مشخص",IF(G90=1,"گاباری 4.7",IF(G90=2,"گاباری 4.6",IF(G90=3,"گاباری 4.9",IF(G90=4,"گاباری 5.2",IF(G90=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F90" s="49" t="str">
-        <f>C90&amp;D90</f>
+        <f t="shared" si="3"/>
         <v>اشکعقدا</v>
       </c>
       <c r="G90" s="49">
@@ -58746,11 +58745,11 @@
         <v>101</v>
       </c>
       <c r="E91" s="49" t="str">
-        <f>IF(G91=0,"نا مشخص",IF(G91=1,"گاباری 4.7",IF(G91=2,"گاباری 4.6",IF(G91=3,"گاباری 4.9",IF(G91=4,"گاباری 5.2",IF(G91=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F91" s="49" t="str">
-        <f>C91&amp;D91</f>
+        <f t="shared" si="3"/>
         <v>عقداارژنگ</v>
       </c>
       <c r="G91" s="49">
@@ -58770,11 +58769,11 @@
         <v>372</v>
       </c>
       <c r="E92" s="49" t="str">
-        <f>IF(G92=0,"نا مشخص",IF(G92=1,"گاباری 4.7",IF(G92=2,"گاباری 4.6",IF(G92=3,"گاباری 4.9",IF(G92=4,"گاباری 5.2",IF(G92=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F92" s="49" t="str">
-        <f>C92&amp;D92</f>
+        <f t="shared" si="3"/>
         <v>اصفهانایرانکوه</v>
       </c>
       <c r="G92" s="49">
@@ -58792,11 +58791,11 @@
         <v>257</v>
       </c>
       <c r="E93" s="49" t="str">
-        <f>IF(G93=0,"نا مشخص",IF(G93=1,"گاباری 4.7",IF(G93=2,"گاباری 4.6",IF(G93=3,"گاباری 4.9",IF(G93=4,"گاباری 5.2",IF(G93=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F93" s="49" t="str">
-        <f>C93&amp;D93</f>
+        <f t="shared" si="3"/>
         <v>ایرانکوهابنیل</v>
       </c>
       <c r="G93" s="49">
@@ -58814,11 +58813,11 @@
         <v>371</v>
       </c>
       <c r="E94" s="49" t="str">
-        <f>IF(G94=0,"نا مشخص",IF(G94=1,"گاباری 4.7",IF(G94=2,"گاباری 4.6",IF(G94=3,"گاباری 4.9",IF(G94=4,"گاباری 5.2",IF(G94=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F94" s="49" t="str">
-        <f>C94&amp;D94</f>
+        <f t="shared" si="3"/>
         <v>ابنیلصید آباد</v>
       </c>
       <c r="G94" s="49">
@@ -58836,11 +58835,11 @@
         <v>218</v>
       </c>
       <c r="E95" s="49" t="str">
-        <f>IF(G95=0,"نا مشخص",IF(G95=1,"گاباری 4.7",IF(G95=2,"گاباری 4.6",IF(G95=3,"گاباری 4.9",IF(G95=4,"گاباری 5.2",IF(G95=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F95" s="49" t="str">
-        <f>C95&amp;D95</f>
+        <f t="shared" si="3"/>
         <v>صید آباددیزیچه</v>
       </c>
       <c r="G95" s="49">
@@ -58860,11 +58859,11 @@
         <v>103</v>
       </c>
       <c r="E96" s="49" t="str">
-        <f>IF(G96=0,"نا مشخص",IF(G96=1,"گاباری 4.7",IF(G96=2,"گاباری 4.6",IF(G96=3,"گاباری 4.9",IF(G96=4,"گاباری 5.2",IF(G96=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F96" s="49" t="str">
-        <f>C96&amp;D96</f>
+        <f t="shared" si="3"/>
         <v>دیزیچهحسن آباد</v>
       </c>
       <c r="G96" s="49">
@@ -58882,11 +58881,11 @@
         <v>370</v>
       </c>
       <c r="E97" s="49" t="str">
-        <f>IF(G97=0,"نا مشخص",IF(G97=1,"گاباری 4.7",IF(G97=2,"گاباری 4.6",IF(G97=3,"گاباری 4.9",IF(G97=4,"گاباری 5.2",IF(G97=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F97" s="49" t="str">
-        <f>C97&amp;D97</f>
+        <f t="shared" si="3"/>
         <v>حسن آبادمجتمع فولاد مبارکه</v>
       </c>
       <c r="G97" s="49">
@@ -58906,11 +58905,11 @@
         <v>713</v>
       </c>
       <c r="E98" s="49" t="str">
-        <f>IF(G98=0,"نا مشخص",IF(G98=1,"گاباری 4.7",IF(G98=2,"گاباری 4.6",IF(G98=3,"گاباری 4.9",IF(G98=4,"گاباری 5.2",IF(G98=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F98" s="49" t="str">
-        <f>C98&amp;D98</f>
+        <f t="shared" si="3"/>
         <v>دیزیچهریز</v>
       </c>
       <c r="G98" s="49">
@@ -58928,11 +58927,11 @@
         <v>215</v>
       </c>
       <c r="E99" s="49" t="str">
-        <f>IF(G99=0,"نا مشخص",IF(G99=1,"گاباری 4.7",IF(G99=2,"گاباری 4.6",IF(G99=3,"گاباری 4.9",IF(G99=4,"گاباری 5.2",IF(G99=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F99" s="49" t="str">
-        <f>C99&amp;D99</f>
+        <f t="shared" si="3"/>
         <v>ریززرین شهر</v>
       </c>
       <c r="G99" s="49">
@@ -58950,11 +58949,11 @@
         <v>102</v>
       </c>
       <c r="E100" s="49" t="str">
-        <f>IF(G100=0,"نا مشخص",IF(G100=1,"گاباری 4.7",IF(G100=2,"گاباری 4.6",IF(G100=3,"گاباری 4.9",IF(G100=4,"گاباری 5.2",IF(G100=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F100" s="49" t="str">
-        <f>C100&amp;D100</f>
+        <f t="shared" si="3"/>
         <v>زرین شهرپولاد</v>
       </c>
       <c r="G100" s="49">
@@ -58976,11 +58975,11 @@
         <v>2558</v>
       </c>
       <c r="E101" s="49" t="str">
-        <f>IF(G101=0,"نا مشخص",IF(G101=1,"گاباری 4.7",IF(G101=2,"گاباری 4.6",IF(G101=3,"گاباری 4.9",IF(G101=4,"گاباری 5.2",IF(G101=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F101" s="49" t="str">
-        <f>C101&amp;D101</f>
+        <f t="shared" si="3"/>
         <v>بادرودمه باد</v>
       </c>
       <c r="G101" s="49">
@@ -58998,11 +58997,11 @@
         <v>109</v>
       </c>
       <c r="E102" s="49" t="str">
-        <f>IF(G102=0,"نا مشخص",IF(G102=1,"گاباری 4.7",IF(G102=2,"گاباری 4.6",IF(G102=3,"گاباری 4.9",IF(G102=4,"گاباری 5.2",IF(G102=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F102" s="49" t="str">
-        <f>C102&amp;D102</f>
+        <f t="shared" si="3"/>
         <v>مه بادزواره</v>
       </c>
       <c r="G102" s="49">
@@ -59020,11 +59019,11 @@
         <v>110</v>
       </c>
       <c r="E103" s="49" t="str">
-        <f>IF(G103=0,"نا مشخص",IF(G103=1,"گاباری 4.7",IF(G103=2,"گاباری 4.6",IF(G103=3,"گاباری 4.9",IF(G103=4,"گاباری 5.2",IF(G103=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F103" s="49" t="str">
-        <f>C103&amp;D103</f>
+        <f t="shared" si="3"/>
         <v>زوارهشهراب</v>
       </c>
       <c r="G103" s="49">
@@ -59042,11 +59041,11 @@
         <v>385</v>
       </c>
       <c r="E104" s="49" t="str">
-        <f>IF(G104=0,"نا مشخص",IF(G104=1,"گاباری 4.7",IF(G104=2,"گاباری 4.6",IF(G104=3,"گاباری 4.9",IF(G104=4,"گاباری 5.2",IF(G104=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F104" s="49" t="str">
-        <f>C104&amp;D104</f>
+        <f t="shared" si="3"/>
         <v>شهرابسنگی</v>
       </c>
       <c r="G104" s="49">
@@ -59064,11 +59063,11 @@
         <v>386</v>
       </c>
       <c r="E105" s="49" t="str">
-        <f>IF(G105=0,"نا مشخص",IF(G105=1,"گاباری 4.7",IF(G105=2,"گاباری 4.6",IF(G105=3,"گاباری 4.9",IF(G105=4,"گاباری 5.2",IF(G105=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F105" s="49" t="str">
-        <f>C105&amp;D105</f>
+        <f t="shared" si="3"/>
         <v>سنگیویادوک</v>
       </c>
       <c r="G105" s="49">
@@ -59086,11 +59085,11 @@
         <v>387</v>
       </c>
       <c r="E106" s="49" t="str">
-        <f>IF(G106=0,"نا مشخص",IF(G106=1,"گاباری 4.7",IF(G106=2,"گاباری 4.6",IF(G106=3,"گاباری 4.9",IF(G106=4,"گاباری 5.2",IF(G106=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F106" s="49" t="str">
-        <f>C106&amp;D106</f>
+        <f t="shared" si="3"/>
         <v>ویادوکنائین</v>
       </c>
       <c r="G106" s="49">
@@ -59108,11 +59107,11 @@
         <v>4</v>
       </c>
       <c r="E107" s="49" t="str">
-        <f>IF(G107=0,"نا مشخص",IF(G107=1,"گاباری 4.7",IF(G107=2,"گاباری 4.6",IF(G107=3,"گاباری 4.9",IF(G107=4,"گاباری 5.2",IF(G107=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F107" s="49" t="str">
-        <f>C107&amp;D107</f>
+        <f t="shared" si="3"/>
         <v>نائیننوگنبد</v>
       </c>
       <c r="G107" s="49">
@@ -59130,11 +59129,11 @@
         <v>388</v>
       </c>
       <c r="E108" s="49" t="str">
-        <f>IF(G108=0,"نا مشخص",IF(G108=1,"گاباری 4.7",IF(G108=2,"گاباری 4.6",IF(G108=3,"گاباری 4.9",IF(G108=4,"گاباری 5.2",IF(G108=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F108" s="49" t="str">
-        <f>C108&amp;D108</f>
+        <f t="shared" si="3"/>
         <v>نوگنبدسیاه کوه</v>
       </c>
       <c r="G108" s="49">
@@ -59152,11 +59151,11 @@
         <v>389</v>
       </c>
       <c r="E109" s="49" t="str">
-        <f>IF(G109=0,"نا مشخص",IF(G109=1,"گاباری 4.7",IF(G109=2,"گاباری 4.6",IF(G109=3,"گاباری 4.9",IF(G109=4,"گاباری 5.2",IF(G109=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F109" s="49" t="str">
-        <f>C109&amp;D109</f>
+        <f t="shared" si="3"/>
         <v>سیاه کوهبی سیم</v>
       </c>
       <c r="G109" s="49">
@@ -59174,11 +59173,11 @@
         <v>378</v>
       </c>
       <c r="E110" s="49" t="str">
-        <f>IF(G110=0,"نا مشخص",IF(G110=1,"گاباری 4.7",IF(G110=2,"گاباری 4.6",IF(G110=3,"گاباری 4.9",IF(G110=4,"گاباری 5.2",IF(G110=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F110" s="49" t="str">
-        <f>C110&amp;D110</f>
+        <f t="shared" si="3"/>
         <v>بی سیماردکان</v>
       </c>
       <c r="G110" s="49">
@@ -59198,11 +59197,11 @@
         <v>390</v>
       </c>
       <c r="E111" s="49" t="str">
-        <f>IF(G111=0,"نا مشخص",IF(G111=1,"گاباری 4.7",IF(G111=2,"گاباری 4.6",IF(G111=3,"گاباری 4.9",IF(G111=4,"گاباری 5.2",IF(G111=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F111" s="49" t="str">
-        <f>C111&amp;D111</f>
+        <f t="shared" si="3"/>
         <v>اردکانمیبد</v>
       </c>
       <c r="G111" s="49">
@@ -59222,11 +59221,11 @@
         <v>378</v>
       </c>
       <c r="E112" s="49" t="str">
-        <f>IF(G112=0,"نا مشخص",IF(G112=1,"گاباری 4.7",IF(G112=2,"گاباری 4.6",IF(G112=3,"گاباری 4.9",IF(G112=4,"گاباری 5.2",IF(G112=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F112" s="49" t="str">
-        <f>C112&amp;D112</f>
+        <f t="shared" si="3"/>
         <v>ارژنگاردکان</v>
       </c>
       <c r="G112" s="49">
@@ -59246,11 +59245,11 @@
         <v>390</v>
       </c>
       <c r="E113" s="49" t="str">
-        <f>IF(G113=0,"نا مشخص",IF(G113=1,"گاباری 4.7",IF(G113=2,"گاباری 4.6",IF(G113=3,"گاباری 4.9",IF(G113=4,"گاباری 5.2",IF(G113=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F113" s="49" t="str">
-        <f>C113&amp;D113</f>
+        <f t="shared" si="3"/>
         <v>ارژنگمیبد</v>
       </c>
       <c r="G113" s="49">
@@ -59270,11 +59269,11 @@
         <v>101</v>
       </c>
       <c r="E114" s="49" t="str">
-        <f>IF(G114=0,"نا مشخص",IF(G114=1,"گاباری 4.7",IF(G114=2,"گاباری 4.6",IF(G114=3,"گاباری 4.9",IF(G114=4,"گاباری 5.2",IF(G114=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F114" s="49" t="str">
-        <f>C114&amp;D114</f>
+        <f t="shared" si="3"/>
         <v>گندله سازیارژنگ</v>
       </c>
       <c r="G114" s="49">
@@ -59294,11 +59293,11 @@
         <v>391</v>
       </c>
       <c r="E115" s="49" t="str">
-        <f>IF(G115=0,"نا مشخص",IF(G115=1,"گاباری 4.7",IF(G115=2,"گاباری 4.6",IF(G115=3,"گاباری 4.9",IF(G115=4,"گاباری 5.2",IF(G115=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F115" s="49" t="str">
-        <f>C115&amp;D115</f>
+        <f t="shared" si="3"/>
         <v>میبدشمسی</v>
       </c>
       <c r="G115" s="49">
@@ -59316,11 +59315,11 @@
         <v>392</v>
       </c>
       <c r="E116" s="49" t="str">
-        <f>IF(G116=0,"نا مشخص",IF(G116=1,"گاباری 4.7",IF(G116=2,"گاباری 4.6",IF(G116=3,"گاباری 4.9",IF(G116=4,"گاباری 5.2",IF(G116=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F116" s="49" t="str">
-        <f>C116&amp;D116</f>
+        <f t="shared" si="3"/>
         <v>شمسیاشکذر</v>
       </c>
       <c r="G116" s="49">
@@ -59338,11 +59337,11 @@
         <v>204</v>
       </c>
       <c r="E117" s="49" t="str">
-        <f>IF(G117=0,"نا مشخص",IF(G117=1,"گاباری 4.7",IF(G117=2,"گاباری 4.6",IF(G117=3,"گاباری 4.9",IF(G117=4,"گاباری 5.2",IF(G117=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F117" s="49" t="str">
-        <f>C117&amp;D117</f>
+        <f t="shared" si="3"/>
         <v>اشکذریزد</v>
       </c>
       <c r="G117" s="49">
@@ -59362,11 +59361,11 @@
         <v>393</v>
       </c>
       <c r="E118" s="49" t="str">
-        <f>IF(G118=0,"نا مشخص",IF(G118=1,"گاباری 4.7",IF(G118=2,"گاباری 4.6",IF(G118=3,"گاباری 4.9",IF(G118=4,"گاباری 5.2",IF(G118=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F118" s="49" t="str">
-        <f>C118&amp;D118</f>
+        <f t="shared" si="3"/>
         <v>یزدیزدگرد</v>
       </c>
       <c r="G118" s="49">
@@ -59384,11 +59383,11 @@
         <v>104</v>
       </c>
       <c r="E119" s="49" t="str">
-        <f>IF(G119=0,"نا مشخص",IF(G119=1,"گاباری 4.7",IF(G119=2,"گاباری 4.6",IF(G119=3,"گاباری 4.9",IF(G119=4,"گاباری 5.2",IF(G119=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F119" s="49" t="str">
-        <f>C119&amp;D119</f>
+        <f t="shared" si="3"/>
         <v>یزدگردرخش</v>
       </c>
       <c r="G119" s="49">
@@ -59406,11 +59405,11 @@
         <v>105</v>
       </c>
       <c r="E120" s="49" t="str">
-        <f>IF(G120=0,"نا مشخص",IF(G120=1,"گاباری 4.7",IF(G120=2,"گاباری 4.6",IF(G120=3,"گاباری 4.9",IF(G120=4,"گاباری 5.2",IF(G120=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F120" s="49" t="str">
-        <f>C120&amp;D120</f>
+        <f t="shared" si="3"/>
         <v>رخشچاه خاور</v>
       </c>
       <c r="G120" s="49">
@@ -59428,11 +59427,11 @@
         <v>394</v>
       </c>
       <c r="E121" s="49" t="str">
-        <f>IF(G121=0,"نا مشخص",IF(G121=1,"گاباری 4.7",IF(G121=2,"گاباری 4.6",IF(G121=3,"گاباری 4.9",IF(G121=4,"گاباری 5.2",IF(G121=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F121" s="49" t="str">
-        <f>C121&amp;D121</f>
+        <f t="shared" si="3"/>
         <v>چاه خاورتبرکوه</v>
       </c>
       <c r="G121" s="49">
@@ -59450,11 +59449,11 @@
         <v>106</v>
       </c>
       <c r="E122" s="49" t="str">
-        <f>IF(G122=0,"نا مشخص",IF(G122=1,"گاباری 4.7",IF(G122=2,"گاباری 4.6",IF(G122=3,"گاباری 4.9",IF(G122=4,"گاباری 5.2",IF(G122=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F122" s="49" t="str">
-        <f>C122&amp;D122</f>
+        <f t="shared" si="3"/>
         <v>تبرکوهمهرداد</v>
       </c>
       <c r="G122" s="49">
@@ -59472,11 +59471,11 @@
         <v>395</v>
       </c>
       <c r="E123" s="49" t="str">
-        <f>IF(G123=0,"نا مشخص",IF(G123=1,"گاباری 4.7",IF(G123=2,"گاباری 4.6",IF(G123=3,"گاباری 4.9",IF(G123=4,"گاباری 5.2",IF(G123=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F123" s="49" t="str">
-        <f>C123&amp;D123</f>
+        <f t="shared" si="3"/>
         <v>مهردادبهرام گور</v>
       </c>
       <c r="G123" s="49">
@@ -59494,11 +59493,11 @@
         <v>107</v>
       </c>
       <c r="E124" s="49" t="str">
-        <f>IF(G124=0,"نا مشخص",IF(G124=1,"گاباری 4.7",IF(G124=2,"گاباری 4.6",IF(G124=3,"گاباری 4.9",IF(G124=4,"گاباری 5.2",IF(G124=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F124" s="49" t="str">
-        <f>C124&amp;D124</f>
+        <f t="shared" si="3"/>
         <v>بهرام گوربافق</v>
       </c>
       <c r="G124" s="49">
@@ -59518,11 +59517,11 @@
         <v>108</v>
       </c>
       <c r="E125" s="49" t="str">
-        <f>IF(G125=0,"نا مشخص",IF(G125=1,"گاباری 4.7",IF(G125=2,"گاباری 4.6",IF(G125=3,"گاباری 4.9",IF(G125=4,"گاباری 5.2",IF(G125=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F125" s="49" t="str">
-        <f>C125&amp;D125</f>
+        <f t="shared" si="3"/>
         <v>بیشه درچغارت</v>
       </c>
       <c r="G125" s="49">
@@ -59540,11 +59539,11 @@
         <v>396</v>
       </c>
       <c r="E126" s="49" t="str">
-        <f>IF(G126=0,"نا مشخص",IF(G126=1,"گاباری 4.7",IF(G126=2,"گاباری 4.6",IF(G126=3,"گاباری 4.9",IF(G126=4,"گاباری 5.2",IF(G126=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F126" s="49" t="str">
-        <f>C126&amp;D126</f>
+        <f t="shared" si="3"/>
         <v>بافقمبارکه</v>
       </c>
       <c r="G126" s="49">
@@ -59562,11 +59561,11 @@
         <v>108</v>
       </c>
       <c r="E127" s="49" t="str">
-        <f>IF(G127=0,"نا مشخص",IF(G127=1,"گاباری 4.7",IF(G127=2,"گاباری 4.6",IF(G127=3,"گاباری 4.9",IF(G127=4,"گاباری 5.2",IF(G127=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>نا مشخص</v>
       </c>
       <c r="F127" s="49" t="str">
-        <f>C127&amp;D127</f>
+        <f t="shared" si="3"/>
         <v>مبارکهچغارت</v>
       </c>
       <c r="G127" s="49">
@@ -59586,11 +59585,11 @@
         <v>115</v>
       </c>
       <c r="E128" s="49" t="str">
-        <f>IF(G128=0,"نا مشخص",IF(G128=1,"گاباری 4.7",IF(G128=2,"گاباری 4.6",IF(G128=3,"گاباری 4.9",IF(G128=4,"گاباری 5.2",IF(G128=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F128" s="49" t="str">
-        <f>C128&amp;D128</f>
+        <f t="shared" si="3"/>
         <v>جندقچادرملو</v>
       </c>
       <c r="G128" s="49">
@@ -59610,11 +59609,11 @@
         <v>111</v>
       </c>
       <c r="E129" s="49" t="str">
-        <f>IF(G129=0,"نا مشخص",IF(G129=1,"گاباری 4.7",IF(G129=2,"گاباری 4.6",IF(G129=3,"گاباری 4.9",IF(G129=4,"گاباری 5.2",IF(G129=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="2"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F129" s="49" t="str">
-        <f>C129&amp;D129</f>
+        <f t="shared" si="3"/>
         <v>اردکانگلدانه</v>
       </c>
       <c r="G129" s="49">
@@ -59632,11 +59631,11 @@
         <v>112</v>
       </c>
       <c r="E130" s="49" t="str">
-        <f>IF(G130=0,"نا مشخص",IF(G130=1,"گاباری 4.7",IF(G130=2,"گاباری 4.6",IF(G130=3,"گاباری 4.9",IF(G130=4,"گاباری 5.2",IF(G130=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E130:E193" si="4">IF(G130=0,"نا مشخص",IF(G130=1,"گاباری 4.7",IF(G130=2,"گاباری 4.6",IF(G130=3,"گاباری 4.9",IF(G130=4,"گاباری 5.2",IF(G130=5,"گاباری 5.4"))))))</f>
         <v>گاباری 5.4</v>
       </c>
       <c r="F130" s="49" t="str">
-        <f>C130&amp;D130</f>
+        <f t="shared" ref="F130:F193" si="5">C130&amp;D130</f>
         <v>گلدانهچغاسرخ</v>
       </c>
       <c r="G130" s="49">
@@ -59654,11 +59653,11 @@
         <v>113</v>
       </c>
       <c r="E131" s="49" t="str">
-        <f>IF(G131=0,"نا مشخص",IF(G131=1,"گاباری 4.7",IF(G131=2,"گاباری 4.6",IF(G131=3,"گاباری 4.9",IF(G131=4,"گاباری 5.2",IF(G131=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F131" s="49" t="str">
-        <f>C131&amp;D131</f>
+        <f t="shared" si="5"/>
         <v>چغاسرختوت</v>
       </c>
       <c r="G131" s="49">
@@ -59676,11 +59675,11 @@
         <v>379</v>
       </c>
       <c r="E132" s="49" t="str">
-        <f>IF(G132=0,"نا مشخص",IF(G132=1,"گاباری 4.7",IF(G132=2,"گاباری 4.6",IF(G132=3,"گاباری 4.9",IF(G132=4,"گاباری 5.2",IF(G132=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F132" s="49" t="str">
-        <f>C132&amp;D132</f>
+        <f t="shared" si="5"/>
         <v>توتزرین کوه</v>
       </c>
       <c r="G132" s="49">
@@ -59698,11 +59697,11 @@
         <v>380</v>
       </c>
       <c r="E133" s="49" t="str">
-        <f>IF(G133=0,"نا مشخص",IF(G133=1,"گاباری 4.7",IF(G133=2,"گاباری 4.6",IF(G133=3,"گاباری 4.9",IF(G133=4,"گاباری 5.2",IF(G133=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F133" s="49" t="str">
-        <f>C133&amp;D133</f>
+        <f t="shared" si="5"/>
         <v>زرین کوهریگ</v>
       </c>
       <c r="G133" s="49">
@@ -59720,11 +59719,11 @@
         <v>381</v>
       </c>
       <c r="E134" s="49" t="str">
-        <f>IF(G134=0,"نا مشخص",IF(G134=1,"گاباری 4.7",IF(G134=2,"گاباری 4.6",IF(G134=3,"گاباری 4.9",IF(G134=4,"گاباری 5.2",IF(G134=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F134" s="49" t="str">
-        <f>C134&amp;D134</f>
+        <f t="shared" si="5"/>
         <v>ریگنی باد</v>
       </c>
       <c r="G134" s="49">
@@ -59742,11 +59741,11 @@
         <v>382</v>
       </c>
       <c r="E135" s="49" t="str">
-        <f>IF(G135=0,"نا مشخص",IF(G135=1,"گاباری 4.7",IF(G135=2,"گاباری 4.6",IF(G135=3,"گاباری 4.9",IF(G135=4,"گاباری 5.2",IF(G135=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F135" s="49" t="str">
-        <f>C135&amp;D135</f>
+        <f t="shared" si="5"/>
         <v>نی باددارانجیر</v>
       </c>
       <c r="G135" s="49">
@@ -59764,11 +59763,11 @@
         <v>383</v>
       </c>
       <c r="E136" s="49" t="str">
-        <f>IF(G136=0,"نا مشخص",IF(G136=1,"گاباری 4.7",IF(G136=2,"گاباری 4.6",IF(G136=3,"گاباری 4.9",IF(G136=4,"گاباری 5.2",IF(G136=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F136" s="49" t="str">
-        <f>C136&amp;D136</f>
+        <f t="shared" si="5"/>
         <v>دارانجیرخوشومی</v>
       </c>
       <c r="G136" s="49">
@@ -59786,11 +59785,11 @@
         <v>114</v>
       </c>
       <c r="E137" s="49" t="str">
-        <f>IF(G137=0,"نا مشخص",IF(G137=1,"گاباری 4.7",IF(G137=2,"گاباری 4.6",IF(G137=3,"گاباری 4.9",IF(G137=4,"گاباری 5.2",IF(G137=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F137" s="49" t="str">
-        <f>C137&amp;D137</f>
+        <f t="shared" si="5"/>
         <v>خوشومیساغند</v>
       </c>
       <c r="G137" s="49">
@@ -59808,11 +59807,11 @@
         <v>115</v>
       </c>
       <c r="E138" s="49" t="str">
-        <f>IF(G138=0,"نا مشخص",IF(G138=1,"گاباری 4.7",IF(G138=2,"گاباری 4.6",IF(G138=3,"گاباری 4.9",IF(G138=4,"گاباری 5.2",IF(G138=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F138" s="49" t="str">
-        <f>C138&amp;D138</f>
+        <f t="shared" si="5"/>
         <v>ساغندچادرملو</v>
       </c>
       <c r="G138" s="49">
@@ -59832,11 +59831,11 @@
         <v>398</v>
       </c>
       <c r="E139" s="49" t="str">
-        <f>IF(G139=0,"نا مشخص",IF(G139=1,"گاباری 4.7",IF(G139=2,"گاباری 4.6",IF(G139=3,"گاباری 4.9",IF(G139=4,"گاباری 5.2",IF(G139=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F139" s="49" t="str">
-        <f>C139&amp;D139</f>
+        <f t="shared" si="5"/>
         <v>مبارکهاضطراری 26</v>
       </c>
       <c r="G139" s="49">
@@ -59856,11 +59855,11 @@
         <v>398</v>
       </c>
       <c r="E140" s="49" t="str">
-        <f>IF(G140=0,"نا مشخص",IF(G140=1,"گاباری 4.7",IF(G140=2,"گاباری 4.6",IF(G140=3,"گاباری 4.9",IF(G140=4,"گاباری 5.2",IF(G140=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F140" s="49" t="str">
-        <f>C140&amp;D140</f>
+        <f t="shared" si="5"/>
         <v>بافقاضطراری 26</v>
       </c>
       <c r="G140" s="49">
@@ -59882,11 +59881,11 @@
         <v>399</v>
       </c>
       <c r="E141" s="49" t="str">
-        <f>IF(G141=0,"نا مشخص",IF(G141=1,"گاباری 4.7",IF(G141=2,"گاباری 4.6",IF(G141=3,"گاباری 4.9",IF(G141=4,"گاباری 5.2",IF(G141=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F141" s="49" t="str">
-        <f>C141&amp;D141</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 26اضطراری 25</v>
       </c>
       <c r="G141" s="49">
@@ -59904,11 +59903,11 @@
         <v>120</v>
       </c>
       <c r="E142" s="49" t="str">
-        <f>IF(G142=0,"نا مشخص",IF(G142=1,"گاباری 4.7",IF(G142=2,"گاباری 4.6",IF(G142=3,"گاباری 4.9",IF(G142=4,"گاباری 5.2",IF(G142=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F142" s="49" t="str">
-        <f>C142&amp;D142</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 25جنت آباد</v>
       </c>
       <c r="G142" s="49">
@@ -59926,11 +59925,11 @@
         <v>400</v>
       </c>
       <c r="E143" s="49" t="str">
-        <f>IF(G143=0,"نا مشخص",IF(G143=1,"گاباری 4.7",IF(G143=2,"گاباری 4.6",IF(G143=3,"گاباری 4.9",IF(G143=4,"گاباری 5.2",IF(G143=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F143" s="49" t="str">
-        <f>C143&amp;D143</f>
+        <f t="shared" si="5"/>
         <v>جنت آباداضطراری 22</v>
       </c>
       <c r="G143" s="49">
@@ -59948,11 +59947,11 @@
         <v>401</v>
       </c>
       <c r="E144" s="49" t="str">
-        <f>IF(G144=0,"نا مشخص",IF(G144=1,"گاباری 4.7",IF(G144=2,"گاباری 4.6",IF(G144=3,"گاباری 4.9",IF(G144=4,"گاباری 5.2",IF(G144=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F144" s="49" t="str">
-        <f>C144&amp;D144</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 22بیاض</v>
       </c>
       <c r="G144" s="49">
@@ -59970,11 +59969,11 @@
         <v>402</v>
       </c>
       <c r="E145" s="49" t="str">
-        <f>IF(G145=0,"نا مشخص",IF(G145=1,"گاباری 4.7",IF(G145=2,"گاباری 4.6",IF(G145=3,"گاباری 4.9",IF(G145=4,"گاباری 5.2",IF(G145=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F145" s="49" t="str">
-        <f>C145&amp;D145</f>
+        <f t="shared" si="5"/>
         <v>بیاضاحمدآباد</v>
       </c>
       <c r="G145" s="49">
@@ -59992,11 +59991,11 @@
         <v>403</v>
       </c>
       <c r="E146" s="49" t="str">
-        <f>IF(G146=0,"نا مشخص",IF(G146=1,"گاباری 4.7",IF(G146=2,"گاباری 4.6",IF(G146=3,"گاباری 4.9",IF(G146=4,"گاباری 5.2",IF(G146=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F146" s="49" t="str">
-        <f>C146&amp;D146</f>
+        <f t="shared" si="5"/>
         <v>احمدآباداضطراری 18</v>
       </c>
       <c r="G146" s="49">
@@ -60014,11 +60013,11 @@
         <v>404</v>
       </c>
       <c r="E147" s="49" t="str">
-        <f>IF(G147=0,"نا مشخص",IF(G147=1,"گاباری 4.7",IF(G147=2,"گاباری 4.6",IF(G147=3,"گاباری 4.9",IF(G147=4,"گاباری 5.2",IF(G147=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F147" s="49" t="str">
-        <f>C147&amp;D147</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 18میمند</v>
       </c>
       <c r="G147" s="49">
@@ -60036,11 +60035,11 @@
         <v>121</v>
       </c>
       <c r="E148" s="49" t="str">
-        <f>IF(G148=0,"نا مشخص",IF(G148=1,"گاباری 4.7",IF(G148=2,"گاباری 4.6",IF(G148=3,"گاباری 4.9",IF(G148=4,"گاباری 5.2",IF(G148=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F148" s="49" t="str">
-        <f>C148&amp;D148</f>
+        <f t="shared" si="5"/>
         <v>میمندخاتون آباد</v>
       </c>
       <c r="G148" s="49">
@@ -60058,11 +60057,11 @@
         <v>126</v>
       </c>
       <c r="E149" s="49" t="str">
-        <f>IF(G149=0,"نا مشخص",IF(G149=1,"گاباری 4.7",IF(G149=2,"گاباری 4.6",IF(G149=3,"گاباری 4.9",IF(G149=4,"گاباری 5.2",IF(G149=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F149" s="49" t="str">
-        <f>C149&amp;D149</f>
+        <f t="shared" si="5"/>
         <v>خاتون آبادچوران</v>
       </c>
       <c r="G149" s="49">
@@ -60080,11 +60079,11 @@
         <v>255</v>
       </c>
       <c r="E150" s="49" t="str">
-        <f>IF(G150=0,"نا مشخص",IF(G150=1,"گاباری 4.7",IF(G150=2,"گاباری 4.6",IF(G150=3,"گاباری 4.9",IF(G150=4,"گاباری 5.2",IF(G150=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F150" s="49" t="str">
-        <f>C150&amp;D150</f>
+        <f t="shared" si="5"/>
         <v>چورانسیرجان</v>
       </c>
       <c r="G150" s="49">
@@ -60104,11 +60103,11 @@
         <v>398</v>
       </c>
       <c r="E151" s="49" t="str">
-        <f>IF(G151=0,"نا مشخص",IF(G151=1,"گاباری 4.7",IF(G151=2,"گاباری 4.6",IF(G151=3,"گاباری 4.9",IF(G151=4,"گاباری 5.2",IF(G151=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F151" s="49" t="str">
-        <f>C151&amp;D151</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 25اضطراری 26</v>
       </c>
       <c r="G151" s="49">
@@ -60126,11 +60125,11 @@
         <v>399</v>
       </c>
       <c r="E152" s="49" t="str">
-        <f>IF(G152=0,"نا مشخص",IF(G152=1,"گاباری 4.7",IF(G152=2,"گاباری 4.6",IF(G152=3,"گاباری 4.9",IF(G152=4,"گاباری 5.2",IF(G152=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F152" s="49" t="str">
-        <f>C152&amp;D152</f>
+        <f t="shared" si="5"/>
         <v>جنت آباداضطراری 25</v>
       </c>
       <c r="G152" s="49">
@@ -60148,11 +60147,11 @@
         <v>120</v>
       </c>
       <c r="E153" s="49" t="str">
-        <f>IF(G153=0,"نا مشخص",IF(G153=1,"گاباری 4.7",IF(G153=2,"گاباری 4.6",IF(G153=3,"گاباری 4.9",IF(G153=4,"گاباری 5.2",IF(G153=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F153" s="49" t="str">
-        <f>C153&amp;D153</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 22جنت آباد</v>
       </c>
       <c r="G153" s="49">
@@ -60170,11 +60169,11 @@
         <v>400</v>
       </c>
       <c r="E154" s="49" t="str">
-        <f>IF(G154=0,"نا مشخص",IF(G154=1,"گاباری 4.7",IF(G154=2,"گاباری 4.6",IF(G154=3,"گاباری 4.9",IF(G154=4,"گاباری 5.2",IF(G154=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F154" s="49" t="str">
-        <f>C154&amp;D154</f>
+        <f t="shared" si="5"/>
         <v>بیاضاضطراری 22</v>
       </c>
       <c r="G154" s="49">
@@ -60192,11 +60191,11 @@
         <v>401</v>
       </c>
       <c r="E155" s="49" t="str">
-        <f>IF(G155=0,"نا مشخص",IF(G155=1,"گاباری 4.7",IF(G155=2,"گاباری 4.6",IF(G155=3,"گاباری 4.9",IF(G155=4,"گاباری 5.2",IF(G155=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F155" s="49" t="str">
-        <f>C155&amp;D155</f>
+        <f t="shared" si="5"/>
         <v>احمدآبادبیاض</v>
       </c>
       <c r="G155" s="49">
@@ -60214,11 +60213,11 @@
         <v>402</v>
       </c>
       <c r="E156" s="49" t="str">
-        <f>IF(G156=0,"نا مشخص",IF(G156=1,"گاباری 4.7",IF(G156=2,"گاباری 4.6",IF(G156=3,"گاباری 4.9",IF(G156=4,"گاباری 5.2",IF(G156=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F156" s="49" t="str">
-        <f>C156&amp;D156</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 18احمدآباد</v>
       </c>
       <c r="G156" s="49">
@@ -60236,11 +60235,11 @@
         <v>403</v>
       </c>
       <c r="E157" s="49" t="str">
-        <f>IF(G157=0,"نا مشخص",IF(G157=1,"گاباری 4.7",IF(G157=2,"گاباری 4.6",IF(G157=3,"گاباری 4.9",IF(G157=4,"گاباری 5.2",IF(G157=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F157" s="49" t="str">
-        <f>C157&amp;D157</f>
+        <f t="shared" si="5"/>
         <v>میمنداضطراری 18</v>
       </c>
       <c r="G157" s="49">
@@ -60258,11 +60257,11 @@
         <v>404</v>
       </c>
       <c r="E158" s="49" t="str">
-        <f>IF(G158=0,"نا مشخص",IF(G158=1,"گاباری 4.7",IF(G158=2,"گاباری 4.6",IF(G158=3,"گاباری 4.9",IF(G158=4,"گاباری 5.2",IF(G158=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F158" s="49" t="str">
-        <f>C158&amp;D158</f>
+        <f t="shared" si="5"/>
         <v>خاتون آبادمیمند</v>
       </c>
       <c r="G158" s="49">
@@ -60280,11 +60279,11 @@
         <v>121</v>
       </c>
       <c r="E159" s="49" t="str">
-        <f>IF(G159=0,"نا مشخص",IF(G159=1,"گاباری 4.7",IF(G159=2,"گاباری 4.6",IF(G159=3,"گاباری 4.9",IF(G159=4,"گاباری 5.2",IF(G159=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F159" s="49" t="str">
-        <f>C159&amp;D159</f>
+        <f t="shared" si="5"/>
         <v>چورانخاتون آباد</v>
       </c>
       <c r="G159" s="49">
@@ -60302,11 +60301,11 @@
         <v>126</v>
       </c>
       <c r="E160" s="49" t="str">
-        <f>IF(G160=0,"نا مشخص",IF(G160=1,"گاباری 4.7",IF(G160=2,"گاباری 4.6",IF(G160=3,"گاباری 4.9",IF(G160=4,"گاباری 5.2",IF(G160=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F160" s="49" t="str">
-        <f>C160&amp;D160</f>
+        <f t="shared" si="5"/>
         <v>سیرجانچوران</v>
       </c>
       <c r="G160" s="49">
@@ -60326,11 +60325,11 @@
         <v>405</v>
       </c>
       <c r="E161" s="49" t="str">
-        <f>IF(G161=0,"نا مشخص",IF(G161=1,"گاباری 4.7",IF(G161=2,"گاباری 4.6",IF(G161=3,"گاباری 4.9",IF(G161=4,"گاباری 5.2",IF(G161=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F161" s="49" t="str">
-        <f>C161&amp;D161</f>
+        <f t="shared" si="5"/>
         <v>سیرجاناضطراری 16</v>
       </c>
       <c r="G161" s="49">
@@ -60348,11 +60347,11 @@
         <v>239</v>
       </c>
       <c r="E162" s="49" t="str">
-        <f>IF(G162=0,"نا مشخص",IF(G162=1,"گاباری 4.7",IF(G162=2,"گاباری 4.6",IF(G162=3,"گاباری 4.9",IF(G162=4,"گاباری 5.2",IF(G162=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F162" s="49" t="str">
-        <f>C162&amp;D162</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 16گل گهر</v>
       </c>
       <c r="G162" s="49">
@@ -60372,11 +60371,11 @@
         <v>255</v>
       </c>
       <c r="E163" s="49" t="str">
-        <f>IF(G163=0,"نا مشخص",IF(G163=1,"گاباری 4.7",IF(G163=2,"گاباری 4.6",IF(G163=3,"گاباری 4.9",IF(G163=4,"گاباری 5.2",IF(G163=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F163" s="49" t="str">
-        <f>C163&amp;D163</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 16سیرجان</v>
       </c>
       <c r="G163" s="49">
@@ -60394,11 +60393,11 @@
         <v>405</v>
       </c>
       <c r="E164" s="49" t="str">
-        <f>IF(G164=0,"نا مشخص",IF(G164=1,"گاباری 4.7",IF(G164=2,"گاباری 4.6",IF(G164=3,"گاباری 4.9",IF(G164=4,"گاباری 5.2",IF(G164=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F164" s="49" t="str">
-        <f>C164&amp;D164</f>
+        <f t="shared" si="5"/>
         <v>گل گهراضطراری 16</v>
       </c>
       <c r="G164" s="49">
@@ -60418,11 +60417,11 @@
         <v>124</v>
       </c>
       <c r="E165" s="49" t="str">
-        <f>IF(G165=0,"نا مشخص",IF(G165=1,"گاباری 4.7",IF(G165=2,"گاباری 4.6",IF(G165=3,"گاباری 4.9",IF(G165=4,"گاباری 5.2",IF(G165=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F165" s="49" t="str">
-        <f>C165&amp;D165</f>
+        <f t="shared" si="5"/>
         <v>گل گهرقره تپه</v>
       </c>
       <c r="G165" s="49">
@@ -60440,11 +60439,11 @@
         <v>406</v>
       </c>
       <c r="E166" s="49" t="str">
-        <f>IF(G166=0,"نا مشخص",IF(G166=1,"گاباری 4.7",IF(G166=2,"گاباری 4.6",IF(G166=3,"گاباری 4.9",IF(G166=4,"گاباری 5.2",IF(G166=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F166" s="49" t="str">
-        <f>C166&amp;D166</f>
+        <f t="shared" si="5"/>
         <v>قره تپهکهه</v>
       </c>
       <c r="G166" s="49">
@@ -60462,11 +60461,11 @@
         <v>125</v>
       </c>
       <c r="E167" s="49" t="str">
-        <f>IF(G167=0,"نا مشخص",IF(G167=1,"گاباری 4.7",IF(G167=2,"گاباری 4.6",IF(G167=3,"گاباری 4.9",IF(G167=4,"گاباری 5.2",IF(G167=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F167" s="49" t="str">
-        <f>C167&amp;D167</f>
+        <f t="shared" si="5"/>
         <v>کههچاه تر</v>
       </c>
       <c r="G167" s="49">
@@ -60484,11 +60483,11 @@
         <v>122</v>
       </c>
       <c r="E168" s="49" t="str">
-        <f>IF(G168=0,"نا مشخص",IF(G168=1,"گاباری 4.7",IF(G168=2,"گاباری 4.6",IF(G168=3,"گاباری 4.9",IF(G168=4,"گاباری 5.2",IF(G168=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F168" s="49" t="str">
-        <f>C168&amp;D168</f>
+        <f t="shared" si="5"/>
         <v>چاه ترتزرج</v>
       </c>
       <c r="G168" s="49">
@@ -60506,11 +60505,11 @@
         <v>407</v>
       </c>
       <c r="E169" s="49" t="str">
-        <f>IF(G169=0,"نا مشخص",IF(G169=1,"گاباری 4.7",IF(G169=2,"گاباری 4.6",IF(G169=3,"گاباری 4.9",IF(G169=4,"گاباری 5.2",IF(G169=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F169" s="49" t="str">
-        <f>C169&amp;D169</f>
+        <f t="shared" si="5"/>
         <v>تزرجاضطراری 8</v>
       </c>
       <c r="G169" s="49">
@@ -60528,11 +60527,11 @@
         <v>123</v>
       </c>
       <c r="E170" s="49" t="str">
-        <f>IF(G170=0,"نا مشخص",IF(G170=1,"گاباری 4.7",IF(G170=2,"گاباری 4.6",IF(G170=3,"گاباری 4.9",IF(G170=4,"گاباری 5.2",IF(G170=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F170" s="49" t="str">
-        <f>C170&amp;D170</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 8زادمحمود</v>
       </c>
       <c r="G170" s="49">
@@ -60550,11 +60549,11 @@
         <v>408</v>
       </c>
       <c r="E171" s="49" t="str">
-        <f>IF(G171=0,"نا مشخص",IF(G171=1,"گاباری 4.7",IF(G171=2,"گاباری 4.6",IF(G171=3,"گاباری 4.9",IF(G171=4,"گاباری 5.2",IF(G171=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F171" s="49" t="str">
-        <f>C171&amp;D171</f>
+        <f t="shared" si="5"/>
         <v>زادمحموداضطراری 6</v>
       </c>
       <c r="G171" s="49">
@@ -60572,11 +60571,11 @@
         <v>409</v>
       </c>
       <c r="E172" s="49" t="str">
-        <f>IF(G172=0,"نا مشخص",IF(G172=1,"گاباری 4.7",IF(G172=2,"گاباری 4.6",IF(G172=3,"گاباری 4.9",IF(G172=4,"گاباری 5.2",IF(G172=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F172" s="49" t="str">
-        <f>C172&amp;D172</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 6فین</v>
       </c>
       <c r="G172" s="49">
@@ -60594,11 +60593,11 @@
         <v>410</v>
       </c>
       <c r="E173" s="49" t="str">
-        <f>IF(G173=0,"نا مشخص",IF(G173=1,"گاباری 4.7",IF(G173=2,"گاباری 4.6",IF(G173=3,"گاباری 4.9",IF(G173=4,"گاباری 5.2",IF(G173=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F173" s="49" t="str">
-        <f>C173&amp;D173</f>
+        <f t="shared" si="5"/>
         <v>فینتیکوه</v>
       </c>
       <c r="G173" s="49">
@@ -60616,11 +60615,11 @@
         <v>240</v>
       </c>
       <c r="E174" s="49" t="str">
-        <f>IF(G174=0,"نا مشخص",IF(G174=1,"گاباری 4.7",IF(G174=2,"گاباری 4.6",IF(G174=3,"گاباری 4.9",IF(G174=4,"گاباری 5.2",IF(G174=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F174" s="49" t="str">
-        <f>C174&amp;D174</f>
+        <f t="shared" si="5"/>
         <v>تیکوهانشعاب بندرعباس</v>
       </c>
       <c r="G174" s="49">
@@ -60640,11 +60639,11 @@
         <v>239</v>
       </c>
       <c r="E175" s="49" t="str">
-        <f>IF(G175=0,"نا مشخص",IF(G175=1,"گاباری 4.7",IF(G175=2,"گاباری 4.6",IF(G175=3,"گاباری 4.9",IF(G175=4,"گاباری 5.2",IF(G175=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F175" s="49" t="str">
-        <f>C175&amp;D175</f>
+        <f t="shared" si="5"/>
         <v>قره تپهگل گهر</v>
       </c>
       <c r="G175" s="49">
@@ -60662,11 +60661,11 @@
         <v>124</v>
       </c>
       <c r="E176" s="49" t="str">
-        <f>IF(G176=0,"نا مشخص",IF(G176=1,"گاباری 4.7",IF(G176=2,"گاباری 4.6",IF(G176=3,"گاباری 4.9",IF(G176=4,"گاباری 5.2",IF(G176=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F176" s="49" t="str">
-        <f>C176&amp;D176</f>
+        <f t="shared" si="5"/>
         <v>کههقره تپه</v>
       </c>
       <c r="G176" s="49">
@@ -60684,11 +60683,11 @@
         <v>406</v>
       </c>
       <c r="E177" s="49" t="str">
-        <f>IF(G177=0,"نا مشخص",IF(G177=1,"گاباری 4.7",IF(G177=2,"گاباری 4.6",IF(G177=3,"گاباری 4.9",IF(G177=4,"گاباری 5.2",IF(G177=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F177" s="49" t="str">
-        <f>C177&amp;D177</f>
+        <f t="shared" si="5"/>
         <v>چاه ترکهه</v>
       </c>
       <c r="G177" s="49">
@@ -60706,11 +60705,11 @@
         <v>125</v>
       </c>
       <c r="E178" s="49" t="str">
-        <f>IF(G178=0,"نا مشخص",IF(G178=1,"گاباری 4.7",IF(G178=2,"گاباری 4.6",IF(G178=3,"گاباری 4.9",IF(G178=4,"گاباری 5.2",IF(G178=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F178" s="49" t="str">
-        <f>C178&amp;D178</f>
+        <f t="shared" si="5"/>
         <v>تزرجچاه تر</v>
       </c>
       <c r="G178" s="49">
@@ -60728,11 +60727,11 @@
         <v>122</v>
       </c>
       <c r="E179" s="49" t="str">
-        <f>IF(G179=0,"نا مشخص",IF(G179=1,"گاباری 4.7",IF(G179=2,"گاباری 4.6",IF(G179=3,"گاباری 4.9",IF(G179=4,"گاباری 5.2",IF(G179=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F179" s="49" t="str">
-        <f>C179&amp;D179</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 8تزرج</v>
       </c>
       <c r="G179" s="49">
@@ -60750,11 +60749,11 @@
         <v>407</v>
       </c>
       <c r="E180" s="49" t="str">
-        <f>IF(G180=0,"نا مشخص",IF(G180=1,"گاباری 4.7",IF(G180=2,"گاباری 4.6",IF(G180=3,"گاباری 4.9",IF(G180=4,"گاباری 5.2",IF(G180=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F180" s="49" t="str">
-        <f>C180&amp;D180</f>
+        <f t="shared" si="5"/>
         <v>زادمحموداضطراری 8</v>
       </c>
       <c r="G180" s="49">
@@ -60772,11 +60771,11 @@
         <v>123</v>
       </c>
       <c r="E181" s="49" t="str">
-        <f>IF(G181=0,"نا مشخص",IF(G181=1,"گاباری 4.7",IF(G181=2,"گاباری 4.6",IF(G181=3,"گاباری 4.9",IF(G181=4,"گاباری 5.2",IF(G181=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F181" s="49" t="str">
-        <f>C181&amp;D181</f>
+        <f t="shared" si="5"/>
         <v>اضطراری 6زادمحمود</v>
       </c>
       <c r="G181" s="49">
@@ -60794,11 +60793,11 @@
         <v>408</v>
       </c>
       <c r="E182" s="49" t="str">
-        <f>IF(G182=0,"نا مشخص",IF(G182=1,"گاباری 4.7",IF(G182=2,"گاباری 4.6",IF(G182=3,"گاباری 4.9",IF(G182=4,"گاباری 5.2",IF(G182=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F182" s="49" t="str">
-        <f>C182&amp;D182</f>
+        <f t="shared" si="5"/>
         <v>فیناضطراری 6</v>
       </c>
       <c r="G182" s="49">
@@ -60816,11 +60815,11 @@
         <v>409</v>
       </c>
       <c r="E183" s="49" t="str">
-        <f>IF(G183=0,"نا مشخص",IF(G183=1,"گاباری 4.7",IF(G183=2,"گاباری 4.6",IF(G183=3,"گاباری 4.9",IF(G183=4,"گاباری 5.2",IF(G183=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F183" s="49" t="str">
-        <f>C183&amp;D183</f>
+        <f t="shared" si="5"/>
         <v>تیکوهفین</v>
       </c>
       <c r="G183" s="49">
@@ -60838,11 +60837,11 @@
         <v>410</v>
       </c>
       <c r="E184" s="49" t="str">
-        <f>IF(G184=0,"نا مشخص",IF(G184=1,"گاباری 4.7",IF(G184=2,"گاباری 4.6",IF(G184=3,"گاباری 4.9",IF(G184=4,"گاباری 5.2",IF(G184=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F184" s="49" t="str">
-        <f>C184&amp;D184</f>
+        <f t="shared" si="5"/>
         <v>انشعاب بندرعباستیکوه</v>
       </c>
       <c r="G184" s="49">
@@ -60862,11 +60861,11 @@
         <v>249</v>
       </c>
       <c r="E185" s="49" t="str">
-        <f>IF(G185=0,"نا مشخص",IF(G185=1,"گاباری 4.7",IF(G185=2,"گاباری 4.6",IF(G185=3,"گاباری 4.9",IF(G185=4,"گاباری 5.2",IF(G185=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F185" s="49" t="str">
-        <f>C185&amp;D185</f>
+        <f t="shared" si="5"/>
         <v>انشعاب بندرعباسبندرعباس مسافری</v>
       </c>
       <c r="G185" s="49">
@@ -60886,11 +60885,11 @@
         <v>214</v>
       </c>
       <c r="E186" s="49" t="str">
-        <f>IF(G186=0,"نا مشخص",IF(G186=1,"گاباری 4.7",IF(G186=2,"گاباری 4.6",IF(G186=3,"گاباری 4.9",IF(G186=4,"گاباری 5.2",IF(G186=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F186" s="49" t="str">
-        <f>C186&amp;D186</f>
+        <f t="shared" si="5"/>
         <v>انشعاب بندرعباسمانوری بندرعباس</v>
       </c>
       <c r="G186" s="49">
@@ -60910,11 +60909,11 @@
         <v>440</v>
       </c>
       <c r="E187" s="49" t="str">
-        <f>IF(G187=0,"نا مشخص",IF(G187=1,"گاباری 4.7",IF(G187=2,"گاباری 4.6",IF(G187=3,"گاباری 4.9",IF(G187=4,"گاباری 5.2",IF(G187=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F187" s="49" t="str">
-        <f>C187&amp;D187</f>
+        <f t="shared" si="5"/>
         <v>خاتون آبادمس سرچشمه</v>
       </c>
       <c r="G187" s="49">
@@ -60934,11 +60933,11 @@
         <v>239</v>
       </c>
       <c r="E188" s="49" t="str">
-        <f>IF(G188=0,"نا مشخص",IF(G188=1,"گاباری 4.7",IF(G188=2,"گاباری 4.6",IF(G188=3,"گاباری 4.9",IF(G188=4,"گاباری 5.2",IF(G188=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F188" s="49" t="str">
-        <f>C188&amp;D188</f>
+        <f t="shared" si="5"/>
         <v>معدن گل گهرگل گهر</v>
       </c>
       <c r="G188" s="49">
@@ -60960,11 +60959,11 @@
         <v>396</v>
       </c>
       <c r="E189" s="49" t="str">
-        <f>IF(G189=0,"نا مشخص",IF(G189=1,"گاباری 4.7",IF(G189=2,"گاباری 4.6",IF(G189=3,"گاباری 4.9",IF(G189=4,"گاباری 5.2",IF(G189=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F189" s="52" t="str">
-        <f>C189&amp;D189</f>
+        <f t="shared" si="5"/>
         <v>بیشه درمبارکه</v>
       </c>
       <c r="G189" s="49">
@@ -60982,11 +60981,11 @@
         <v>241</v>
       </c>
       <c r="E190" s="49" t="str">
-        <f>IF(G190=0,"نا مشخص",IF(G190=1,"گاباری 4.7",IF(G190=2,"گاباری 4.6",IF(G190=3,"گاباری 4.9",IF(G190=4,"گاباری 5.2",IF(G190=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F190" s="52" t="str">
-        <f>C190&amp;D190</f>
+        <f t="shared" si="5"/>
         <v>پیروزیبیشه در</v>
       </c>
       <c r="G190" s="49">
@@ -61004,11 +61003,11 @@
         <v>422</v>
       </c>
       <c r="E191" s="49" t="str">
-        <f>IF(G191=0,"نا مشخص",IF(G191=1,"گاباری 4.7",IF(G191=2,"گاباری 4.6",IF(G191=3,"گاباری 4.9",IF(G191=4,"گاباری 5.2",IF(G191=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F191" s="50" t="str">
-        <f>C191&amp;D191</f>
+        <f t="shared" si="5"/>
         <v>سه چاهونپیروزی</v>
       </c>
       <c r="G191" s="49">
@@ -61026,11 +61025,11 @@
         <v>119</v>
       </c>
       <c r="E192" s="49" t="str">
-        <f>IF(G192=0,"نا مشخص",IF(G192=1,"گاباری 4.7",IF(G192=2,"گاباری 4.6",IF(G192=3,"گاباری 4.9",IF(G192=4,"گاباری 5.2",IF(G192=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F192" s="50" t="str">
-        <f>C192&amp;D192</f>
+        <f t="shared" si="5"/>
         <v>بهابادسه چاهون</v>
       </c>
       <c r="G192" s="49">
@@ -61048,11 +61047,11 @@
         <v>118</v>
       </c>
       <c r="E193" s="49" t="str">
-        <f>IF(G193=0,"نا مشخص",IF(G193=1,"گاباری 4.7",IF(G193=2,"گاباری 4.6",IF(G193=3,"گاباری 4.9",IF(G193=4,"گاباری 5.2",IF(G193=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="4"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F193" s="52" t="str">
-        <f>C193&amp;D193</f>
+        <f t="shared" si="5"/>
         <v>چاه محمدوبهاباد</v>
       </c>
       <c r="G193" s="49">
@@ -61070,11 +61069,11 @@
         <v>117</v>
       </c>
       <c r="E194" s="49" t="str">
-        <f>IF(G194=0,"نا مشخص",IF(G194=1,"گاباری 4.7",IF(G194=2,"گاباری 4.6",IF(G194=3,"گاباری 4.9",IF(G194=4,"گاباری 5.2",IF(G194=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E194:E257" si="6">IF(G194=0,"نا مشخص",IF(G194=1,"گاباری 4.7",IF(G194=2,"گاباری 4.6",IF(G194=3,"گاباری 4.9",IF(G194=4,"گاباری 5.2",IF(G194=5,"گاباری 5.4"))))))</f>
         <v>گاباری 5.4</v>
       </c>
       <c r="F194" s="52" t="str">
-        <f>C194&amp;D194</f>
+        <f t="shared" ref="F194:F257" si="7">C194&amp;D194</f>
         <v>جندقچاه محمدو</v>
       </c>
       <c r="G194" s="49">
@@ -61096,11 +61095,11 @@
         <v>116</v>
       </c>
       <c r="E195" s="49" t="str">
-        <f>IF(G195=0,"نا مشخص",IF(G195=1,"گاباری 4.7",IF(G195=2,"گاباری 4.6",IF(G195=3,"گاباری 4.9",IF(G195=4,"گاباری 5.2",IF(G195=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F195" s="52" t="str">
-        <f>C195&amp;D195</f>
+        <f t="shared" si="7"/>
         <v>رملجندق</v>
       </c>
       <c r="G195" s="49">
@@ -61118,11 +61117,11 @@
         <v>142</v>
       </c>
       <c r="E196" s="49" t="str">
-        <f>IF(G196=0,"نا مشخص",IF(G196=1,"گاباری 4.7",IF(G196=2,"گاباری 4.6",IF(G196=3,"گاباری 4.9",IF(G196=4,"گاباری 5.2",IF(G196=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F196" s="52" t="str">
-        <f>C196&amp;D196</f>
+        <f t="shared" si="7"/>
         <v>خنجرمل</v>
       </c>
       <c r="G196" s="49">
@@ -61140,11 +61139,11 @@
         <v>141</v>
       </c>
       <c r="E197" s="49" t="str">
-        <f>IF(G197=0,"نا مشخص",IF(G197=1,"گاباری 4.7",IF(G197=2,"گاباری 4.6",IF(G197=3,"گاباری 4.9",IF(G197=4,"گاباری 5.2",IF(G197=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F197" s="52" t="str">
-        <f>C197&amp;D197</f>
+        <f t="shared" si="7"/>
         <v>رباط پشت بادامخنج</v>
       </c>
       <c r="G197" s="49">
@@ -61162,11 +61161,11 @@
         <v>140</v>
       </c>
       <c r="E198" s="49" t="str">
-        <f>IF(G198=0,"نا مشخص",IF(G198=1,"گاباری 4.7",IF(G198=2,"گاباری 4.6",IF(G198=3,"گاباری 4.9",IF(G198=4,"گاباری 5.2",IF(G198=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F198" s="52" t="str">
-        <f>C198&amp;D198</f>
+        <f t="shared" si="7"/>
         <v>تل حمیدرباط پشت بادام</v>
       </c>
       <c r="G198" s="49">
@@ -61184,11 +61183,11 @@
         <v>139</v>
       </c>
       <c r="E199" s="49" t="str">
-        <f>IF(G199=0,"نا مشخص",IF(G199=1,"گاباری 4.7",IF(G199=2,"گاباری 4.6",IF(G199=3,"گاباری 4.9",IF(G199=4,"گاباری 5.2",IF(G199=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F199" s="50" t="str">
-        <f>C199&amp;D199</f>
+        <f t="shared" si="7"/>
         <v>شهید منتظر قائمتل حمید</v>
       </c>
       <c r="G199" s="49">
@@ -61206,11 +61205,11 @@
         <v>421</v>
       </c>
       <c r="E200" s="49" t="str">
-        <f>IF(G200=0,"نا مشخص",IF(G200=1,"گاباری 4.7",IF(G200=2,"گاباری 4.6",IF(G200=3,"گاباری 4.9",IF(G200=4,"گاباری 5.2",IF(G200=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F200" s="52" t="str">
-        <f>C200&amp;D200</f>
+        <f t="shared" si="7"/>
         <v>ریزوشهید منتظر قائم</v>
       </c>
       <c r="G200" s="49">
@@ -61228,11 +61227,11 @@
         <v>420</v>
       </c>
       <c r="E201" s="49" t="str">
-        <f>IF(G201=0,"نا مشخص",IF(G201=1,"گاباری 4.7",IF(G201=2,"گاباری 4.6",IF(G201=3,"گاباری 4.9",IF(G201=4,"گاباری 5.2",IF(G201=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F201" s="52" t="str">
-        <f>C201&amp;D201</f>
+        <f t="shared" si="7"/>
         <v>عباس آبادریزو</v>
       </c>
       <c r="G201" s="49">
@@ -61250,11 +61249,11 @@
         <v>138</v>
       </c>
       <c r="E202" s="49" t="str">
-        <f>IF(G202=0,"نا مشخص",IF(G202=1,"گاباری 4.7",IF(G202=2,"گاباری 4.6",IF(G202=3,"گاباری 4.9",IF(G202=4,"گاباری 5.2",IF(G202=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F202" s="50" t="str">
-        <f>C202&amp;D202</f>
+        <f t="shared" si="7"/>
         <v>کال زردعباس آباد</v>
       </c>
       <c r="G202" s="49">
@@ -61272,11 +61271,11 @@
         <v>137</v>
       </c>
       <c r="E203" s="49" t="str">
-        <f>IF(G203=0,"نا مشخص",IF(G203=1,"گاباری 4.7",IF(G203=2,"گاباری 4.6",IF(G203=3,"گاباری 4.9",IF(G203=4,"گاباری 5.2",IF(G203=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F203" s="50" t="str">
-        <f>C203&amp;D203</f>
+        <f t="shared" si="7"/>
         <v>نمکزار (طبس)کال زرد</v>
       </c>
       <c r="G203" s="49">
@@ -61294,11 +61293,11 @@
         <v>419</v>
       </c>
       <c r="E204" s="49" t="str">
-        <f>IF(G204=0,"نا مشخص",IF(G204=1,"گاباری 4.7",IF(G204=2,"گاباری 4.6",IF(G204=3,"گاباری 4.9",IF(G204=4,"گاباری 5.2",IF(G204=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F204" s="50" t="str">
-        <f>C204&amp;D204</f>
+        <f t="shared" si="7"/>
         <v>طبسنمکزار (طبس)</v>
       </c>
       <c r="G204" s="49">
@@ -61318,11 +61317,11 @@
         <v>127</v>
       </c>
       <c r="E205" s="49" t="str">
-        <f>IF(G205=0,"نا مشخص",IF(G205=1,"گاباری 4.7",IF(G205=2,"گاباری 4.6",IF(G205=3,"گاباری 4.9",IF(G205=4,"گاباری 5.2",IF(G205=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F205" s="52" t="str">
-        <f>C205&amp;D205</f>
+        <f t="shared" si="7"/>
         <v>دهشورطبس</v>
       </c>
       <c r="G205" s="49">
@@ -61340,11 +61339,11 @@
         <v>136</v>
       </c>
       <c r="E206" s="49" t="str">
-        <f>IF(G206=0,"نا مشخص",IF(G206=1,"گاباری 4.7",IF(G206=2,"گاباری 4.6",IF(G206=3,"گاباری 4.9",IF(G206=4,"گاباری 5.2",IF(G206=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F206" s="52" t="str">
-        <f>C206&amp;D206</f>
+        <f t="shared" si="7"/>
         <v>شیرگشتدهشور</v>
       </c>
       <c r="G206" s="49">
@@ -61362,11 +61361,11 @@
         <v>418</v>
       </c>
       <c r="E207" s="49" t="str">
-        <f>IF(G207=0,"نا مشخص",IF(G207=1,"گاباری 4.7",IF(G207=2,"گاباری 4.6",IF(G207=3,"گاباری 4.9",IF(G207=4,"گاباری 5.2",IF(G207=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F207" s="52" t="str">
-        <f>C207&amp;D207</f>
+        <f t="shared" si="7"/>
         <v>عشق آبادشیرگشت</v>
       </c>
       <c r="G207" s="49">
@@ -61384,11 +61383,11 @@
         <v>135</v>
       </c>
       <c r="E208" s="49" t="str">
-        <f>IF(G208=0,"نا مشخص",IF(G208=1,"گاباری 4.7",IF(G208=2,"گاباری 4.6",IF(G208=3,"گاباری 4.9",IF(G208=4,"گاباری 5.2",IF(G208=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F208" s="50" t="str">
-        <f>C208&amp;D208</f>
+        <f t="shared" si="7"/>
         <v>غنی آبادعشق آباد</v>
       </c>
       <c r="G208" s="49">
@@ -61406,11 +61405,11 @@
         <v>417</v>
       </c>
       <c r="E209" s="49" t="str">
-        <f>IF(G209=0,"نا مشخص",IF(G209=1,"گاباری 4.7",IF(G209=2,"گاباری 4.6",IF(G209=3,"گاباری 4.9",IF(G209=4,"گاباری 5.2",IF(G209=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F209" s="52" t="str">
-        <f>C209&amp;D209</f>
+        <f t="shared" si="7"/>
         <v>بشرویهغنی آباد</v>
       </c>
       <c r="G209" s="49">
@@ -61428,11 +61427,11 @@
         <v>416</v>
       </c>
       <c r="E210" s="49" t="str">
-        <f>IF(G210=0,"نا مشخص",IF(G210=1,"گاباری 4.7",IF(G210=2,"گاباری 4.6",IF(G210=3,"گاباری 4.9",IF(G210=4,"گاباری 5.2",IF(G210=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F210" s="52" t="str">
-        <f>C210&amp;D210</f>
+        <f t="shared" si="7"/>
         <v>جزینبشرویه</v>
       </c>
       <c r="G210" s="49">
@@ -61450,11 +61449,11 @@
         <v>415</v>
       </c>
       <c r="E211" s="49" t="str">
-        <f>IF(G211=0,"نا مشخص",IF(G211=1,"گاباری 4.7",IF(G211=2,"گاباری 4.6",IF(G211=3,"گاباری 4.9",IF(G211=4,"گاباری 5.2",IF(G211=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F211" s="52" t="str">
-        <f>C211&amp;D211</f>
+        <f t="shared" si="7"/>
         <v>قاسم آبادجزین</v>
       </c>
       <c r="G211" s="49">
@@ -61472,11 +61471,11 @@
         <v>134</v>
       </c>
       <c r="E212" s="49" t="str">
-        <f>IF(G212=0,"نا مشخص",IF(G212=1,"گاباری 4.7",IF(G212=2,"گاباری 4.6",IF(G212=3,"گاباری 4.9",IF(G212=4,"گاباری 5.2",IF(G212=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F212" s="52" t="str">
-        <f>C212&amp;D212</f>
+        <f t="shared" si="7"/>
         <v>آهنگقاسم آباد</v>
       </c>
       <c r="G212" s="49">
@@ -61494,11 +61493,11 @@
         <v>133</v>
       </c>
       <c r="E213" s="49" t="str">
-        <f>IF(G213=0,"نا مشخص",IF(G213=1,"گاباری 4.7",IF(G213=2,"گاباری 4.6",IF(G213=3,"گاباری 4.9",IF(G213=4,"گاباری 5.2",IF(G213=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F213" s="52" t="str">
-        <f>C213&amp;D213</f>
+        <f t="shared" si="7"/>
         <v>بجستانآهنگ</v>
       </c>
       <c r="G213" s="49">
@@ -61516,11 +61515,11 @@
         <v>132</v>
       </c>
       <c r="E214" s="49" t="str">
-        <f>IF(G214=0,"نا مشخص",IF(G214=1,"گاباری 4.7",IF(G214=2,"گاباری 4.6",IF(G214=3,"گاباری 4.9",IF(G214=4,"گاباری 5.2",IF(G214=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F214" s="52" t="str">
-        <f>C214&amp;D214</f>
+        <f t="shared" si="7"/>
         <v>یونسیبجستان</v>
       </c>
       <c r="G214" s="49">
@@ -61538,11 +61537,11 @@
         <v>414</v>
       </c>
       <c r="E215" s="49" t="str">
-        <f>IF(G215=0,"نا مشخص",IF(G215=1,"گاباری 4.7",IF(G215=2,"گاباری 4.6",IF(G215=3,"گاباری 4.9",IF(G215=4,"گاباری 5.2",IF(G215=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F215" s="52" t="str">
-        <f>C215&amp;D215</f>
+        <f t="shared" si="7"/>
         <v>کال شوریونسی</v>
       </c>
       <c r="G215" s="49">
@@ -61560,11 +61559,11 @@
         <v>131</v>
       </c>
       <c r="E216" s="49" t="str">
-        <f>IF(G216=0,"نا مشخص",IF(G216=1,"گاباری 4.7",IF(G216=2,"گاباری 4.6",IF(G216=3,"گاباری 4.9",IF(G216=4,"گاباری 5.2",IF(G216=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F216" s="52" t="str">
-        <f>C216&amp;D216</f>
+        <f t="shared" si="7"/>
         <v>نصر آبادکال شور</v>
       </c>
       <c r="G216" s="49">
@@ -61582,11 +61581,11 @@
         <v>130</v>
       </c>
       <c r="E217" s="49" t="str">
-        <f>IF(G217=0,"نا مشخص",IF(G217=1,"گاباری 4.7",IF(G217=2,"گاباری 4.6",IF(G217=3,"گاباری 4.9",IF(G217=4,"گاباری 5.2",IF(G217=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F217" s="52" t="str">
-        <f>C217&amp;D217</f>
+        <f t="shared" si="7"/>
         <v>شادمهرنصر آباد</v>
       </c>
       <c r="G217" s="49">
@@ -61604,11 +61603,11 @@
         <v>129</v>
       </c>
       <c r="E218" s="49" t="str">
-        <f>IF(G218=0,"نا مشخص",IF(G218=1,"گاباری 4.7",IF(G218=2,"گاباری 4.6",IF(G218=3,"گاباری 4.9",IF(G218=4,"گاباری 5.2",IF(G218=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F218" s="50" t="str">
-        <f>C218&amp;D218</f>
+        <f t="shared" si="7"/>
         <v>تربت حیدریهشادمهر</v>
       </c>
       <c r="G218" s="49">
@@ -61628,11 +61627,11 @@
         <v>143</v>
       </c>
       <c r="E219" s="49" t="str">
-        <f>IF(G219=0,"نا مشخص",IF(G219=1,"گاباری 4.7",IF(G219=2,"گاباری 4.6",IF(G219=3,"گاباری 4.9",IF(G219=4,"گاباری 5.2",IF(G219=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F219" s="49" t="str">
-        <f>C219&amp;D219</f>
+        <f t="shared" si="7"/>
         <v>تربت حیدریهسالار</v>
       </c>
       <c r="G219" s="49">
@@ -61650,11 +61649,11 @@
         <v>144</v>
       </c>
       <c r="E220" s="49" t="str">
-        <f>IF(G220=0,"نا مشخص",IF(G220=1,"گاباری 4.7",IF(G220=2,"گاباری 4.6",IF(G220=3,"گاباری 4.9",IF(G220=4,"گاباری 5.2",IF(G220=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F220" s="49" t="str">
-        <f>C220&amp;D220</f>
+        <f t="shared" si="7"/>
         <v>سالاررشتخوار</v>
       </c>
       <c r="G220" s="49">
@@ -61672,11 +61671,11 @@
         <v>145</v>
       </c>
       <c r="E221" s="49" t="str">
-        <f>IF(G221=0,"نا مشخص",IF(G221=1,"گاباری 4.7",IF(G221=2,"گاباری 4.6",IF(G221=3,"گاباری 4.9",IF(G221=4,"گاباری 5.2",IF(G221=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F221" s="49" t="str">
-        <f>C221&amp;D221</f>
+        <f t="shared" si="7"/>
         <v>رشتخوارچمن آباد</v>
       </c>
       <c r="G221" s="49">
@@ -61694,11 +61693,11 @@
         <v>423</v>
       </c>
       <c r="E222" s="49" t="str">
-        <f>IF(G222=0,"نا مشخص",IF(G222=1,"گاباری 4.7",IF(G222=2,"گاباری 4.6",IF(G222=3,"گاباری 4.9",IF(G222=4,"گاباری 5.2",IF(G222=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F222" s="49" t="str">
-        <f>C222&amp;D222</f>
+        <f t="shared" si="7"/>
         <v>چمن آبادسلامی</v>
       </c>
       <c r="G222" s="49">
@@ -61716,11 +61715,11 @@
         <v>146</v>
       </c>
       <c r="E223" s="49" t="str">
-        <f>IF(G223=0,"نا مشخص",IF(G223=1,"گاباری 4.7",IF(G223=2,"گاباری 4.6",IF(G223=3,"گاباری 4.9",IF(G223=4,"گاباری 5.2",IF(G223=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F223" s="49" t="str">
-        <f>C223&amp;D223</f>
+        <f t="shared" si="7"/>
         <v>سلامیخواف</v>
       </c>
       <c r="G223" s="49">
@@ -61738,11 +61737,11 @@
         <v>149</v>
       </c>
       <c r="E224" s="49" t="str">
-        <f>IF(G224=0,"نا مشخص",IF(G224=1,"گاباری 4.7",IF(G224=2,"گاباری 4.6",IF(G224=3,"گاباری 4.9",IF(G224=4,"گاباری 5.2",IF(G224=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F224" s="49" t="str">
-        <f>C224&amp;D224</f>
+        <f t="shared" si="7"/>
         <v>خوافسنگان</v>
       </c>
       <c r="G224" s="49">
@@ -61760,11 +61759,11 @@
         <v>1544</v>
       </c>
       <c r="E225" s="49" t="str">
-        <f>IF(G225=0,"نا مشخص",IF(G225=1,"گاباری 4.7",IF(G225=2,"گاباری 4.6",IF(G225=3,"گاباری 4.9",IF(G225=4,"گاباری 5.2",IF(G225=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F225" s="49" t="str">
-        <f>C225&amp;D225</f>
+        <f t="shared" si="7"/>
         <v>سنگانمیوتک</v>
       </c>
       <c r="G225" s="49">
@@ -61782,11 +61781,11 @@
         <v>1549</v>
       </c>
       <c r="E226" s="49" t="str">
-        <f>IF(G226=0,"نا مشخص",IF(G226=1,"گاباری 4.7",IF(G226=2,"گاباری 4.6",IF(G226=3,"گاباری 4.9",IF(G226=4,"گاباری 5.2",IF(G226=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F226" s="49" t="str">
-        <f>C226&amp;D226</f>
+        <f t="shared" si="7"/>
         <v>میوتکخوشابه</v>
       </c>
       <c r="G226" s="49">
@@ -61804,11 +61803,11 @@
         <v>453</v>
       </c>
       <c r="E227" s="49" t="str">
-        <f>IF(G227=0,"نا مشخص",IF(G227=1,"گاباری 4.7",IF(G227=2,"گاباری 4.6",IF(G227=3,"گاباری 4.9",IF(G227=4,"گاباری 5.2",IF(G227=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F227" s="49" t="str">
-        <f>C227&amp;D227</f>
+        <f t="shared" si="7"/>
         <v>خوشابهشمتیغ</v>
       </c>
       <c r="G227" s="49">
@@ -61826,11 +61825,11 @@
         <v>557</v>
       </c>
       <c r="E228" s="49" t="str">
-        <f>IF(G228=0,"نا مشخص",IF(G228=1,"گاباری 4.7",IF(G228=2,"گاباری 4.6",IF(G228=3,"گاباری 4.9",IF(G228=4,"گاباری 5.2",IF(G228=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F228" s="49" t="str">
-        <f>C228&amp;D228</f>
+        <f t="shared" si="7"/>
         <v>شمتیغشمتیغ افغانستان</v>
       </c>
       <c r="G228" s="49">
@@ -61850,11 +61849,11 @@
         <v>233</v>
       </c>
       <c r="E229" s="49" t="str">
-        <f>IF(G229=0,"نا مشخص",IF(G229=1,"گاباری 4.7",IF(G229=2,"گاباری 4.6",IF(G229=3,"گاباری 4.9",IF(G229=4,"گاباری 5.2",IF(G229=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F229" s="50" t="str">
-        <f>C229&amp;D229</f>
+        <f t="shared" si="7"/>
         <v>رختربت حیدریه</v>
       </c>
       <c r="G229" s="49">
@@ -61872,11 +61871,11 @@
         <v>128</v>
       </c>
       <c r="E230" s="49" t="str">
-        <f>IF(G230=0,"نا مشخص",IF(G230=1,"گاباری 4.7",IF(G230=2,"گاباری 4.6",IF(G230=3,"گاباری 4.9",IF(G230=4,"گاباری 5.2",IF(G230=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F230" s="52" t="str">
-        <f>C230&amp;D230</f>
+        <f t="shared" si="7"/>
         <v>کامهرخ</v>
       </c>
       <c r="G230" s="49">
@@ -61894,11 +61893,11 @@
         <v>413</v>
       </c>
       <c r="E231" s="49" t="str">
-        <f>IF(G231=0,"نا مشخص",IF(G231=1,"گاباری 4.7",IF(G231=2,"گاباری 4.6",IF(G231=3,"گاباری 4.9",IF(G231=4,"گاباری 5.2",IF(G231=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F231" s="52" t="str">
-        <f>C231&amp;D231</f>
+        <f t="shared" si="7"/>
         <v>حصار جلالکامه</v>
       </c>
       <c r="G231" s="49">
@@ -61916,11 +61915,11 @@
         <v>412</v>
       </c>
       <c r="E232" s="49" t="str">
-        <f>IF(G232=0,"نا مشخص",IF(G232=1,"گاباری 4.7",IF(G232=2,"گاباری 4.6",IF(G232=3,"گاباری 4.9",IF(G232=4,"گاباری 5.2",IF(G232=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F232" s="52" t="str">
-        <f>C232&amp;D232</f>
+        <f t="shared" si="7"/>
         <v>نمکیحصار جلال</v>
       </c>
       <c r="G232" s="49">
@@ -61938,11 +61937,11 @@
         <v>411</v>
       </c>
       <c r="E233" s="49" t="str">
-        <f>IF(G233=0,"نا مشخص",IF(G233=1,"گاباری 4.7",IF(G233=2,"گاباری 4.6",IF(G233=3,"گاباری 4.9",IF(G233=4,"گاباری 5.2",IF(G233=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F233" s="50" t="str">
-        <f>C233&amp;D233</f>
+        <f t="shared" si="7"/>
         <v>کاشمرنمکی</v>
       </c>
       <c r="G233" s="49">
@@ -61962,11 +61961,11 @@
         <v>148</v>
       </c>
       <c r="E234" s="49" t="str">
-        <f>IF(G234=0,"نا مشخص",IF(G234=1,"گاباری 4.7",IF(G234=2,"گاباری 4.6",IF(G234=3,"گاباری 4.9",IF(G234=4,"گاباری 5.2",IF(G234=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F234" s="50" t="str">
-        <f>C234&amp;D234</f>
+        <f t="shared" si="7"/>
         <v>کال زردمبادله</v>
       </c>
       <c r="G234" s="49">
@@ -61984,11 +61983,11 @@
         <v>441</v>
       </c>
       <c r="E235" s="49" t="str">
-        <f>IF(G235=0,"نا مشخص",IF(G235=1,"گاباری 4.7",IF(G235=2,"گاباری 4.6",IF(G235=3,"گاباری 4.9",IF(G235=4,"گاباری 5.2",IF(G235=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F235" s="50" t="str">
-        <f>C235&amp;D235</f>
+        <f t="shared" si="7"/>
         <v>مبادلهمعدن پرواده</v>
       </c>
       <c r="G235" s="49">
@@ -62010,11 +62009,11 @@
         <v>424</v>
       </c>
       <c r="E236" s="49" t="str">
-        <f>IF(G236=0,"نا مشخص",IF(G236=1,"گاباری 4.7",IF(G236=2,"گاباری 4.6",IF(G236=3,"گاباری 4.9",IF(G236=4,"گاباری 5.2",IF(G236=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F236" s="49" t="str">
-        <f>C236&amp;D236</f>
+        <f t="shared" si="7"/>
         <v>اضطراری 26دره ریگ</v>
       </c>
       <c r="G236" s="49">
@@ -62032,11 +62031,11 @@
         <v>425</v>
       </c>
       <c r="E237" s="49" t="str">
-        <f>IF(G237=0,"نا مشخص",IF(G237=1,"گاباری 4.7",IF(G237=2,"گاباری 4.6",IF(G237=3,"گاباری 4.9",IF(G237=4,"گاباری 5.2",IF(G237=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F237" s="49" t="str">
-        <f>C237&amp;D237</f>
+        <f t="shared" si="7"/>
         <v>دره ریگمانی</v>
       </c>
       <c r="G237" s="49">
@@ -62054,11 +62053,11 @@
         <v>2069</v>
       </c>
       <c r="E238" s="49" t="str">
-        <f>IF(G238=0,"نا مشخص",IF(G238=1,"گاباری 4.7",IF(G238=2,"گاباری 4.6",IF(G238=3,"گاباری 4.9",IF(G238=4,"گاباری 5.2",IF(G238=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F238" s="49" t="str">
-        <f>C238&amp;D238</f>
+        <f t="shared" si="7"/>
         <v>مانیمورد</v>
       </c>
       <c r="G238" s="49">
@@ -62076,11 +62075,11 @@
         <v>426</v>
       </c>
       <c r="E239" s="49" t="str">
-        <f>IF(G239=0,"نا مشخص",IF(G239=1,"گاباری 4.7",IF(G239=2,"گاباری 4.6",IF(G239=3,"گاباری 4.9",IF(G239=4,"گاباری 5.2",IF(G239=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F239" s="49" t="str">
-        <f>C239&amp;D239</f>
+        <f t="shared" si="7"/>
         <v>موردسی ریز</v>
       </c>
       <c r="G239" s="49">
@@ -62098,11 +62097,11 @@
         <v>150</v>
       </c>
       <c r="E240" s="49" t="str">
-        <f>IF(G240=0,"نا مشخص",IF(G240=1,"گاباری 4.7",IF(G240=2,"گاباری 4.6",IF(G240=3,"گاباری 4.9",IF(G240=4,"گاباری 5.2",IF(G240=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F240" s="49" t="str">
-        <f>C240&amp;D240</f>
+        <f t="shared" si="7"/>
         <v>سی ریزگل زرد</v>
       </c>
       <c r="G240" s="49">
@@ -62120,11 +62119,11 @@
         <v>151</v>
       </c>
       <c r="E241" s="49" t="str">
-        <f>IF(G241=0,"نا مشخص",IF(G241=1,"گاباری 4.7",IF(G241=2,"گاباری 4.6",IF(G241=3,"گاباری 4.9",IF(G241=4,"گاباری 5.2",IF(G241=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F241" s="49" t="str">
-        <f>C241&amp;D241</f>
+        <f t="shared" si="7"/>
         <v>گل زردجلال آباد</v>
       </c>
       <c r="G241" s="49">
@@ -62142,11 +62141,11 @@
         <v>152</v>
       </c>
       <c r="E242" s="49" t="str">
-        <f>IF(G242=0,"نا مشخص",IF(G242=1,"گاباری 4.7",IF(G242=2,"گاباری 4.6",IF(G242=3,"گاباری 4.9",IF(G242=4,"گاباری 5.2",IF(G242=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F242" s="49" t="str">
-        <f>C242&amp;D242</f>
+        <f t="shared" si="7"/>
         <v>جلال آبادزرند</v>
       </c>
       <c r="G242" s="49">
@@ -62166,11 +62165,11 @@
         <v>153</v>
       </c>
       <c r="E243" s="49" t="str">
-        <f>IF(G243=0,"نا مشخص",IF(G243=1,"گاباری 4.7",IF(G243=2,"گاباری 4.6",IF(G243=3,"گاباری 4.9",IF(G243=4,"گاباری 5.2",IF(G243=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F243" s="49" t="str">
-        <f>C243&amp;D243</f>
+        <f t="shared" si="7"/>
         <v>زرندپورمند</v>
       </c>
       <c r="G243" s="49">
@@ -62188,11 +62187,11 @@
         <v>154</v>
       </c>
       <c r="E244" s="49" t="str">
-        <f>IF(G244=0,"نا مشخص",IF(G244=1,"گاباری 4.7",IF(G244=2,"گاباری 4.6",IF(G244=3,"گاباری 4.9",IF(G244=4,"گاباری 5.2",IF(G244=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F244" s="49" t="str">
-        <f>C244&amp;D244</f>
+        <f t="shared" si="7"/>
         <v>پورمندکرمان</v>
       </c>
       <c r="G244" s="49">
@@ -62212,11 +62211,11 @@
         <v>427</v>
       </c>
       <c r="E245" s="49" t="str">
-        <f>IF(G245=0,"نا مشخص",IF(G245=1,"گاباری 4.7",IF(G245=2,"گاباری 4.6",IF(G245=3,"گاباری 4.9",IF(G245=4,"گاباری 5.2",IF(G245=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F245" s="49" t="str">
-        <f>C245&amp;D245</f>
+        <f t="shared" si="7"/>
         <v>کرمانحسین آباد</v>
       </c>
       <c r="G245" s="49">
@@ -62234,11 +62233,11 @@
         <v>428</v>
       </c>
       <c r="E246" s="49" t="str">
-        <f>IF(G246=0,"نا مشخص",IF(G246=1,"گاباری 4.7",IF(G246=2,"گاباری 4.6",IF(G246=3,"گاباری 4.9",IF(G246=4,"گاباری 5.2",IF(G246=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F246" s="49" t="str">
-        <f>C246&amp;D246</f>
+        <f t="shared" si="7"/>
         <v>حسین آبادرایین</v>
       </c>
       <c r="G246" s="49">
@@ -62256,11 +62255,11 @@
         <v>156</v>
       </c>
       <c r="E247" s="49" t="str">
-        <f>IF(G247=0,"نا مشخص",IF(G247=1,"گاباری 4.7",IF(G247=2,"گاباری 4.6",IF(G247=3,"گاباری 4.9",IF(G247=4,"گاباری 5.2",IF(G247=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F247" s="49" t="str">
-        <f>C247&amp;D247</f>
+        <f t="shared" si="7"/>
         <v>رایینتهرود</v>
       </c>
       <c r="G247" s="49">
@@ -62278,11 +62277,11 @@
         <v>155</v>
       </c>
       <c r="E248" s="49" t="str">
-        <f>IF(G248=0,"نا مشخص",IF(G248=1,"گاباری 4.7",IF(G248=2,"گاباری 4.6",IF(G248=3,"گاباری 4.9",IF(G248=4,"گاباری 5.2",IF(G248=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F248" s="49" t="str">
-        <f>C248&amp;D248</f>
+        <f t="shared" si="7"/>
         <v>تهرودبم</v>
       </c>
       <c r="G248" s="49">
@@ -62302,11 +62301,11 @@
         <v>254</v>
       </c>
       <c r="E249" s="49" t="str">
-        <f>IF(G249=0,"نا مشخص",IF(G249=1,"گاباری 4.7",IF(G249=2,"گاباری 4.6",IF(G249=3,"گاباری 4.9",IF(G249=4,"گاباری 5.2",IF(G249=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F249" s="49" t="str">
-        <f>C249&amp;D249</f>
+        <f t="shared" si="7"/>
         <v>بمخودروسازی</v>
       </c>
       <c r="G249" s="49">
@@ -62324,11 +62323,11 @@
         <v>157</v>
       </c>
       <c r="E250" s="49" t="str">
-        <f>IF(G250=0,"نا مشخص",IF(G250=1,"گاباری 4.7",IF(G250=2,"گاباری 4.6",IF(G250=3,"گاباری 4.9",IF(G250=4,"گاباری 5.2",IF(G250=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F250" s="49" t="str">
-        <f>C250&amp;D250</f>
+        <f t="shared" si="7"/>
         <v>خودروسازیفهرج</v>
       </c>
       <c r="G250" s="49">
@@ -62346,11 +62345,11 @@
         <v>158</v>
       </c>
       <c r="E251" s="49" t="str">
-        <f>IF(G251=0,"نا مشخص",IF(G251=1,"گاباری 4.7",IF(G251=2,"گاباری 4.6",IF(G251=3,"گاباری 4.9",IF(G251=4,"گاباری 5.2",IF(G251=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F251" s="50" t="str">
-        <f>C251&amp;D251</f>
+        <f t="shared" si="7"/>
         <v>فهرجشورگز</v>
       </c>
       <c r="G251" s="49">
@@ -62370,11 +62369,11 @@
         <v>196</v>
       </c>
       <c r="E252" s="49" t="str">
-        <f>IF(G252=0,"نا مشخص",IF(G252=1,"گاباری 4.7",IF(G252=2,"گاباری 4.6",IF(G252=3,"گاباری 4.9",IF(G252=4,"گاباری 5.2",IF(G252=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F252" s="49" t="str">
-        <f>C252&amp;D252</f>
+        <f t="shared" si="7"/>
         <v>شورگزرودشور (زاهدان)</v>
       </c>
       <c r="G252" s="49">
@@ -62392,11 +62391,11 @@
         <v>166</v>
       </c>
       <c r="E253" s="49" t="str">
-        <f>IF(G253=0,"نا مشخص",IF(G253=1,"گاباری 4.7",IF(G253=2,"گاباری 4.6",IF(G253=3,"گاباری 4.9",IF(G253=4,"گاباری 5.2",IF(G253=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F253" s="49" t="str">
-        <f>C253&amp;D253</f>
+        <f t="shared" si="7"/>
         <v>رودشور (زاهدان)مزارآب</v>
       </c>
       <c r="G253" s="49">
@@ -62414,11 +62413,11 @@
         <v>167</v>
       </c>
       <c r="E254" s="49" t="str">
-        <f>IF(G254=0,"نا مشخص",IF(G254=1,"گاباری 4.7",IF(G254=2,"گاباری 4.6",IF(G254=3,"گاباری 4.9",IF(G254=4,"گاباری 5.2",IF(G254=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F254" s="49" t="str">
-        <f>C254&amp;D254</f>
+        <f t="shared" si="7"/>
         <v>مزارآبکلات</v>
       </c>
       <c r="G254" s="49">
@@ -62436,11 +62435,11 @@
         <v>168</v>
       </c>
       <c r="E255" s="49" t="str">
-        <f>IF(G255=0,"نا مشخص",IF(G255=1,"گاباری 4.7",IF(G255=2,"گاباری 4.6",IF(G255=3,"گاباری 4.9",IF(G255=4,"گاباری 5.2",IF(G255=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F255" s="49" t="str">
-        <f>C255&amp;D255</f>
+        <f t="shared" si="7"/>
         <v>کلاتشورو</v>
       </c>
       <c r="G255" s="49">
@@ -62458,11 +62457,11 @@
         <v>303</v>
       </c>
       <c r="E256" s="49" t="str">
-        <f>IF(G256=0,"نا مشخص",IF(G256=1,"گاباری 4.7",IF(G256=2,"گاباری 4.6",IF(G256=3,"گاباری 4.9",IF(G256=4,"گاباری 5.2",IF(G256=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F256" s="49" t="str">
-        <f>C256&amp;D256</f>
+        <f t="shared" si="7"/>
         <v>شوروجیگولی</v>
       </c>
       <c r="G256" s="49">
@@ -62480,11 +62479,11 @@
         <v>170</v>
       </c>
       <c r="E257" s="49" t="str">
-        <f>IF(G257=0,"نا مشخص",IF(G257=1,"گاباری 4.7",IF(G257=2,"گاباری 4.6",IF(G257=3,"گاباری 4.9",IF(G257=4,"گاباری 5.2",IF(G257=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="6"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F257" s="49" t="str">
-        <f>C257&amp;D257</f>
+        <f t="shared" si="7"/>
         <v>جیگولیشرکت نفت</v>
       </c>
       <c r="G257" s="49">
@@ -62502,11 +62501,11 @@
         <v>212</v>
       </c>
       <c r="E258" s="49" t="str">
-        <f>IF(G258=0,"نا مشخص",IF(G258=1,"گاباری 4.7",IF(G258=2,"گاباری 4.6",IF(G258=3,"گاباری 4.9",IF(G258=4,"گاباری 5.2",IF(G258=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E258:E321" si="8">IF(G258=0,"نا مشخص",IF(G258=1,"گاباری 4.7",IF(G258=2,"گاباری 4.6",IF(G258=3,"گاباری 4.9",IF(G258=4,"گاباری 5.2",IF(G258=5,"گاباری 5.4"))))))</f>
         <v>گاباری 5.4</v>
       </c>
       <c r="F258" s="49" t="str">
-        <f>C258&amp;D258</f>
+        <f t="shared" ref="F258:F321" si="9">C258&amp;D258</f>
         <v>شرکت نفتزاهدان باری</v>
       </c>
       <c r="G258" s="49">
@@ -62524,11 +62523,11 @@
         <v>304</v>
       </c>
       <c r="E259" s="49" t="str">
-        <f>IF(G259=0,"نا مشخص",IF(G259=1,"گاباری 4.7",IF(G259=2,"گاباری 4.6",IF(G259=3,"گاباری 4.9",IF(G259=4,"گاباری 5.2",IF(G259=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F259" s="49" t="str">
-        <f>C259&amp;D259</f>
+        <f t="shared" si="9"/>
         <v>زاهدان باریزاهدان مسافری</v>
       </c>
       <c r="G259" s="49">
@@ -62548,11 +62547,11 @@
         <v>169</v>
       </c>
       <c r="E260" s="49" t="str">
-        <f>IF(G260=0,"نا مشخص",IF(G260=1,"گاباری 4.7",IF(G260=2,"گاباری 4.6",IF(G260=3,"گاباری 4.9",IF(G260=4,"گاباری 5.2",IF(G260=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F260" s="49" t="str">
-        <f>C260&amp;D260</f>
+        <f t="shared" si="9"/>
         <v>زاهدان مسافریخان محمد چاه</v>
       </c>
       <c r="G260" s="49">
@@ -62570,11 +62569,11 @@
         <v>242</v>
       </c>
       <c r="E261" s="49" t="str">
-        <f>IF(G261=0,"نا مشخص",IF(G261=1,"گاباری 4.7",IF(G261=2,"گاباری 4.6",IF(G261=3,"گاباری 4.9",IF(G261=4,"گاباری 5.2",IF(G261=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F261" s="49" t="str">
-        <f>C261&amp;D261</f>
+        <f t="shared" si="9"/>
         <v>خان محمد چاهمیرجاوه</v>
       </c>
       <c r="G261" s="49">
@@ -62596,11 +62595,11 @@
         <v>180</v>
       </c>
       <c r="E262" s="49" t="str">
-        <f>IF(G262=0,"نا مشخص",IF(G262=1,"گاباری 4.7",IF(G262=2,"گاباری 4.6",IF(G262=3,"گاباری 4.9",IF(G262=4,"گاباری 5.2",IF(G262=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F262" s="49" t="str">
-        <f>C262&amp;D262</f>
+        <f t="shared" si="9"/>
         <v>گارقم</v>
       </c>
       <c r="G262" s="49">
@@ -62620,11 +62619,11 @@
         <v>182</v>
       </c>
       <c r="E263" s="49" t="str">
-        <f>IF(G263=0,"نا مشخص",IF(G263=1,"گاباری 4.7",IF(G263=2,"گاباری 4.6",IF(G263=3,"گاباری 4.9",IF(G263=4,"گاباری 5.2",IF(G263=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F263" s="49" t="str">
-        <f>C263&amp;D263</f>
+        <f t="shared" si="9"/>
         <v>محمدیهجمکران</v>
       </c>
       <c r="G263" s="49">
@@ -62644,11 +62643,11 @@
         <v>2060</v>
       </c>
       <c r="E264" s="49" t="str">
-        <f>IF(G264=0,"نا مشخص",IF(G264=1,"گاباری 4.7",IF(G264=2,"گاباری 4.6",IF(G264=3,"گاباری 4.9",IF(G264=4,"گاباری 5.2",IF(G264=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F264" s="50" t="str">
-        <f>C264&amp;D264</f>
+        <f t="shared" si="9"/>
         <v>محمدیهرابط ساقه</v>
       </c>
       <c r="G264" s="49">
@@ -62668,11 +62667,11 @@
         <v>87</v>
       </c>
       <c r="E265" s="49" t="str">
-        <f>IF(G265=0,"نا مشخص",IF(G265=1,"گاباری 4.7",IF(G265=2,"گاباری 4.6",IF(G265=3,"گاباری 4.9",IF(G265=4,"گاباری 5.2",IF(G265=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F265" s="50" t="str">
-        <f>C265&amp;D265</f>
+        <f t="shared" si="9"/>
         <v>محمدیهشورآب</v>
       </c>
       <c r="G265" s="49">
@@ -62692,11 +62691,11 @@
         <v>2060</v>
       </c>
       <c r="E266" s="49" t="str">
-        <f>IF(G266=0,"نا مشخص",IF(G266=1,"گاباری 4.7",IF(G266=2,"گاباری 4.6",IF(G266=3,"گاباری 4.9",IF(G266=4,"گاباری 5.2",IF(G266=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F266" s="50" t="str">
-        <f>C266&amp;D266</f>
+        <f t="shared" si="9"/>
         <v>شورآبرابط ساقه</v>
       </c>
       <c r="G266" s="49">
@@ -62716,11 +62715,11 @@
         <v>18</v>
       </c>
       <c r="E267" s="49" t="str">
-        <f>IF(G267=0,"نا مشخص",IF(G267=1,"گاباری 4.7",IF(G267=2,"گاباری 4.6",IF(G267=3,"گاباری 4.9",IF(G267=4,"گاباری 5.2",IF(G267=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>نا مشخص</v>
       </c>
       <c r="F267" s="50" t="str">
-        <f>C267&amp;D267</f>
+        <f t="shared" si="9"/>
         <v>رابط ساقهساقه</v>
       </c>
       <c r="G267" s="49">
@@ -62740,11 +62739,11 @@
         <v>18</v>
       </c>
       <c r="E268" s="49" t="str">
-        <f>IF(G268=0,"نا مشخص",IF(G268=1,"گاباری 4.7",IF(G268=2,"گاباری 4.6",IF(G268=3,"گاباری 4.9",IF(G268=4,"گاباری 5.2",IF(G268=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F268" s="49" t="str">
-        <f>C268&amp;D268</f>
+        <f t="shared" si="9"/>
         <v>قمساقه</v>
       </c>
       <c r="G268" s="49">
@@ -62764,11 +62763,11 @@
         <v>181</v>
       </c>
       <c r="E269" s="49" t="str">
-        <f>IF(G269=0,"نا مشخص",IF(G269=1,"گاباری 4.7",IF(G269=2,"گاباری 4.6",IF(G269=3,"گاباری 4.9",IF(G269=4,"گاباری 5.2",IF(G269=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F269" s="49" t="str">
-        <f>C269&amp;D269</f>
+        <f t="shared" si="9"/>
         <v>قمرودگار</v>
       </c>
       <c r="G269" s="49">
@@ -62788,11 +62787,11 @@
         <v>183</v>
       </c>
       <c r="E270" s="49" t="str">
-        <f>IF(G270=0,"نا مشخص",IF(G270=1,"گاباری 4.7",IF(G270=2,"گاباری 4.6",IF(G270=3,"گاباری 4.9",IF(G270=4,"گاباری 5.2",IF(G270=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F270" s="50" t="str">
-        <f>C270&amp;D270</f>
+        <f t="shared" si="9"/>
         <v>گارقمرود</v>
       </c>
       <c r="G270" s="49">
@@ -62812,11 +62811,11 @@
         <v>18</v>
       </c>
       <c r="E271" s="49" t="str">
-        <f>IF(G271=0,"نا مشخص",IF(G271=1,"گاباری 4.7",IF(G271=2,"گاباری 4.6",IF(G271=3,"گاباری 4.9",IF(G271=4,"گاباری 5.2",IF(G271=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F271" s="49" t="str">
-        <f>C271&amp;D271</f>
+        <f t="shared" si="9"/>
         <v>گارساقه</v>
       </c>
       <c r="G271" s="49">
@@ -62834,11 +62833,11 @@
         <v>281</v>
       </c>
       <c r="E272" s="49" t="str">
-        <f>IF(G272=0,"نا مشخص",IF(G272=1,"گاباری 4.7",IF(G272=2,"گاباری 4.6",IF(G272=3,"گاباری 4.9",IF(G272=4,"گاباری 5.2",IF(G272=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F272" s="49" t="str">
-        <f>C272&amp;D272</f>
+        <f t="shared" si="9"/>
         <v>ساقهباغ یک</v>
       </c>
       <c r="G272" s="49">
@@ -62856,11 +62855,11 @@
         <v>282</v>
       </c>
       <c r="E273" s="49" t="str">
-        <f>IF(G273=0,"نا مشخص",IF(G273=1,"گاباری 4.7",IF(G273=2,"گاباری 4.6",IF(G273=3,"گاباری 4.9",IF(G273=4,"گاباری 5.2",IF(G273=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F273" s="49" t="str">
-        <f>C273&amp;D273</f>
+        <f t="shared" si="9"/>
         <v>باغ یکسواریان</v>
       </c>
       <c r="G273" s="49">
@@ -62880,11 +62879,11 @@
         <v>19</v>
       </c>
       <c r="E274" s="49" t="str">
-        <f>IF(G274=0,"نا مشخص",IF(G274=1,"گاباری 4.7",IF(G274=2,"گاباری 4.6",IF(G274=3,"گاباری 4.9",IF(G274=4,"گاباری 5.2",IF(G274=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F274" s="49" t="str">
-        <f>C274&amp;D274</f>
+        <f t="shared" si="9"/>
         <v>سواریانراه گرد</v>
       </c>
       <c r="G274" s="49">
@@ -62902,11 +62901,11 @@
         <v>20</v>
       </c>
       <c r="E275" s="49" t="str">
-        <f>IF(G275=0,"نا مشخص",IF(G275=1,"گاباری 4.7",IF(G275=2,"گاباری 4.6",IF(G275=3,"گاباری 4.9",IF(G275=4,"گاباری 5.2",IF(G275=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F275" s="49" t="str">
-        <f>C275&amp;D275</f>
+        <f t="shared" si="9"/>
         <v>راه گردنان گرد</v>
       </c>
       <c r="G275" s="49">
@@ -62924,11 +62923,11 @@
         <v>230</v>
       </c>
       <c r="E276" s="49" t="str">
-        <f>IF(G276=0,"نا مشخص",IF(G276=1,"گاباری 4.7",IF(G276=2,"گاباری 4.6",IF(G276=3,"گاباری 4.9",IF(G276=4,"گاباری 5.2",IF(G276=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F276" s="49" t="str">
-        <f>C276&amp;D276</f>
+        <f t="shared" si="9"/>
         <v>نان گردمشک آباد</v>
       </c>
       <c r="G276" s="49">
@@ -62946,11 +62945,11 @@
         <v>283</v>
       </c>
       <c r="E277" s="49" t="str">
-        <f>IF(G277=0,"نا مشخص",IF(G277=1,"گاباری 4.7",IF(G277=2,"گاباری 4.6",IF(G277=3,"گاباری 4.9",IF(G277=4,"گاباری 5.2",IF(G277=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F277" s="49" t="str">
-        <f>C277&amp;D277</f>
+        <f t="shared" si="9"/>
         <v>مشک آبادملک آباد</v>
       </c>
       <c r="G277" s="49">
@@ -62968,11 +62967,11 @@
         <v>199</v>
       </c>
       <c r="E278" s="49" t="str">
-        <f>IF(G278=0,"نا مشخص",IF(G278=1,"گاباری 4.7",IF(G278=2,"گاباری 4.6",IF(G278=3,"گاباری 4.9",IF(G278=4,"گاباری 5.2",IF(G278=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F278" s="49" t="str">
-        <f>C278&amp;D278</f>
+        <f t="shared" si="9"/>
         <v>ملک آباداراک</v>
       </c>
       <c r="G278" s="49">
@@ -62992,11 +62991,11 @@
         <v>21</v>
       </c>
       <c r="E279" s="49" t="str">
-        <f>IF(G279=0,"نا مشخص",IF(G279=1,"گاباری 4.7",IF(G279=2,"گاباری 4.6",IF(G279=3,"گاباری 4.9",IF(G279=4,"گاباری 5.2",IF(G279=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F279" s="49" t="str">
-        <f>C279&amp;D279</f>
+        <f t="shared" si="9"/>
         <v>اراکسمنگان</v>
       </c>
       <c r="G279" s="49">
@@ -63014,11 +63013,11 @@
         <v>22</v>
       </c>
       <c r="E280" s="49" t="str">
-        <f>IF(G280=0,"نا مشخص",IF(G280=1,"گاباری 4.7",IF(G280=2,"گاباری 4.6",IF(G280=3,"گاباری 4.9",IF(G280=4,"گاباری 5.2",IF(G280=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F280" s="49" t="str">
-        <f>C280&amp;D280</f>
+        <f t="shared" si="9"/>
         <v>سمنگانشازند</v>
       </c>
       <c r="G280" s="49">
@@ -63036,11 +63035,11 @@
         <v>284</v>
       </c>
       <c r="E281" s="49" t="str">
-        <f>IF(G281=0,"نا مشخص",IF(G281=1,"گاباری 4.7",IF(G281=2,"گاباری 4.6",IF(G281=3,"گاباری 4.9",IF(G281=4,"گاباری 5.2",IF(G281=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F281" s="49" t="str">
-        <f>C281&amp;D281</f>
+        <f t="shared" si="9"/>
         <v>شازندنورآباد</v>
       </c>
       <c r="G281" s="49">
@@ -63058,11 +63057,11 @@
         <v>285</v>
       </c>
       <c r="E282" s="49" t="str">
-        <f>IF(G282=0,"نا مشخص",IF(G282=1,"گاباری 4.7",IF(G282=2,"گاباری 4.6",IF(G282=3,"گاباری 4.9",IF(G282=4,"گاباری 5.2",IF(G282=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F282" s="49" t="str">
-        <f>C282&amp;D282</f>
+        <f t="shared" si="9"/>
         <v>نورآبادسمیه</v>
       </c>
       <c r="G282" s="49">
@@ -63080,11 +63079,11 @@
         <v>23</v>
       </c>
       <c r="E283" s="49" t="str">
-        <f>IF(G283=0,"نا مشخص",IF(G283=1,"گاباری 4.7",IF(G283=2,"گاباری 4.6",IF(G283=3,"گاباری 4.9",IF(G283=4,"گاباری 5.2",IF(G283=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F283" s="49" t="str">
-        <f>C283&amp;D283</f>
+        <f t="shared" si="9"/>
         <v>سمیهمومن آباد</v>
       </c>
       <c r="G283" s="49">
@@ -63104,11 +63103,11 @@
         <v>26</v>
       </c>
       <c r="E284" s="49" t="str">
-        <f>IF(G284=0,"نا مشخص",IF(G284=1,"گاباری 4.7",IF(G284=2,"گاباری 4.6",IF(G284=3,"گاباری 4.9",IF(G284=4,"گاباری 5.2",IF(G284=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F284" s="49" t="str">
-        <f>C284&amp;D284</f>
+        <f t="shared" si="9"/>
         <v>مومن آبادازنا</v>
       </c>
       <c r="G284" s="49">
@@ -63126,11 +63125,11 @@
         <v>27</v>
       </c>
       <c r="E285" s="49" t="str">
-        <f>IF(G285=0,"نا مشخص",IF(G285=1,"گاباری 4.7",IF(G285=2,"گاباری 4.6",IF(G285=3,"گاباری 4.9",IF(G285=4,"گاباری 5.2",IF(G285=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F285" s="49" t="str">
-        <f>C285&amp;D285</f>
+        <f t="shared" si="9"/>
         <v>ازنادربند</v>
       </c>
       <c r="G285" s="49">
@@ -63148,11 +63147,11 @@
         <v>287</v>
       </c>
       <c r="E286" s="49" t="str">
-        <f>IF(G286=0,"نا مشخص",IF(G286=1,"گاباری 4.7",IF(G286=2,"گاباری 4.6",IF(G286=3,"گاباری 4.9",IF(G286=4,"گاباری 5.2",IF(G286=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F286" s="49" t="str">
-        <f>C286&amp;D286</f>
+        <f t="shared" si="9"/>
         <v>دربندرودک</v>
       </c>
       <c r="G286" s="49">
@@ -63170,11 +63169,11 @@
         <v>28</v>
       </c>
       <c r="E287" s="49" t="str">
-        <f>IF(G287=0,"نا مشخص",IF(G287=1,"گاباری 4.7",IF(G287=2,"گاباری 4.6",IF(G287=3,"گاباری 4.9",IF(G287=4,"گاباری 5.2",IF(G287=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F287" s="49" t="str">
-        <f>C287&amp;D287</f>
+        <f t="shared" si="9"/>
         <v>رودکدرود</v>
       </c>
       <c r="G287" s="49">
@@ -63194,11 +63193,11 @@
         <v>29</v>
       </c>
       <c r="E288" s="49" t="str">
-        <f>IF(G288=0,"نا مشخص",IF(G288=1,"گاباری 4.7",IF(G288=2,"گاباری 4.6",IF(G288=3,"گاباری 4.9",IF(G288=4,"گاباری 5.2",IF(G288=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F288" s="49" t="str">
-        <f>C288&amp;D288</f>
+        <f t="shared" si="9"/>
         <v>درودقارون</v>
       </c>
       <c r="G288" s="49">
@@ -63216,11 +63215,11 @@
         <v>288</v>
       </c>
       <c r="E289" s="49" t="str">
-        <f>IF(G289=0,"نا مشخص",IF(G289=1,"گاباری 4.7",IF(G289=2,"گاباری 4.6",IF(G289=3,"گاباری 4.9",IF(G289=4,"گاباری 5.2",IF(G289=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F289" s="49" t="str">
-        <f>C289&amp;D289</f>
+        <f t="shared" si="9"/>
         <v>قارونبیشه</v>
       </c>
       <c r="G289" s="49">
@@ -63238,11 +63237,11 @@
         <v>289</v>
       </c>
       <c r="E290" s="49" t="str">
-        <f>IF(G290=0,"نا مشخص",IF(G290=1,"گاباری 4.7",IF(G290=2,"گاباری 4.6",IF(G290=3,"گاباری 4.9",IF(G290=4,"گاباری 5.2",IF(G290=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F290" s="49" t="str">
-        <f>C290&amp;D290</f>
+        <f t="shared" si="9"/>
         <v>بیشهسپیددشت</v>
       </c>
       <c r="G290" s="49">
@@ -63260,11 +63259,11 @@
         <v>30</v>
       </c>
       <c r="E291" s="49" t="str">
-        <f>IF(G291=0,"نا مشخص",IF(G291=1,"گاباری 4.7",IF(G291=2,"گاباری 4.6",IF(G291=3,"گاباری 4.9",IF(G291=4,"گاباری 5.2",IF(G291=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F291" s="49" t="str">
-        <f>C291&amp;D291</f>
+        <f t="shared" si="9"/>
         <v>سپیددشتچمسنگر</v>
       </c>
       <c r="G291" s="49">
@@ -63282,11 +63281,11 @@
         <v>290</v>
       </c>
       <c r="E292" s="49" t="str">
-        <f>IF(G292=0,"نا مشخص",IF(G292=1,"گاباری 4.7",IF(G292=2,"گاباری 4.6",IF(G292=3,"گاباری 4.9",IF(G292=4,"گاباری 5.2",IF(G292=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F292" s="49" t="str">
-        <f>C292&amp;D292</f>
+        <f t="shared" si="9"/>
         <v>چمسنگرکشور</v>
       </c>
       <c r="G292" s="49">
@@ -63304,11 +63303,11 @@
         <v>305</v>
       </c>
       <c r="E293" s="49" t="str">
-        <f>IF(G293=0,"نا مشخص",IF(G293=1,"گاباری 4.7",IF(G293=2,"گاباری 4.6",IF(G293=3,"گاباری 4.9",IF(G293=4,"گاباری 5.2",IF(G293=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F293" s="49" t="str">
-        <f>C293&amp;D293</f>
+        <f t="shared" si="9"/>
         <v>کشورتنگ هفت</v>
       </c>
       <c r="G293" s="49">
@@ -63326,11 +63325,11 @@
         <v>306</v>
       </c>
       <c r="E294" s="49" t="str">
-        <f>IF(G294=0,"نا مشخص",IF(G294=1,"گاباری 4.7",IF(G294=2,"گاباری 4.6",IF(G294=3,"گاباری 4.9",IF(G294=4,"گاباری 5.2",IF(G294=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F294" s="49" t="str">
-        <f>C294&amp;D294</f>
+        <f t="shared" si="9"/>
         <v>تنگ هفتتنگ پنج</v>
       </c>
       <c r="G294" s="49">
@@ -63348,11 +63347,11 @@
         <v>307</v>
       </c>
       <c r="E295" s="49" t="str">
-        <f>IF(G295=0,"نا مشخص",IF(G295=1,"گاباری 4.7",IF(G295=2,"گاباری 4.6",IF(G295=3,"گاباری 4.9",IF(G295=4,"گاباری 5.2",IF(G295=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F295" s="49" t="str">
-        <f>C295&amp;D295</f>
+        <f t="shared" si="9"/>
         <v>تنگ پنجتله زنگ</v>
       </c>
       <c r="G295" s="49">
@@ -63370,11 +63369,11 @@
         <v>171</v>
       </c>
       <c r="E296" s="49" t="str">
-        <f>IF(G296=0,"نا مشخص",IF(G296=1,"گاباری 4.7",IF(G296=2,"گاباری 4.6",IF(G296=3,"گاباری 4.9",IF(G296=4,"گاباری 5.2",IF(G296=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F296" s="49" t="str">
-        <f>C296&amp;D296</f>
+        <f t="shared" si="9"/>
         <v>تله زنگشهبازان</v>
       </c>
       <c r="G296" s="49">
@@ -63392,11 +63391,11 @@
         <v>172</v>
       </c>
       <c r="E297" s="49" t="str">
-        <f>IF(G297=0,"نا مشخص",IF(G297=1,"گاباری 4.7",IF(G297=2,"گاباری 4.6",IF(G297=3,"گاباری 4.9",IF(G297=4,"گاباری 5.2",IF(G297=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F297" s="49" t="str">
-        <f>C297&amp;D297</f>
+        <f t="shared" si="9"/>
         <v>شهبازانمازو</v>
       </c>
       <c r="G297" s="49">
@@ -63414,11 +63413,11 @@
         <v>173</v>
       </c>
       <c r="E298" s="49" t="str">
-        <f>IF(G298=0,"نا مشخص",IF(G298=1,"گاباری 4.7",IF(G298=2,"گاباری 4.6",IF(G298=3,"گاباری 4.9",IF(G298=4,"گاباری 5.2",IF(G298=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F298" s="49" t="str">
-        <f>C298&amp;D298</f>
+        <f t="shared" si="9"/>
         <v>مازوبالارود</v>
       </c>
       <c r="G298" s="49">
@@ -63436,11 +63435,11 @@
         <v>308</v>
       </c>
       <c r="E299" s="49" t="str">
-        <f>IF(G299=0,"نا مشخص",IF(G299=1,"گاباری 4.7",IF(G299=2,"گاباری 4.6",IF(G299=3,"گاباری 4.9",IF(G299=4,"گاباری 5.2",IF(G299=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F299" s="49" t="str">
-        <f>C299&amp;D299</f>
+        <f t="shared" si="9"/>
         <v>بالارودگل محک</v>
       </c>
       <c r="G299" s="49">
@@ -63458,11 +63457,11 @@
         <v>309</v>
       </c>
       <c r="E300" s="49" t="str">
-        <f>IF(G300=0,"نا مشخص",IF(G300=1,"گاباری 4.7",IF(G300=2,"گاباری 4.6",IF(G300=3,"گاباری 4.9",IF(G300=4,"گاباری 5.2",IF(G300=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F300" s="49" t="str">
-        <f>C300&amp;D300</f>
+        <f t="shared" si="9"/>
         <v>گل محکدوکوهه</v>
       </c>
       <c r="G300" s="49">
@@ -63480,11 +63479,11 @@
         <v>259</v>
       </c>
       <c r="E301" s="49" t="str">
-        <f>IF(G301=0,"نا مشخص",IF(G301=1,"گاباری 4.7",IF(G301=2,"گاباری 4.6",IF(G301=3,"گاباری 4.9",IF(G301=4,"گاباری 5.2",IF(G301=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F301" s="49" t="str">
-        <f>C301&amp;D301</f>
+        <f t="shared" si="9"/>
         <v>دوکوههاندیمشک</v>
       </c>
       <c r="G301" s="49">
@@ -63504,11 +63503,11 @@
         <v>174</v>
       </c>
       <c r="E302" s="49" t="str">
-        <f>IF(G302=0,"نا مشخص",IF(G302=1,"گاباری 4.7",IF(G302=2,"گاباری 4.6",IF(G302=3,"گاباری 4.9",IF(G302=4,"گاباری 5.2",IF(G302=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F302" s="49" t="str">
-        <f>C302&amp;D302</f>
+        <f t="shared" si="9"/>
         <v>اندیمشکسبزآب</v>
       </c>
       <c r="G302" s="49">
@@ -63526,11 +63525,11 @@
         <v>175</v>
       </c>
       <c r="E303" s="49" t="str">
-        <f>IF(G303=0,"نا مشخص",IF(G303=1,"گاباری 4.7",IF(G303=2,"گاباری 4.6",IF(G303=3,"گاباری 4.9",IF(G303=4,"گاباری 5.2",IF(G303=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F303" s="49" t="str">
-        <f>C303&amp;D303</f>
+        <f t="shared" si="9"/>
         <v>سبزآبشوش</v>
       </c>
       <c r="G303" s="49">
@@ -63548,11 +63547,11 @@
         <v>291</v>
       </c>
       <c r="E304" s="49" t="str">
-        <f>IF(G304=0,"نا مشخص",IF(G304=1,"گاباری 4.7",IF(G304=2,"گاباری 4.6",IF(G304=3,"گاباری 4.9",IF(G304=4,"گاباری 5.2",IF(G304=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F304" s="49" t="str">
-        <f>C304&amp;D304</f>
+        <f t="shared" si="9"/>
         <v>شوشهفت تپه</v>
       </c>
       <c r="G304" s="49">
@@ -63572,11 +63571,11 @@
         <v>292</v>
       </c>
       <c r="E305" s="49" t="str">
-        <f>IF(G305=0,"نا مشخص",IF(G305=1,"گاباری 4.7",IF(G305=2,"گاباری 4.6",IF(G305=3,"گاباری 4.9",IF(G305=4,"گاباری 5.2",IF(G305=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F305" s="49" t="str">
-        <f>C305&amp;D305</f>
+        <f t="shared" si="9"/>
         <v>هفت تپهمیان آب</v>
       </c>
       <c r="G305" s="49">
@@ -63594,11 +63593,11 @@
         <v>293</v>
       </c>
       <c r="E306" s="49" t="str">
-        <f>IF(G306=0,"نا مشخص",IF(G306=1,"گاباری 4.7",IF(G306=2,"گاباری 4.6",IF(G306=3,"گاباری 4.9",IF(G306=4,"گاباری 5.2",IF(G306=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F306" s="49" t="str">
-        <f>C306&amp;D306</f>
+        <f t="shared" si="9"/>
         <v>میان آبآهودشت</v>
       </c>
       <c r="G306" s="49">
@@ -63616,11 +63615,11 @@
         <v>31</v>
       </c>
       <c r="E307" s="49" t="str">
-        <f>IF(G307=0,"نا مشخص",IF(G307=1,"گاباری 4.7",IF(G307=2,"گاباری 4.6",IF(G307=3,"گاباری 4.9",IF(G307=4,"گاباری 5.2",IF(G307=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F307" s="49" t="str">
-        <f>C307&amp;D307</f>
+        <f t="shared" si="9"/>
         <v>آهودشتبامدژ</v>
       </c>
       <c r="G307" s="49">
@@ -63638,11 +63637,11 @@
         <v>32</v>
       </c>
       <c r="E308" s="49" t="str">
-        <f>IF(G308=0,"نا مشخص",IF(G308=1,"گاباری 4.7",IF(G308=2,"گاباری 4.6",IF(G308=3,"گاباری 4.9",IF(G308=4,"گاباری 5.2",IF(G308=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F308" s="49" t="str">
-        <f>C308&amp;D308</f>
+        <f t="shared" si="9"/>
         <v>بامدژخاور</v>
       </c>
       <c r="G308" s="49">
@@ -63660,11 +63659,11 @@
         <v>294</v>
       </c>
       <c r="E309" s="49" t="str">
-        <f>IF(G309=0,"نا مشخص",IF(G309=1,"گاباری 4.7",IF(G309=2,"گاباری 4.6",IF(G309=3,"گاباری 4.9",IF(G309=4,"گاباری 5.2",IF(G309=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F309" s="49" t="str">
-        <f>C309&amp;D309</f>
+        <f t="shared" si="9"/>
         <v>خاورنظامیه</v>
       </c>
       <c r="G309" s="49">
@@ -63682,11 +63681,11 @@
         <v>33</v>
       </c>
       <c r="E310" s="49" t="str">
-        <f>IF(G310=0,"نا مشخص",IF(G310=1,"گاباری 4.7",IF(G310=2,"گاباری 4.6",IF(G310=3,"گاباری 4.9",IF(G310=4,"گاباری 5.2",IF(G310=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F310" s="49" t="str">
-        <f>C310&amp;D310</f>
+        <f t="shared" si="9"/>
         <v>نظامیهاهواز</v>
       </c>
       <c r="G310" s="49">
@@ -63706,11 +63705,11 @@
         <v>226</v>
       </c>
       <c r="E311" s="49" t="str">
-        <f>IF(G311=0,"نا مشخص",IF(G311=1,"گاباری 4.7",IF(G311=2,"گاباری 4.6",IF(G311=3,"گاباری 4.9",IF(G311=4,"گاباری 5.2",IF(G311=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F311" s="49" t="str">
-        <f>C311&amp;D311</f>
+        <f t="shared" si="9"/>
         <v>نظامیهمیاندشت</v>
       </c>
       <c r="G311" s="49">
@@ -63730,11 +63729,11 @@
         <v>251</v>
       </c>
       <c r="E312" s="49" t="str">
-        <f>IF(G312=0,"نا مشخص",IF(G312=1,"گاباری 4.7",IF(G312=2,"گاباری 4.6",IF(G312=3,"گاباری 4.9",IF(G312=4,"گاباری 5.2",IF(G312=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F312" s="49" t="str">
-        <f>C312&amp;D312</f>
+        <f t="shared" si="9"/>
         <v>اهوازکارون</v>
       </c>
       <c r="G312" s="49">
@@ -63752,11 +63751,11 @@
         <v>226</v>
       </c>
       <c r="E313" s="49" t="str">
-        <f>IF(G313=0,"نا مشخص",IF(G313=1,"گاباری 4.7",IF(G313=2,"گاباری 4.6",IF(G313=3,"گاباری 4.9",IF(G313=4,"گاباری 5.2",IF(G313=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F313" s="49" t="str">
-        <f>C313&amp;D313</f>
+        <f t="shared" si="9"/>
         <v>کارونمیاندشت</v>
       </c>
       <c r="G313" s="49">
@@ -63774,11 +63773,11 @@
         <v>297</v>
       </c>
       <c r="E314" s="49" t="str">
-        <f>IF(G314=0,"نا مشخص",IF(G314=1,"گاباری 4.7",IF(G314=2,"گاباری 4.6",IF(G314=3,"گاباری 4.9",IF(G314=4,"گاباری 5.2",IF(G314=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F314" s="49" t="str">
-        <f>C314&amp;D314</f>
+        <f t="shared" si="9"/>
         <v>میاندشتخسروی</v>
       </c>
       <c r="G314" s="49">
@@ -63796,11 +63795,11 @@
         <v>298</v>
       </c>
       <c r="E315" s="49" t="str">
-        <f>IF(G315=0,"نا مشخص",IF(G315=1,"گاباری 4.7",IF(G315=2,"گاباری 4.6",IF(G315=3,"گاباری 4.9",IF(G315=4,"گاباری 5.2",IF(G315=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F315" s="49" t="str">
-        <f>C315&amp;D315</f>
+        <f t="shared" si="9"/>
         <v>خسرویگرگر (جنوب)</v>
       </c>
       <c r="G315" s="49">
@@ -63818,11 +63817,11 @@
         <v>34</v>
       </c>
       <c r="E316" s="49" t="str">
-        <f>IF(G316=0,"نا مشخص",IF(G316=1,"گاباری 4.7",IF(G316=2,"گاباری 4.6",IF(G316=3,"گاباری 4.9",IF(G316=4,"گاباری 5.2",IF(G316=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F316" s="49" t="str">
-        <f>C316&amp;D316</f>
+        <f t="shared" si="9"/>
         <v>گرگر (جنوب)سربندر</v>
       </c>
       <c r="G316" s="49">
@@ -63840,11 +63839,11 @@
         <v>250</v>
       </c>
       <c r="E317" s="49" t="str">
-        <f>IF(G317=0,"نا مشخص",IF(G317=1,"گاباری 4.7",IF(G317=2,"گاباری 4.6",IF(G317=3,"گاباری 4.9",IF(G317=4,"گاباری 5.2",IF(G317=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F317" s="49" t="str">
-        <f>C317&amp;D317</f>
+        <f t="shared" si="9"/>
         <v>سربندربندرامام خمینی</v>
       </c>
       <c r="G317" s="49">
@@ -63864,11 +63863,11 @@
         <v>251</v>
       </c>
       <c r="E318" s="49" t="str">
-        <f>IF(G318=0,"نا مشخص",IF(G318=1,"گاباری 4.7",IF(G318=2,"گاباری 4.6",IF(G318=3,"گاباری 4.9",IF(G318=4,"گاباری 5.2",IF(G318=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F318" s="49" t="str">
-        <f>C318&amp;D318</f>
+        <f t="shared" si="9"/>
         <v>میاندشتکارون</v>
       </c>
       <c r="G318" s="49">
@@ -63886,11 +63885,11 @@
         <v>226</v>
       </c>
       <c r="E319" s="49" t="str">
-        <f>IF(G319=0,"نا مشخص",IF(G319=1,"گاباری 4.7",IF(G319=2,"گاباری 4.6",IF(G319=3,"گاباری 4.9",IF(G319=4,"گاباری 5.2",IF(G319=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F319" s="49" t="str">
-        <f>C319&amp;D319</f>
+        <f t="shared" si="9"/>
         <v>خسرویمیاندشت</v>
       </c>
       <c r="G319" s="49">
@@ -63908,11 +63907,11 @@
         <v>297</v>
       </c>
       <c r="E320" s="49" t="str">
-        <f>IF(G320=0,"نا مشخص",IF(G320=1,"گاباری 4.7",IF(G320=2,"گاباری 4.6",IF(G320=3,"گاباری 4.9",IF(G320=4,"گاباری 5.2",IF(G320=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F320" s="49" t="str">
-        <f>C320&amp;D320</f>
+        <f t="shared" si="9"/>
         <v>گرگر (جنوب)خسروی</v>
       </c>
       <c r="G320" s="49">
@@ -63930,11 +63929,11 @@
         <v>298</v>
       </c>
       <c r="E321" s="49" t="str">
-        <f>IF(G321=0,"نا مشخص",IF(G321=1,"گاباری 4.7",IF(G321=2,"گاباری 4.6",IF(G321=3,"گاباری 4.9",IF(G321=4,"گاباری 5.2",IF(G321=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="8"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F321" s="49" t="str">
-        <f>C321&amp;D321</f>
+        <f t="shared" si="9"/>
         <v>سربندرگرگر (جنوب)</v>
       </c>
       <c r="G321" s="49">
@@ -63952,11 +63951,11 @@
         <v>34</v>
       </c>
       <c r="E322" s="49" t="str">
-        <f>IF(G322=0,"نا مشخص",IF(G322=1,"گاباری 4.7",IF(G322=2,"گاباری 4.6",IF(G322=3,"گاباری 4.9",IF(G322=4,"گاباری 5.2",IF(G322=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E322:E385" si="10">IF(G322=0,"نا مشخص",IF(G322=1,"گاباری 4.7",IF(G322=2,"گاباری 4.6",IF(G322=3,"گاباری 4.9",IF(G322=4,"گاباری 5.2",IF(G322=5,"گاباری 5.4"))))))</f>
         <v>گاباری 4.7</v>
       </c>
       <c r="F322" s="49" t="str">
-        <f>C322&amp;D322</f>
+        <f t="shared" ref="F322:F385" si="11">C322&amp;D322</f>
         <v>بندرامام خمینیسربندر</v>
       </c>
       <c r="G322" s="49">
@@ -63976,11 +63975,11 @@
         <v>37</v>
       </c>
       <c r="E323" s="49" t="str">
-        <f>IF(G323=0,"نا مشخص",IF(G323=1,"گاباری 4.7",IF(G323=2,"گاباری 4.6",IF(G323=3,"گاباری 4.9",IF(G323=4,"گاباری 5.2",IF(G323=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F323" s="49" t="str">
-        <f>C323&amp;D323</f>
+        <f t="shared" si="11"/>
         <v>سربندرماهشهر</v>
       </c>
       <c r="G323" s="49">
@@ -64000,11 +63999,11 @@
         <v>36</v>
       </c>
       <c r="E324" s="49" t="str">
-        <f>IF(G324=0,"نا مشخص",IF(G324=1,"گاباری 4.7",IF(G324=2,"گاباری 4.6",IF(G324=3,"گاباری 4.9",IF(G324=4,"گاباری 5.2",IF(G324=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F324" s="49" t="str">
-        <f>C324&amp;D324</f>
+        <f t="shared" si="11"/>
         <v>اهوازقدس</v>
       </c>
       <c r="G324" s="49">
@@ -64022,11 +64021,11 @@
         <v>295</v>
       </c>
       <c r="E325" s="49" t="str">
-        <f>IF(G325=0,"نا مشخص",IF(G325=1,"گاباری 4.7",IF(G325=2,"گاباری 4.6",IF(G325=3,"گاباری 4.9",IF(G325=4,"گاباری 5.2",IF(G325=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F325" s="49" t="str">
-        <f>C325&amp;D325</f>
+        <f t="shared" si="11"/>
         <v>قدسحمید</v>
       </c>
       <c r="G325" s="49">
@@ -64044,11 +64043,11 @@
         <v>296</v>
       </c>
       <c r="E326" s="49" t="str">
-        <f>IF(G326=0,"نا مشخص",IF(G326=1,"گاباری 4.7",IF(G326=2,"گاباری 4.6",IF(G326=3,"گاباری 4.9",IF(G326=4,"گاباری 5.2",IF(G326=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F326" s="49" t="str">
-        <f>C326&amp;D326</f>
+        <f t="shared" si="11"/>
         <v>حمیدحسینیه</v>
       </c>
       <c r="G326" s="49">
@@ -64066,11 +64065,11 @@
         <v>35</v>
       </c>
       <c r="E327" s="49" t="str">
-        <f>IF(G327=0,"نا مشخص",IF(G327=1,"گاباری 4.7",IF(G327=2,"گاباری 4.6",IF(G327=3,"گاباری 4.9",IF(G327=4,"گاباری 5.2",IF(G327=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F327" s="49" t="str">
-        <f>C327&amp;D327</f>
+        <f t="shared" si="11"/>
         <v>حسینیهخرمشهر</v>
       </c>
       <c r="G327" s="49">
@@ -64088,11 +64087,11 @@
         <v>38</v>
       </c>
       <c r="E328" s="49" t="str">
-        <f>IF(G328=0,"نا مشخص",IF(G328=1,"گاباری 4.7",IF(G328=2,"گاباری 4.6",IF(G328=3,"گاباری 4.9",IF(G328=4,"گاباری 5.2",IF(G328=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.7</v>
       </c>
       <c r="F328" s="49" t="str">
-        <f>C328&amp;D328</f>
+        <f t="shared" si="11"/>
         <v>خرمشهرشلمچه</v>
       </c>
       <c r="G328" s="49">
@@ -64114,11 +64113,11 @@
         <v>345</v>
       </c>
       <c r="E329" s="49" t="str">
-        <f>IF(G329=0,"نا مشخص",IF(G329=1,"گاباری 4.7",IF(G329=2,"گاباری 4.6",IF(G329=3,"گاباری 4.9",IF(G329=4,"گاباری 5.2",IF(G329=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F329" s="49" t="str">
-        <f>C329&amp;D329</f>
+        <f t="shared" si="11"/>
         <v>گرمساریاتری</v>
       </c>
       <c r="G329" s="49">
@@ -64136,11 +64135,11 @@
         <v>237</v>
       </c>
       <c r="E330" s="49" t="str">
-        <f>IF(G330=0,"نا مشخص",IF(G330=1,"گاباری 4.7",IF(G330=2,"گاباری 4.6",IF(G330=3,"گاباری 4.9",IF(G330=4,"گاباری 5.2",IF(G330=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F330" s="49" t="str">
-        <f>C330&amp;D330</f>
+        <f t="shared" si="11"/>
         <v>یاتریده نمک</v>
       </c>
       <c r="G330" s="49">
@@ -64158,11 +64157,11 @@
         <v>61</v>
       </c>
       <c r="E331" s="49" t="str">
-        <f>IF(G331=0,"نا مشخص",IF(G331=1,"گاباری 4.7",IF(G331=2,"گاباری 4.6",IF(G331=3,"گاباری 4.9",IF(G331=4,"گاباری 5.2",IF(G331=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F331" s="49" t="str">
-        <f>C331&amp;D331</f>
+        <f t="shared" si="11"/>
         <v>ده نمکسرخ دشت</v>
       </c>
       <c r="G331" s="49">
@@ -64180,11 +64179,11 @@
         <v>62</v>
       </c>
       <c r="E332" s="49" t="str">
-        <f>IF(G332=0,"نا مشخص",IF(G332=1,"گاباری 4.7",IF(G332=2,"گاباری 4.6",IF(G332=3,"گاباری 4.9",IF(G332=4,"گاباری 5.2",IF(G332=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F332" s="49" t="str">
-        <f>C332&amp;D332</f>
+        <f t="shared" si="11"/>
         <v>سرخ دشتلاهور</v>
       </c>
       <c r="G332" s="49">
@@ -64202,11 +64201,11 @@
         <v>346</v>
       </c>
       <c r="E333" s="49" t="str">
-        <f>IF(G333=0,"نا مشخص",IF(G333=1,"گاباری 4.7",IF(G333=2,"گاباری 4.6",IF(G333=3,"گاباری 4.9",IF(G333=4,"گاباری 5.2",IF(G333=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F333" s="49" t="str">
-        <f>C333&amp;D333</f>
+        <f t="shared" si="11"/>
         <v>لاهوربیابانک</v>
       </c>
       <c r="G333" s="49">
@@ -64224,11 +64223,11 @@
         <v>63</v>
       </c>
       <c r="E334" s="49" t="str">
-        <f>IF(G334=0,"نا مشخص",IF(G334=1,"گاباری 4.7",IF(G334=2,"گاباری 4.6",IF(G334=3,"گاباری 4.9",IF(G334=4,"گاباری 5.2",IF(G334=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F334" s="49" t="str">
-        <f>C334&amp;D334</f>
+        <f t="shared" si="11"/>
         <v>بیابانکسمنان</v>
       </c>
       <c r="G334" s="49">
@@ -64248,11 +64247,11 @@
         <v>10</v>
       </c>
       <c r="E335" s="49" t="str">
-        <f>IF(G335=0,"نا مشخص",IF(G335=1,"گاباری 4.7",IF(G335=2,"گاباری 4.6",IF(G335=3,"گاباری 4.9",IF(G335=4,"گاباری 5.2",IF(G335=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F335" s="49" t="str">
-        <f>C335&amp;D335</f>
+        <f t="shared" si="11"/>
         <v>یاتریگرمسار</v>
       </c>
       <c r="G335" s="49">
@@ -64270,11 +64269,11 @@
         <v>345</v>
       </c>
       <c r="E336" s="49" t="str">
-        <f>IF(G336=0,"نا مشخص",IF(G336=1,"گاباری 4.7",IF(G336=2,"گاباری 4.6",IF(G336=3,"گاباری 4.9",IF(G336=4,"گاباری 5.2",IF(G336=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F336" s="49" t="str">
-        <f>C336&amp;D336</f>
+        <f t="shared" si="11"/>
         <v>ده نمکیاتری</v>
       </c>
       <c r="G336" s="49">
@@ -64292,11 +64291,11 @@
         <v>237</v>
       </c>
       <c r="E337" s="49" t="str">
-        <f>IF(G337=0,"نا مشخص",IF(G337=1,"گاباری 4.7",IF(G337=2,"گاباری 4.6",IF(G337=3,"گاباری 4.9",IF(G337=4,"گاباری 5.2",IF(G337=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F337" s="49" t="str">
-        <f>C337&amp;D337</f>
+        <f t="shared" si="11"/>
         <v>سرخ دشتده نمک</v>
       </c>
       <c r="G337" s="49">
@@ -64314,11 +64313,11 @@
         <v>61</v>
       </c>
       <c r="E338" s="49" t="str">
-        <f>IF(G338=0,"نا مشخص",IF(G338=1,"گاباری 4.7",IF(G338=2,"گاباری 4.6",IF(G338=3,"گاباری 4.9",IF(G338=4,"گاباری 5.2",IF(G338=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F338" s="49" t="str">
-        <f>C338&amp;D338</f>
+        <f t="shared" si="11"/>
         <v>لاهورسرخ دشت</v>
       </c>
       <c r="G338" s="49">
@@ -64336,11 +64335,11 @@
         <v>62</v>
       </c>
       <c r="E339" s="49" t="str">
-        <f>IF(G339=0,"نا مشخص",IF(G339=1,"گاباری 4.7",IF(G339=2,"گاباری 4.6",IF(G339=3,"گاباری 4.9",IF(G339=4,"گاباری 5.2",IF(G339=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F339" s="49" t="str">
-        <f>C339&amp;D339</f>
+        <f t="shared" si="11"/>
         <v>بیابانکلاهور</v>
       </c>
       <c r="G339" s="49">
@@ -64358,11 +64357,11 @@
         <v>346</v>
       </c>
       <c r="E340" s="49" t="str">
-        <f>IF(G340=0,"نا مشخص",IF(G340=1,"گاباری 4.7",IF(G340=2,"گاباری 4.6",IF(G340=3,"گاباری 4.9",IF(G340=4,"گاباری 5.2",IF(G340=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F340" s="49" t="str">
-        <f>C340&amp;D340</f>
+        <f t="shared" si="11"/>
         <v>سمنانبیابانک</v>
       </c>
       <c r="G340" s="49">
@@ -64382,11 +64381,11 @@
         <v>236</v>
       </c>
       <c r="E341" s="49" t="str">
-        <f>IF(G341=0,"نا مشخص",IF(G341=1,"گاباری 4.7",IF(G341=2,"گاباری 4.6",IF(G341=3,"گاباری 4.9",IF(G341=4,"گاباری 5.2",IF(G341=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F341" s="49" t="str">
-        <f>C341&amp;D341</f>
+        <f t="shared" si="11"/>
         <v>سمنانمیاندره</v>
       </c>
       <c r="G341" s="49">
@@ -64404,11 +64403,11 @@
         <v>347</v>
       </c>
       <c r="E342" s="49" t="str">
-        <f>IF(G342=0,"نا مشخص",IF(G342=1,"گاباری 4.7",IF(G342=2,"گاباری 4.6",IF(G342=3,"گاباری 4.9",IF(G342=4,"گاباری 5.2",IF(G342=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F342" s="49" t="str">
-        <f>C342&amp;D342</f>
+        <f t="shared" si="11"/>
         <v>میاندرهآبگرم</v>
       </c>
       <c r="G342" s="49">
@@ -64426,11 +64425,11 @@
         <v>64</v>
       </c>
       <c r="E343" s="49" t="str">
-        <f>IF(G343=0,"نا مشخص",IF(G343=1,"گاباری 4.7",IF(G343=2,"گاباری 4.6",IF(G343=3,"گاباری 4.9",IF(G343=4,"گاباری 5.2",IF(G343=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F343" s="49" t="str">
-        <f>C343&amp;D343</f>
+        <f t="shared" si="11"/>
         <v>آبگرمگرداب</v>
       </c>
       <c r="G343" s="49">
@@ -64448,11 +64447,11 @@
         <v>65</v>
       </c>
       <c r="E344" s="49" t="str">
-        <f>IF(G344=0,"نا مشخص",IF(G344=1,"گاباری 4.7",IF(G344=2,"گاباری 4.6",IF(G344=3,"گاباری 4.9",IF(G344=4,"گاباری 5.2",IF(G344=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F344" s="49" t="str">
-        <f>C344&amp;D344</f>
+        <f t="shared" si="11"/>
         <v>گردابهفتخوان</v>
       </c>
       <c r="G344" s="49">
@@ -64470,11 +64469,11 @@
         <v>66</v>
       </c>
       <c r="E345" s="49" t="str">
-        <f>IF(G345=0,"نا مشخص",IF(G345=1,"گاباری 4.7",IF(G345=2,"گاباری 4.6",IF(G345=3,"گاباری 4.9",IF(G345=4,"گاباری 5.2",IF(G345=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F345" s="49" t="str">
-        <f>C345&amp;D345</f>
+        <f t="shared" si="11"/>
         <v>هفتخوانلارستان</v>
       </c>
       <c r="G345" s="49">
@@ -64492,11 +64491,11 @@
         <v>67</v>
       </c>
       <c r="E346" s="49" t="str">
-        <f>IF(G346=0,"نا مشخص",IF(G346=1,"گاباری 4.7",IF(G346=2,"گاباری 4.6",IF(G346=3,"گاباری 4.9",IF(G346=4,"گاباری 5.2",IF(G346=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F346" s="49" t="str">
-        <f>C346&amp;D346</f>
+        <f t="shared" si="11"/>
         <v>لارستانامروان</v>
       </c>
       <c r="G346" s="49">
@@ -64514,11 +64513,11 @@
         <v>68</v>
       </c>
       <c r="E347" s="49" t="str">
-        <f>IF(G347=0,"نا مشخص",IF(G347=1,"گاباری 4.7",IF(G347=2,"گاباری 4.6",IF(G347=3,"گاباری 4.9",IF(G347=4,"گاباری 5.2",IF(G347=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F347" s="49" t="str">
-        <f>C347&amp;D347</f>
+        <f t="shared" si="11"/>
         <v>امروانسرخده</v>
       </c>
       <c r="G347" s="49">
@@ -64536,11 +64535,11 @@
         <v>69</v>
       </c>
       <c r="E348" s="49" t="str">
-        <f>IF(G348=0,"نا مشخص",IF(G348=1,"گاباری 4.7",IF(G348=2,"گاباری 4.6",IF(G348=3,"گاباری 4.9",IF(G348=4,"گاباری 5.2",IF(G348=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F348" s="49" t="str">
-        <f>C348&amp;D348</f>
+        <f t="shared" si="11"/>
         <v>سرخدهدامغان</v>
       </c>
       <c r="G348" s="49">
@@ -64558,11 +64557,11 @@
         <v>235</v>
       </c>
       <c r="E349" s="49" t="str">
-        <f>IF(G349=0,"نا مشخص",IF(G349=1,"گاباری 4.7",IF(G349=2,"گاباری 4.6",IF(G349=3,"گاباری 4.9",IF(G349=4,"گاباری 5.2",IF(G349=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F349" s="49" t="str">
-        <f>C349&amp;D349</f>
+        <f t="shared" si="11"/>
         <v>دامغانزرین</v>
       </c>
       <c r="G349" s="49">
@@ -64580,11 +64579,11 @@
         <v>348</v>
       </c>
       <c r="E350" s="49" t="str">
-        <f>IF(G350=0,"نا مشخص",IF(G350=1,"گاباری 4.7",IF(G350=2,"گاباری 4.6",IF(G350=3,"گاباری 4.9",IF(G350=4,"گاباری 5.2",IF(G350=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F350" s="49" t="str">
-        <f>C350&amp;D350</f>
+        <f t="shared" si="11"/>
         <v>زرینکلاتخوان</v>
       </c>
       <c r="G350" s="49">
@@ -64602,11 +64601,11 @@
         <v>70</v>
       </c>
       <c r="E351" s="49" t="str">
-        <f>IF(G351=0,"نا مشخص",IF(G351=1,"گاباری 4.7",IF(G351=2,"گاباری 4.6",IF(G351=3,"گاباری 4.9",IF(G351=4,"گاباری 5.2",IF(G351=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F351" s="49" t="str">
-        <f>C351&amp;D351</f>
+        <f t="shared" si="11"/>
         <v>کلاتخوانشاهرود</v>
       </c>
       <c r="G351" s="49">
@@ -64626,11 +64625,11 @@
         <v>63</v>
       </c>
       <c r="E352" s="49" t="str">
-        <f>IF(G352=0,"نا مشخص",IF(G352=1,"گاباری 4.7",IF(G352=2,"گاباری 4.6",IF(G352=3,"گاباری 4.9",IF(G352=4,"گاباری 5.2",IF(G352=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F352" s="49" t="str">
-        <f>C352&amp;D352</f>
+        <f t="shared" si="11"/>
         <v>میاندرهسمنان</v>
       </c>
       <c r="G352" s="49">
@@ -64648,11 +64647,11 @@
         <v>236</v>
       </c>
       <c r="E353" s="49" t="str">
-        <f>IF(G353=0,"نا مشخص",IF(G353=1,"گاباری 4.7",IF(G353=2,"گاباری 4.6",IF(G353=3,"گاباری 4.9",IF(G353=4,"گاباری 5.2",IF(G353=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F353" s="49" t="str">
-        <f>C353&amp;D353</f>
+        <f t="shared" si="11"/>
         <v>آبگرممیاندره</v>
       </c>
       <c r="G353" s="49">
@@ -64670,11 +64669,11 @@
         <v>347</v>
       </c>
       <c r="E354" s="49" t="str">
-        <f>IF(G354=0,"نا مشخص",IF(G354=1,"گاباری 4.7",IF(G354=2,"گاباری 4.6",IF(G354=3,"گاباری 4.9",IF(G354=4,"گاباری 5.2",IF(G354=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F354" s="49" t="str">
-        <f>C354&amp;D354</f>
+        <f t="shared" si="11"/>
         <v>گردابآبگرم</v>
       </c>
       <c r="G354" s="49">
@@ -64692,11 +64691,11 @@
         <v>64</v>
       </c>
       <c r="E355" s="49" t="str">
-        <f>IF(G355=0,"نا مشخص",IF(G355=1,"گاباری 4.7",IF(G355=2,"گاباری 4.6",IF(G355=3,"گاباری 4.9",IF(G355=4,"گاباری 5.2",IF(G355=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F355" s="49" t="str">
-        <f>C355&amp;D355</f>
+        <f t="shared" si="11"/>
         <v>هفتخوانگرداب</v>
       </c>
       <c r="G355" s="49">
@@ -64714,11 +64713,11 @@
         <v>65</v>
       </c>
       <c r="E356" s="49" t="str">
-        <f>IF(G356=0,"نا مشخص",IF(G356=1,"گاباری 4.7",IF(G356=2,"گاباری 4.6",IF(G356=3,"گاباری 4.9",IF(G356=4,"گاباری 5.2",IF(G356=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F356" s="49" t="str">
-        <f>C356&amp;D356</f>
+        <f t="shared" si="11"/>
         <v>لارستانهفتخوان</v>
       </c>
       <c r="G356" s="49">
@@ -64736,11 +64735,11 @@
         <v>66</v>
       </c>
       <c r="E357" s="49" t="str">
-        <f>IF(G357=0,"نا مشخص",IF(G357=1,"گاباری 4.7",IF(G357=2,"گاباری 4.6",IF(G357=3,"گاباری 4.9",IF(G357=4,"گاباری 5.2",IF(G357=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F357" s="49" t="str">
-        <f>C357&amp;D357</f>
+        <f t="shared" si="11"/>
         <v>امروانلارستان</v>
       </c>
       <c r="G357" s="49">
@@ -64758,11 +64757,11 @@
         <v>67</v>
       </c>
       <c r="E358" s="49" t="str">
-        <f>IF(G358=0,"نا مشخص",IF(G358=1,"گاباری 4.7",IF(G358=2,"گاباری 4.6",IF(G358=3,"گاباری 4.9",IF(G358=4,"گاباری 5.2",IF(G358=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F358" s="49" t="str">
-        <f>C358&amp;D358</f>
+        <f t="shared" si="11"/>
         <v>سرخدهامروان</v>
       </c>
       <c r="G358" s="49">
@@ -64780,11 +64779,11 @@
         <v>68</v>
       </c>
       <c r="E359" s="49" t="str">
-        <f>IF(G359=0,"نا مشخص",IF(G359=1,"گاباری 4.7",IF(G359=2,"گاباری 4.6",IF(G359=3,"گاباری 4.9",IF(G359=4,"گاباری 5.2",IF(G359=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F359" s="49" t="str">
-        <f>C359&amp;D359</f>
+        <f t="shared" si="11"/>
         <v>دامغانسرخده</v>
       </c>
       <c r="G359" s="49">
@@ -64802,11 +64801,11 @@
         <v>69</v>
       </c>
       <c r="E360" s="49" t="str">
-        <f>IF(G360=0,"نا مشخص",IF(G360=1,"گاباری 4.7",IF(G360=2,"گاباری 4.6",IF(G360=3,"گاباری 4.9",IF(G360=4,"گاباری 5.2",IF(G360=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F360" s="49" t="str">
-        <f>C360&amp;D360</f>
+        <f t="shared" si="11"/>
         <v>زریندامغان</v>
       </c>
       <c r="G360" s="49">
@@ -64824,11 +64823,11 @@
         <v>235</v>
       </c>
       <c r="E361" s="49" t="str">
-        <f>IF(G361=0,"نا مشخص",IF(G361=1,"گاباری 4.7",IF(G361=2,"گاباری 4.6",IF(G361=3,"گاباری 4.9",IF(G361=4,"گاباری 5.2",IF(G361=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F361" s="49" t="str">
-        <f>C361&amp;D361</f>
+        <f t="shared" si="11"/>
         <v>کلاتخوانزرین</v>
       </c>
       <c r="G361" s="49">
@@ -64846,11 +64845,11 @@
         <v>348</v>
       </c>
       <c r="E362" s="49" t="str">
-        <f>IF(G362=0,"نا مشخص",IF(G362=1,"گاباری 4.7",IF(G362=2,"گاباری 4.6",IF(G362=3,"گاباری 4.9",IF(G362=4,"گاباری 5.2",IF(G362=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F362" s="49" t="str">
-        <f>C362&amp;D362</f>
+        <f t="shared" si="11"/>
         <v>شاهرودکلاتخوان</v>
       </c>
       <c r="G362" s="49">
@@ -64870,11 +64869,11 @@
         <v>71</v>
       </c>
       <c r="E363" s="49" t="str">
-        <f>IF(G363=0,"نا مشخص",IF(G363=1,"گاباری 4.7",IF(G363=2,"گاباری 4.6",IF(G363=3,"گاباری 4.9",IF(G363=4,"گاباری 5.2",IF(G363=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F363" s="49" t="str">
-        <f>C363&amp;D363</f>
+        <f t="shared" si="11"/>
         <v>شاهرودبسطام</v>
       </c>
       <c r="G363" s="49">
@@ -64892,11 +64891,11 @@
         <v>349</v>
       </c>
       <c r="E364" s="49" t="str">
-        <f>IF(G364=0,"نا مشخص",IF(G364=1,"گاباری 4.7",IF(G364=2,"گاباری 4.6",IF(G364=3,"گاباری 4.9",IF(G364=4,"گاباری 5.2",IF(G364=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F364" s="49" t="str">
-        <f>C364&amp;D364</f>
+        <f t="shared" si="11"/>
         <v>بسطامشیرین چشمه</v>
       </c>
       <c r="G364" s="49">
@@ -64914,11 +64913,11 @@
         <v>350</v>
       </c>
       <c r="E365" s="49" t="str">
-        <f>IF(G365=0,"نا مشخص",IF(G365=1,"گاباری 4.7",IF(G365=2,"گاباری 4.6",IF(G365=3,"گاباری 4.9",IF(G365=4,"گاباری 5.2",IF(G365=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F365" s="49" t="str">
-        <f>C365&amp;D365</f>
+        <f t="shared" si="11"/>
         <v>شیرین چشمهگیلان</v>
       </c>
       <c r="G365" s="49">
@@ -64936,11 +64935,11 @@
         <v>351</v>
       </c>
       <c r="E366" s="49" t="str">
-        <f>IF(G366=0,"نا مشخص",IF(G366=1,"گاباری 4.7",IF(G366=2,"گاباری 4.6",IF(G366=3,"گاباری 4.9",IF(G366=4,"گاباری 5.2",IF(G366=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F366" s="49" t="str">
-        <f>C366&amp;D366</f>
+        <f t="shared" si="11"/>
         <v>گیلانبکران</v>
       </c>
       <c r="G366" s="49">
@@ -64958,11 +64957,11 @@
         <v>72</v>
       </c>
       <c r="E367" s="49" t="str">
-        <f>IF(G367=0,"نا مشخص",IF(G367=1,"گاباری 4.7",IF(G367=2,"گاباری 4.6",IF(G367=3,"گاباری 4.9",IF(G367=4,"گاباری 5.2",IF(G367=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F367" s="49" t="str">
-        <f>C367&amp;D367</f>
+        <f t="shared" si="11"/>
         <v>بکرانجهان آباد</v>
       </c>
       <c r="G367" s="49">
@@ -64980,11 +64979,11 @@
         <v>352</v>
       </c>
       <c r="E368" s="49" t="str">
-        <f>IF(G368=0,"نا مشخص",IF(G368=1,"گاباری 4.7",IF(G368=2,"گاباری 4.6",IF(G368=3,"گاباری 4.9",IF(G368=4,"گاباری 5.2",IF(G368=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F368" s="49" t="str">
-        <f>C368&amp;D368</f>
+        <f t="shared" si="11"/>
         <v>جهان آبادابریشم</v>
       </c>
       <c r="G368" s="49">
@@ -65002,11 +65001,11 @@
         <v>73</v>
       </c>
       <c r="E369" s="49" t="str">
-        <f>IF(G369=0,"نا مشخص",IF(G369=1,"گاباری 4.7",IF(G369=2,"گاباری 4.6",IF(G369=3,"گاباری 4.9",IF(G369=4,"گاباری 5.2",IF(G369=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F369" s="49" t="str">
-        <f>C369&amp;D369</f>
+        <f t="shared" si="11"/>
         <v>ابریشمجاجرم</v>
       </c>
       <c r="G369" s="49">
@@ -65024,11 +65023,11 @@
         <v>353</v>
       </c>
       <c r="E370" s="49" t="str">
-        <f>IF(G370=0,"نا مشخص",IF(G370=1,"گاباری 4.7",IF(G370=2,"گاباری 4.6",IF(G370=3,"گاباری 4.9",IF(G370=4,"گاباری 5.2",IF(G370=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F370" s="49" t="str">
-        <f>C370&amp;D370</f>
+        <f t="shared" si="11"/>
         <v>جاجرمآزادور</v>
       </c>
       <c r="G370" s="49">
@@ -65046,11 +65045,11 @@
         <v>74</v>
       </c>
       <c r="E371" s="49" t="str">
-        <f>IF(G371=0,"نا مشخص",IF(G371=1,"گاباری 4.7",IF(G371=2,"گاباری 4.6",IF(G371=3,"گاباری 4.9",IF(G371=4,"گاباری 5.2",IF(G371=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F371" s="49" t="str">
-        <f>C371&amp;D371</f>
+        <f t="shared" si="11"/>
         <v>آزادورسنخواست</v>
       </c>
       <c r="G371" s="49">
@@ -65068,11 +65067,11 @@
         <v>354</v>
       </c>
       <c r="E372" s="49" t="str">
-        <f>IF(G372=0,"نا مشخص",IF(G372=1,"گاباری 4.7",IF(G372=2,"گاباری 4.6",IF(G372=3,"گاباری 4.9",IF(G372=4,"گاباری 5.2",IF(G372=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F372" s="49" t="str">
-        <f>C372&amp;D372</f>
+        <f t="shared" si="11"/>
         <v>سنخواستجوین</v>
       </c>
       <c r="G372" s="49">
@@ -65090,11 +65089,11 @@
         <v>355</v>
       </c>
       <c r="E373" s="49" t="str">
-        <f>IF(G373=0,"نا مشخص",IF(G373=1,"گاباری 4.7",IF(G373=2,"گاباری 4.6",IF(G373=3,"گاباری 4.9",IF(G373=4,"گاباری 5.2",IF(G373=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F373" s="49" t="str">
-        <f>C373&amp;D373</f>
+        <f t="shared" si="11"/>
         <v>جویننقاب</v>
       </c>
       <c r="G373" s="49">
@@ -65114,11 +65113,11 @@
         <v>70</v>
       </c>
       <c r="E374" s="49" t="str">
-        <f>IF(G374=0,"نا مشخص",IF(G374=1,"گاباری 4.7",IF(G374=2,"گاباری 4.6",IF(G374=3,"گاباری 4.9",IF(G374=4,"گاباری 5.2",IF(G374=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F374" s="49" t="str">
-        <f>C374&amp;D374</f>
+        <f t="shared" si="11"/>
         <v>بسطامشاهرود</v>
       </c>
       <c r="G374" s="49">
@@ -65136,11 +65135,11 @@
         <v>71</v>
       </c>
       <c r="E375" s="49" t="str">
-        <f>IF(G375=0,"نا مشخص",IF(G375=1,"گاباری 4.7",IF(G375=2,"گاباری 4.6",IF(G375=3,"گاباری 4.9",IF(G375=4,"گاباری 5.2",IF(G375=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F375" s="49" t="str">
-        <f>C375&amp;D375</f>
+        <f t="shared" si="11"/>
         <v>شیرین چشمهبسطام</v>
       </c>
       <c r="G375" s="49">
@@ -65158,11 +65157,11 @@
         <v>349</v>
       </c>
       <c r="E376" s="49" t="str">
-        <f>IF(G376=0,"نا مشخص",IF(G376=1,"گاباری 4.7",IF(G376=2,"گاباری 4.6",IF(G376=3,"گاباری 4.9",IF(G376=4,"گاباری 5.2",IF(G376=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F376" s="49" t="str">
-        <f>C376&amp;D376</f>
+        <f t="shared" si="11"/>
         <v>گیلانشیرین چشمه</v>
       </c>
       <c r="G376" s="49">
@@ -65180,11 +65179,11 @@
         <v>350</v>
       </c>
       <c r="E377" s="49" t="str">
-        <f>IF(G377=0,"نا مشخص",IF(G377=1,"گاباری 4.7",IF(G377=2,"گاباری 4.6",IF(G377=3,"گاباری 4.9",IF(G377=4,"گاباری 5.2",IF(G377=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F377" s="49" t="str">
-        <f>C377&amp;D377</f>
+        <f t="shared" si="11"/>
         <v>بکرانگیلان</v>
       </c>
       <c r="G377" s="49">
@@ -65202,11 +65201,11 @@
         <v>351</v>
       </c>
       <c r="E378" s="49" t="str">
-        <f>IF(G378=0,"نا مشخص",IF(G378=1,"گاباری 4.7",IF(G378=2,"گاباری 4.6",IF(G378=3,"گاباری 4.9",IF(G378=4,"گاباری 5.2",IF(G378=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F378" s="49" t="str">
-        <f>C378&amp;D378</f>
+        <f t="shared" si="11"/>
         <v>جهان آبادبکران</v>
       </c>
       <c r="G378" s="49">
@@ -65224,11 +65223,11 @@
         <v>72</v>
       </c>
       <c r="E379" s="49" t="str">
-        <f>IF(G379=0,"نا مشخص",IF(G379=1,"گاباری 4.7",IF(G379=2,"گاباری 4.6",IF(G379=3,"گاباری 4.9",IF(G379=4,"گاباری 5.2",IF(G379=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F379" s="49" t="str">
-        <f>C379&amp;D379</f>
+        <f t="shared" si="11"/>
         <v>ابریشمجهان آباد</v>
       </c>
       <c r="G379" s="49">
@@ -65246,11 +65245,11 @@
         <v>352</v>
       </c>
       <c r="E380" s="49" t="str">
-        <f>IF(G380=0,"نا مشخص",IF(G380=1,"گاباری 4.7",IF(G380=2,"گاباری 4.6",IF(G380=3,"گاباری 4.9",IF(G380=4,"گاباری 5.2",IF(G380=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F380" s="49" t="str">
-        <f>C380&amp;D380</f>
+        <f t="shared" si="11"/>
         <v>جاجرمابریشم</v>
       </c>
       <c r="G380" s="49">
@@ -65268,11 +65267,11 @@
         <v>73</v>
       </c>
       <c r="E381" s="49" t="str">
-        <f>IF(G381=0,"نا مشخص",IF(G381=1,"گاباری 4.7",IF(G381=2,"گاباری 4.6",IF(G381=3,"گاباری 4.9",IF(G381=4,"گاباری 5.2",IF(G381=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F381" s="49" t="str">
-        <f>C381&amp;D381</f>
+        <f t="shared" si="11"/>
         <v>آزادورجاجرم</v>
       </c>
       <c r="G381" s="49">
@@ -65290,11 +65289,11 @@
         <v>353</v>
       </c>
       <c r="E382" s="49" t="str">
-        <f>IF(G382=0,"نا مشخص",IF(G382=1,"گاباری 4.7",IF(G382=2,"گاباری 4.6",IF(G382=3,"گاباری 4.9",IF(G382=4,"گاباری 5.2",IF(G382=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F382" s="49" t="str">
-        <f>C382&amp;D382</f>
+        <f t="shared" si="11"/>
         <v>سنخواستآزادور</v>
       </c>
       <c r="G382" s="49">
@@ -65312,11 +65311,11 @@
         <v>74</v>
       </c>
       <c r="E383" s="49" t="str">
-        <f>IF(G383=0,"نا مشخص",IF(G383=1,"گاباری 4.7",IF(G383=2,"گاباری 4.6",IF(G383=3,"گاباری 4.9",IF(G383=4,"گاباری 5.2",IF(G383=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F383" s="49" t="str">
-        <f>C383&amp;D383</f>
+        <f t="shared" si="11"/>
         <v>جوینسنخواست</v>
       </c>
       <c r="G383" s="49">
@@ -65334,11 +65333,11 @@
         <v>354</v>
       </c>
       <c r="E384" s="49" t="str">
-        <f>IF(G384=0,"نا مشخص",IF(G384=1,"گاباری 4.7",IF(G384=2,"گاباری 4.6",IF(G384=3,"گاباری 4.9",IF(G384=4,"گاباری 5.2",IF(G384=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F384" s="49" t="str">
-        <f>C384&amp;D384</f>
+        <f t="shared" si="11"/>
         <v>نقابجوین</v>
       </c>
       <c r="G384" s="49">
@@ -65360,11 +65359,11 @@
         <v>253</v>
       </c>
       <c r="E385" s="49" t="str">
-        <f>IF(G385=0,"نا مشخص",IF(G385=1,"گاباری 4.7",IF(G385=2,"گاباری 4.6",IF(G385=3,"گاباری 4.9",IF(G385=4,"گاباری 5.2",IF(G385=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="10"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F385" s="49" t="str">
-        <f>C385&amp;D385</f>
+        <f t="shared" si="11"/>
         <v>نقاباسفراین</v>
       </c>
       <c r="G385" s="49">
@@ -65382,11 +65381,11 @@
         <v>356</v>
       </c>
       <c r="E386" s="49" t="str">
-        <f>IF(G386=0,"نا مشخص",IF(G386=1,"گاباری 4.7",IF(G386=2,"گاباری 4.6",IF(G386=3,"گاباری 4.9",IF(G386=4,"گاباری 5.2",IF(G386=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E386:E449" si="12">IF(G386=0,"نا مشخص",IF(G386=1,"گاباری 4.7",IF(G386=2,"گاباری 4.6",IF(G386=3,"گاباری 4.9",IF(G386=4,"گاباری 5.2",IF(G386=5,"گاباری 5.4"))))))</f>
         <v>گاباری 5.4</v>
       </c>
       <c r="F386" s="49" t="str">
-        <f>C386&amp;D386</f>
+        <f t="shared" ref="F386:F449" si="13">C386&amp;D386</f>
         <v>اسفراینبیهق</v>
       </c>
       <c r="G386" s="49">
@@ -65404,11 +65403,11 @@
         <v>75</v>
       </c>
       <c r="E387" s="49" t="str">
-        <f>IF(G387=0,"نا مشخص",IF(G387=1,"گاباری 4.7",IF(G387=2,"گاباری 4.6",IF(G387=3,"گاباری 4.9",IF(G387=4,"گاباری 5.2",IF(G387=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F387" s="49" t="str">
-        <f>C387&amp;D387</f>
+        <f t="shared" si="13"/>
         <v>بیهقسبزوار</v>
       </c>
       <c r="G387" s="49">
@@ -65426,11 +65425,11 @@
         <v>76</v>
       </c>
       <c r="E388" s="49" t="str">
-        <f>IF(G388=0,"نا مشخص",IF(G388=1,"گاباری 4.7",IF(G388=2,"گاباری 4.6",IF(G388=3,"گاباری 4.9",IF(G388=4,"گاباری 5.2",IF(G388=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F388" s="49" t="str">
-        <f>C388&amp;D388</f>
+        <f t="shared" si="13"/>
         <v>سبزوارفردوس</v>
       </c>
       <c r="G388" s="49">
@@ -65448,11 +65447,11 @@
         <v>77</v>
       </c>
       <c r="E389" s="49" t="str">
-        <f>IF(G389=0,"نا مشخص",IF(G389=1,"گاباری 4.7",IF(G389=2,"گاباری 4.6",IF(G389=3,"گاباری 4.9",IF(G389=4,"گاباری 5.2",IF(G389=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F389" s="49" t="str">
-        <f>C389&amp;D389</f>
+        <f t="shared" si="13"/>
         <v>فردوسعطار</v>
       </c>
       <c r="G389" s="49">
@@ -65470,11 +65469,11 @@
         <v>85</v>
       </c>
       <c r="E390" s="49" t="str">
-        <f>IF(G390=0,"نا مشخص",IF(G390=1,"گاباری 4.7",IF(G390=2,"گاباری 4.6",IF(G390=3,"گاباری 4.9",IF(G390=4,"گاباری 5.2",IF(G390=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F390" s="49" t="str">
-        <f>C390&amp;D390</f>
+        <f t="shared" si="13"/>
         <v>عطارفولاد خراسان</v>
       </c>
       <c r="G390" s="49">
@@ -65492,11 +65491,11 @@
         <v>357</v>
       </c>
       <c r="E391" s="49" t="str">
-        <f>IF(G391=0,"نا مشخص",IF(G391=1,"گاباری 4.7",IF(G391=2,"گاباری 4.6",IF(G391=3,"گاباری 4.9",IF(G391=4,"گاباری 5.2",IF(G391=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F391" s="49" t="str">
-        <f>C391&amp;D391</f>
+        <f t="shared" si="13"/>
         <v>فولاد خراساننیشابور</v>
       </c>
       <c r="G391" s="49">
@@ -65514,11 +65513,11 @@
         <v>358</v>
       </c>
       <c r="E392" s="49" t="str">
-        <f>IF(G392=0,"نا مشخص",IF(G392=1,"گاباری 4.7",IF(G392=2,"گاباری 4.6",IF(G392=3,"گاباری 4.9",IF(G392=4,"گاباری 5.2",IF(G392=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F392" s="49" t="str">
-        <f>C392&amp;D392</f>
+        <f t="shared" si="13"/>
         <v>نیشابورخیام</v>
       </c>
       <c r="G392" s="49">
@@ -65536,11 +65535,11 @@
         <v>359</v>
       </c>
       <c r="E393" s="49" t="str">
-        <f>IF(G393=0,"نا مشخص",IF(G393=1,"گاباری 4.7",IF(G393=2,"گاباری 4.6",IF(G393=3,"گاباری 4.9",IF(G393=4,"گاباری 5.2",IF(G393=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F393" s="49" t="str">
-        <f>C393&amp;D393</f>
+        <f t="shared" si="13"/>
         <v>خیامکاشمر</v>
       </c>
       <c r="G393" s="49">
@@ -65560,11 +65559,11 @@
         <v>355</v>
       </c>
       <c r="E394" s="49" t="str">
-        <f>IF(G394=0,"نا مشخص",IF(G394=1,"گاباری 4.7",IF(G394=2,"گاباری 4.6",IF(G394=3,"گاباری 4.9",IF(G394=4,"گاباری 5.2",IF(G394=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F394" s="49" t="str">
-        <f>C394&amp;D394</f>
+        <f t="shared" si="13"/>
         <v>اسفرایننقاب</v>
       </c>
       <c r="G394" s="49">
@@ -65582,11 +65581,11 @@
         <v>253</v>
       </c>
       <c r="E395" s="49" t="str">
-        <f>IF(G395=0,"نا مشخص",IF(G395=1,"گاباری 4.7",IF(G395=2,"گاباری 4.6",IF(G395=3,"گاباری 4.9",IF(G395=4,"گاباری 5.2",IF(G395=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F395" s="49" t="str">
-        <f>C395&amp;D395</f>
+        <f t="shared" si="13"/>
         <v>بیهقاسفراین</v>
       </c>
       <c r="G395" s="49">
@@ -65604,11 +65603,11 @@
         <v>356</v>
       </c>
       <c r="E396" s="49" t="str">
-        <f>IF(G396=0,"نا مشخص",IF(G396=1,"گاباری 4.7",IF(G396=2,"گاباری 4.6",IF(G396=3,"گاباری 4.9",IF(G396=4,"گاباری 5.2",IF(G396=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F396" s="49" t="str">
-        <f>C396&amp;D396</f>
+        <f t="shared" si="13"/>
         <v>سبزواربیهق</v>
       </c>
       <c r="G396" s="49">
@@ -65626,11 +65625,11 @@
         <v>75</v>
       </c>
       <c r="E397" s="49" t="str">
-        <f>IF(G397=0,"نا مشخص",IF(G397=1,"گاباری 4.7",IF(G397=2,"گاباری 4.6",IF(G397=3,"گاباری 4.9",IF(G397=4,"گاباری 5.2",IF(G397=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F397" s="49" t="str">
-        <f>C397&amp;D397</f>
+        <f t="shared" si="13"/>
         <v>فردوسسبزوار</v>
       </c>
       <c r="G397" s="49">
@@ -65648,11 +65647,11 @@
         <v>76</v>
       </c>
       <c r="E398" s="49" t="str">
-        <f>IF(G398=0,"نا مشخص",IF(G398=1,"گاباری 4.7",IF(G398=2,"گاباری 4.6",IF(G398=3,"گاباری 4.9",IF(G398=4,"گاباری 5.2",IF(G398=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F398" s="49" t="str">
-        <f>C398&amp;D398</f>
+        <f t="shared" si="13"/>
         <v>عطارفردوس</v>
       </c>
       <c r="G398" s="49">
@@ -65670,11 +65669,11 @@
         <v>77</v>
       </c>
       <c r="E399" s="49" t="str">
-        <f>IF(G399=0,"نا مشخص",IF(G399=1,"گاباری 4.7",IF(G399=2,"گاباری 4.6",IF(G399=3,"گاباری 4.9",IF(G399=4,"گاباری 5.2",IF(G399=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F399" s="49" t="str">
-        <f>C399&amp;D399</f>
+        <f t="shared" si="13"/>
         <v>فولاد خراسانعطار</v>
       </c>
       <c r="G399" s="49">
@@ -65692,11 +65691,11 @@
         <v>85</v>
       </c>
       <c r="E400" s="49" t="str">
-        <f>IF(G400=0,"نا مشخص",IF(G400=1,"گاباری 4.7",IF(G400=2,"گاباری 4.6",IF(G400=3,"گاباری 4.9",IF(G400=4,"گاباری 5.2",IF(G400=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F400" s="49" t="str">
-        <f>C400&amp;D400</f>
+        <f t="shared" si="13"/>
         <v>نیشابورفولاد خراسان</v>
       </c>
       <c r="G400" s="49">
@@ -65714,11 +65713,11 @@
         <v>357</v>
       </c>
       <c r="E401" s="49" t="str">
-        <f>IF(G401=0,"نا مشخص",IF(G401=1,"گاباری 4.7",IF(G401=2,"گاباری 4.6",IF(G401=3,"گاباری 4.9",IF(G401=4,"گاباری 5.2",IF(G401=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F401" s="49" t="str">
-        <f>C401&amp;D401</f>
+        <f t="shared" si="13"/>
         <v>خیامنیشابور</v>
       </c>
       <c r="G401" s="49">
@@ -65736,11 +65735,11 @@
         <v>358</v>
       </c>
       <c r="E402" s="49" t="str">
-        <f>IF(G402=0,"نا مشخص",IF(G402=1,"گاباری 4.7",IF(G402=2,"گاباری 4.6",IF(G402=3,"گاباری 4.9",IF(G402=4,"گاباری 5.2",IF(G402=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F402" s="49" t="str">
-        <f>C402&amp;D402</f>
+        <f t="shared" si="13"/>
         <v>کاشمرخیام</v>
       </c>
       <c r="G402" s="49">
@@ -65760,11 +65759,11 @@
         <v>78</v>
       </c>
       <c r="E403" s="49" t="str">
-        <f>IF(G403=0,"نا مشخص",IF(G403=1,"گاباری 4.7",IF(G403=2,"گاباری 4.6",IF(G403=3,"گاباری 4.9",IF(G403=4,"گاباری 5.2",IF(G403=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F403" s="49" t="str">
-        <f>C403&amp;D403</f>
+        <f t="shared" si="13"/>
         <v>کاشمرابومسلم</v>
       </c>
       <c r="G403" s="49">
@@ -65782,11 +65781,11 @@
         <v>79</v>
       </c>
       <c r="E404" s="49" t="str">
-        <f>IF(G404=0,"نا مشخص",IF(G404=1,"گاباری 4.7",IF(G404=2,"گاباری 4.6",IF(G404=3,"گاباری 4.9",IF(G404=4,"گاباری 5.2",IF(G404=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F404" s="49" t="str">
-        <f>C404&amp;D404</f>
+        <f t="shared" si="13"/>
         <v>ابومسلمتربت</v>
       </c>
       <c r="G404" s="49">
@@ -65804,11 +65803,11 @@
         <v>220</v>
       </c>
       <c r="E405" s="49" t="str">
-        <f>IF(G405=0,"نا مشخص",IF(G405=1,"گاباری 4.7",IF(G405=2,"گاباری 4.6",IF(G405=3,"گاباری 4.9",IF(G405=4,"گاباری 5.2",IF(G405=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F405" s="49" t="str">
-        <f>C405&amp;D405</f>
+        <f t="shared" si="13"/>
         <v>تربتفریمان</v>
       </c>
       <c r="G405" s="49">
@@ -65828,11 +65827,11 @@
         <v>359</v>
       </c>
       <c r="E406" s="49" t="str">
-        <f>IF(G406=0,"نا مشخص",IF(G406=1,"گاباری 4.7",IF(G406=2,"گاباری 4.6",IF(G406=3,"گاباری 4.9",IF(G406=4,"گاباری 5.2",IF(G406=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F406" s="49" t="str">
-        <f>C406&amp;D406</f>
+        <f t="shared" si="13"/>
         <v>ابومسلمکاشمر</v>
       </c>
       <c r="G406" s="49">
@@ -65850,11 +65849,11 @@
         <v>78</v>
       </c>
       <c r="E407" s="49" t="str">
-        <f>IF(G407=0,"نا مشخص",IF(G407=1,"گاباری 4.7",IF(G407=2,"گاباری 4.6",IF(G407=3,"گاباری 4.9",IF(G407=4,"گاباری 5.2",IF(G407=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F407" s="49" t="str">
-        <f>C407&amp;D407</f>
+        <f t="shared" si="13"/>
         <v>تربتابومسلم</v>
       </c>
       <c r="G407" s="49">
@@ -65872,11 +65871,11 @@
         <v>79</v>
       </c>
       <c r="E408" s="49" t="str">
-        <f>IF(G408=0,"نا مشخص",IF(G408=1,"گاباری 4.7",IF(G408=2,"گاباری 4.6",IF(G408=3,"گاباری 4.9",IF(G408=4,"گاباری 5.2",IF(G408=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F408" s="49" t="str">
-        <f>C408&amp;D408</f>
+        <f t="shared" si="13"/>
         <v>فریمانتربت</v>
       </c>
       <c r="G408" s="49">
@@ -65896,11 +65895,11 @@
         <v>80</v>
       </c>
       <c r="E409" s="49" t="str">
-        <f>IF(G409=0,"نا مشخص",IF(G409=1,"گاباری 4.7",IF(G409=2,"گاباری 4.6",IF(G409=3,"گاباری 4.9",IF(G409=4,"گاباری 5.2",IF(G409=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F409" s="49" t="str">
-        <f>C409&amp;D409</f>
+        <f t="shared" si="13"/>
         <v>فریمانسلام</v>
       </c>
       <c r="G409" s="49">
@@ -65918,11 +65917,11 @@
         <v>81</v>
       </c>
       <c r="E410" s="49" t="str">
-        <f>IF(G410=0,"نا مشخص",IF(G410=1,"گاباری 4.7",IF(G410=2,"گاباری 4.6",IF(G410=3,"گاباری 4.9",IF(G410=4,"گاباری 5.2",IF(G410=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F410" s="49" t="str">
-        <f>C410&amp;D410</f>
+        <f t="shared" si="13"/>
         <v>سلاممشهد</v>
       </c>
       <c r="G410" s="49">
@@ -65942,11 +65941,11 @@
         <v>220</v>
       </c>
       <c r="E411" s="49" t="str">
-        <f>IF(G411=0,"نا مشخص",IF(G411=1,"گاباری 4.7",IF(G411=2,"گاباری 4.6",IF(G411=3,"گاباری 4.9",IF(G411=4,"گاباری 5.2",IF(G411=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F411" s="49" t="str">
-        <f>C411&amp;D411</f>
+        <f t="shared" si="13"/>
         <v>سلامفریمان</v>
       </c>
       <c r="G411" s="49">
@@ -65964,11 +65963,11 @@
         <v>80</v>
       </c>
       <c r="E412" s="49" t="str">
-        <f>IF(G412=0,"نا مشخص",IF(G412=1,"گاباری 4.7",IF(G412=2,"گاباری 4.6",IF(G412=3,"گاباری 4.9",IF(G412=4,"گاباری 5.2",IF(G412=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F412" s="49" t="str">
-        <f>C412&amp;D412</f>
+        <f t="shared" si="13"/>
         <v>مشهدسلام</v>
       </c>
       <c r="G412" s="49">
@@ -65988,11 +65987,11 @@
         <v>224</v>
       </c>
       <c r="E413" s="49" t="str">
-        <f>IF(G413=0,"نا مشخص",IF(G413=1,"گاباری 4.7",IF(G413=2,"گاباری 4.6",IF(G413=3,"گاباری 4.9",IF(G413=4,"گاباری 5.2",IF(G413=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F413" s="49" t="str">
-        <f>C413&amp;D413</f>
+        <f t="shared" si="13"/>
         <v>سلامشهید مطهری</v>
       </c>
       <c r="G413" s="49">
@@ -66012,11 +66011,11 @@
         <v>224</v>
       </c>
       <c r="E414" s="49" t="str">
-        <f>IF(G414=0,"نا مشخص",IF(G414=1,"گاباری 4.7",IF(G414=2,"گاباری 4.6",IF(G414=3,"گاباری 4.9",IF(G414=4,"گاباری 5.2",IF(G414=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F414" s="49" t="str">
-        <f>C414&amp;D414</f>
+        <f t="shared" si="13"/>
         <v>فریمانشهید مطهری</v>
       </c>
       <c r="G414" s="49">
@@ -66036,11 +66035,11 @@
         <v>360</v>
       </c>
       <c r="E415" s="49" t="str">
-        <f>IF(G415=0,"نا مشخص",IF(G415=1,"گاباری 4.7",IF(G415=2,"گاباری 4.6",IF(G415=3,"گاباری 4.9",IF(G415=4,"گاباری 5.2",IF(G415=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F415" s="49" t="str">
-        <f>C415&amp;D415</f>
+        <f t="shared" si="13"/>
         <v>شهید مطهریآزادگان</v>
       </c>
       <c r="G415" s="49">
@@ -66058,11 +66057,11 @@
         <v>361</v>
       </c>
       <c r="E416" s="49" t="str">
-        <f>IF(G416=0,"نا مشخص",IF(G416=1,"گاباری 4.7",IF(G416=2,"گاباری 4.6",IF(G416=3,"گاباری 4.9",IF(G416=4,"گاباری 5.2",IF(G416=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F416" s="49" t="str">
-        <f>C416&amp;D416</f>
+        <f t="shared" si="13"/>
         <v>آزادگانشوراک ملکی</v>
       </c>
       <c r="G416" s="49">
@@ -66080,11 +66079,11 @@
         <v>362</v>
       </c>
       <c r="E417" s="49" t="str">
-        <f>IF(G417=0,"نا مشخص",IF(G417=1,"گاباری 4.7",IF(G417=2,"گاباری 4.6",IF(G417=3,"گاباری 4.9",IF(G417=4,"گاباری 5.2",IF(G417=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F417" s="49" t="str">
-        <f>C417&amp;D417</f>
+        <f t="shared" si="13"/>
         <v>شوراک ملکیمختوم قلی</v>
       </c>
       <c r="G417" s="49">
@@ -66102,11 +66101,11 @@
         <v>82</v>
       </c>
       <c r="E418" s="49" t="str">
-        <f>IF(G418=0,"نا مشخص",IF(G418=1,"گاباری 4.7",IF(G418=2,"گاباری 4.6",IF(G418=3,"گاباری 4.9",IF(G418=4,"گاباری 5.2",IF(G418=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F418" s="49" t="str">
-        <f>C418&amp;D418</f>
+        <f t="shared" si="13"/>
         <v>مختوم قلیمرزداران</v>
       </c>
       <c r="G418" s="49">
@@ -66124,11 +66123,11 @@
         <v>83</v>
       </c>
       <c r="E419" s="49" t="str">
-        <f>IF(G419=0,"نا مشخص",IF(G419=1,"گاباری 4.7",IF(G419=2,"گاباری 4.6",IF(G419=3,"گاباری 4.9",IF(G419=4,"گاباری 5.2",IF(G419=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F419" s="49" t="str">
-        <f>C419&amp;D419</f>
+        <f t="shared" si="13"/>
         <v>مرزدارانرباط شرف</v>
       </c>
       <c r="G419" s="49">
@@ -66146,11 +66145,11 @@
         <v>232</v>
       </c>
       <c r="E420" s="49" t="str">
-        <f>IF(G420=0,"نا مشخص",IF(G420=1,"گاباری 4.7",IF(G420=2,"گاباری 4.6",IF(G420=3,"گاباری 4.9",IF(G420=4,"گاباری 5.2",IF(G420=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F420" s="49" t="str">
-        <f>C420&amp;D420</f>
+        <f t="shared" si="13"/>
         <v>رباط شرفگنبدلی</v>
       </c>
       <c r="G420" s="49">
@@ -66168,11 +66167,11 @@
         <v>84</v>
       </c>
       <c r="E421" s="49" t="str">
-        <f>IF(G421=0,"نا مشخص",IF(G421=1,"گاباری 4.7",IF(G421=2,"گاباری 4.6",IF(G421=3,"گاباری 4.9",IF(G421=4,"گاباری 5.2",IF(G421=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F421" s="49" t="str">
-        <f>C421&amp;D421</f>
+        <f t="shared" si="13"/>
         <v>گنبدلیسرخس</v>
       </c>
       <c r="G421" s="49">
@@ -66190,11 +66189,11 @@
         <v>438</v>
       </c>
       <c r="E422" s="49" t="str">
-        <f>IF(G422=0,"نا مشخص",IF(G422=1,"گاباری 4.7",IF(G422=2,"گاباری 4.6",IF(G422=3,"گاباری 4.9",IF(G422=4,"گاباری 5.2",IF(G422=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F422" s="49" t="str">
-        <f>C422&amp;D422</f>
+        <f t="shared" si="13"/>
         <v>سرخسسرخس ترکمنستان</v>
       </c>
       <c r="G422" s="49">
@@ -66214,11 +66213,11 @@
         <v>85</v>
       </c>
       <c r="E423" s="49" t="str">
-        <f>IF(G423=0,"نا مشخص",IF(G423=1,"گاباری 4.7",IF(G423=2,"گاباری 4.6",IF(G423=3,"گاباری 4.9",IF(G423=4,"گاباری 5.2",IF(G423=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F423" s="49" t="str">
-        <f>C423&amp;D423</f>
+        <f t="shared" si="13"/>
         <v>مجتمع فولاد خراسانفولاد خراسان</v>
       </c>
       <c r="G423" s="49">
@@ -66238,11 +66237,11 @@
         <v>439</v>
       </c>
       <c r="E424" s="49" t="str">
-        <f>IF(G424=0,"نا مشخص",IF(G424=1,"گاباری 4.7",IF(G424=2,"گاباری 4.6",IF(G424=3,"گاباری 4.9",IF(G424=4,"گاباری 5.2",IF(G424=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F424" s="49" t="str">
-        <f>C424&amp;D424</f>
+        <f t="shared" si="13"/>
         <v>گنبدلیپالایشگاه گاز شهید هاشمی نژاد</v>
       </c>
       <c r="G424" s="49">
@@ -66264,11 +66263,11 @@
         <v>314</v>
       </c>
       <c r="E425" s="49" t="str">
-        <f>IF(G425=0,"نا مشخص",IF(G425=1,"گاباری 4.7",IF(G425=2,"گاباری 4.6",IF(G425=3,"گاباری 4.9",IF(G425=4,"گاباری 5.2",IF(G425=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F425" s="49" t="str">
-        <f>C425&amp;D425</f>
+        <f t="shared" si="13"/>
         <v>قزوینسیاه چشمه</v>
       </c>
       <c r="G425" s="49">
@@ -66288,11 +66287,11 @@
         <v>228</v>
       </c>
       <c r="E426" s="49" t="str">
-        <f>IF(G426=0,"نا مشخص",IF(G426=1,"گاباری 4.7",IF(G426=2,"گاباری 4.6",IF(G426=3,"گاباری 4.9",IF(G426=4,"گاباری 5.2",IF(G426=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F426" s="49" t="str">
-        <f>C426&amp;D426</f>
+        <f t="shared" si="13"/>
         <v>سیاه چشمهتاکستان</v>
       </c>
       <c r="G426" s="49">
@@ -66310,11 +66309,11 @@
         <v>315</v>
       </c>
       <c r="E427" s="49" t="str">
-        <f>IF(G427=0,"نا مشخص",IF(G427=1,"گاباری 4.7",IF(G427=2,"گاباری 4.6",IF(G427=3,"گاباری 4.9",IF(G427=4,"گاباری 5.2",IF(G427=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F427" s="49" t="str">
-        <f>C427&amp;D427</f>
+        <f t="shared" si="13"/>
         <v>تاکستانسیاه باغ</v>
       </c>
       <c r="G427" s="49">
@@ -66332,11 +66331,11 @@
         <v>40</v>
       </c>
       <c r="E428" s="49" t="str">
-        <f>IF(G428=0,"نا مشخص",IF(G428=1,"گاباری 4.7",IF(G428=2,"گاباری 4.6",IF(G428=3,"گاباری 4.9",IF(G428=4,"گاباری 5.2",IF(G428=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F428" s="49" t="str">
-        <f>C428&amp;D428</f>
+        <f t="shared" si="13"/>
         <v>سیاه باغقروه</v>
       </c>
       <c r="G428" s="49">
@@ -66354,11 +66353,11 @@
         <v>41</v>
       </c>
       <c r="E429" s="49" t="str">
-        <f>IF(G429=0,"نا مشخص",IF(G429=1,"گاباری 4.7",IF(G429=2,"گاباری 4.6",IF(G429=3,"گاباری 4.9",IF(G429=4,"گاباری 5.2",IF(G429=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F429" s="49" t="str">
-        <f>C429&amp;D429</f>
+        <f t="shared" si="13"/>
         <v>قروهخرم دره</v>
       </c>
       <c r="G429" s="49">
@@ -66376,11 +66375,11 @@
         <v>316</v>
       </c>
       <c r="E430" s="49" t="str">
-        <f>IF(G430=0,"نا مشخص",IF(G430=1,"گاباری 4.7",IF(G430=2,"گاباری 4.6",IF(G430=3,"گاباری 4.9",IF(G430=4,"گاباری 5.2",IF(G430=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F430" s="49" t="str">
-        <f>C430&amp;D430</f>
+        <f t="shared" si="13"/>
         <v>خرم درهزرین دژ</v>
       </c>
       <c r="G430" s="49">
@@ -66398,11 +66397,11 @@
         <v>317</v>
       </c>
       <c r="E431" s="49" t="str">
-        <f>IF(G431=0,"نا مشخص",IF(G431=1,"گاباری 4.7",IF(G431=2,"گاباری 4.6",IF(G431=3,"گاباری 4.9",IF(G431=4,"گاباری 5.2",IF(G431=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F431" s="49" t="str">
-        <f>C431&amp;D431</f>
+        <f t="shared" si="13"/>
         <v>زرین دژپیرزاغه</v>
       </c>
       <c r="G431" s="49">
@@ -66420,11 +66419,11 @@
         <v>318</v>
       </c>
       <c r="E432" s="49" t="str">
-        <f>IF(G432=0,"نا مشخص",IF(G432=1,"گاباری 4.7",IF(G432=2,"گاباری 4.6",IF(G432=3,"گاباری 4.9",IF(G432=4,"گاباری 5.2",IF(G432=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F432" s="49" t="str">
-        <f>C432&amp;D432</f>
+        <f t="shared" si="13"/>
         <v>پیرزاغهسلطانیه</v>
       </c>
       <c r="G432" s="49">
@@ -66442,11 +66441,11 @@
         <v>42</v>
       </c>
       <c r="E433" s="49" t="str">
-        <f>IF(G433=0,"نا مشخص",IF(G433=1,"گاباری 4.7",IF(G433=2,"گاباری 4.6",IF(G433=3,"گاباری 4.9",IF(G433=4,"گاباری 5.2",IF(G433=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F433" s="49" t="str">
-        <f>C433&amp;D433</f>
+        <f t="shared" si="13"/>
         <v>سلطانیهبناب</v>
       </c>
       <c r="G433" s="49">
@@ -66464,11 +66463,11 @@
         <v>43</v>
       </c>
       <c r="E434" s="49" t="str">
-        <f>IF(G434=0,"نا مشخص",IF(G434=1,"گاباری 4.7",IF(G434=2,"گاباری 4.6",IF(G434=3,"گاباری 4.9",IF(G434=4,"گاباری 5.2",IF(G434=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F434" s="49" t="str">
-        <f>C434&amp;D434</f>
+        <f t="shared" si="13"/>
         <v>بنابزنجان</v>
       </c>
       <c r="G434" s="49">
@@ -66488,11 +66487,11 @@
         <v>319</v>
       </c>
       <c r="E435" s="49" t="str">
-        <f>IF(G435=0,"نا مشخص",IF(G435=1,"گاباری 4.7",IF(G435=2,"گاباری 4.6",IF(G435=3,"گاباری 4.9",IF(G435=4,"گاباری 5.2",IF(G435=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F435" s="49" t="str">
-        <f>C435&amp;D435</f>
+        <f t="shared" si="13"/>
         <v>زنجانخرم پی</v>
       </c>
       <c r="G435" s="49">
@@ -66510,11 +66509,11 @@
         <v>320</v>
       </c>
       <c r="E436" s="49" t="str">
-        <f>IF(G436=0,"نا مشخص",IF(G436=1,"گاباری 4.7",IF(G436=2,"گاباری 4.6",IF(G436=3,"گاباری 4.9",IF(G436=4,"گاباری 5.2",IF(G436=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F436" s="49" t="str">
-        <f>C436&amp;D436</f>
+        <f t="shared" si="13"/>
         <v>خرم پینیک پی</v>
       </c>
       <c r="G436" s="49">
@@ -66532,11 +66531,11 @@
         <v>321</v>
       </c>
       <c r="E437" s="49" t="str">
-        <f>IF(G437=0,"نا مشخص",IF(G437=1,"گاباری 4.7",IF(G437=2,"گاباری 4.6",IF(G437=3,"گاباری 4.9",IF(G437=4,"گاباری 5.2",IF(G437=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F437" s="49" t="str">
-        <f>C437&amp;D437</f>
+        <f t="shared" si="13"/>
         <v>نیک پیآذرپی</v>
       </c>
       <c r="G437" s="49">
@@ -66554,11 +66553,11 @@
         <v>44</v>
       </c>
       <c r="E438" s="49" t="str">
-        <f>IF(G438=0,"نا مشخص",IF(G438=1,"گاباری 4.7",IF(G438=2,"گاباری 4.6",IF(G438=3,"گاباری 4.9",IF(G438=4,"گاباری 5.2",IF(G438=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F438" s="49" t="str">
-        <f>C438&amp;D438</f>
+        <f t="shared" si="13"/>
         <v>آذرپیسرچم</v>
       </c>
       <c r="G438" s="49">
@@ -66576,11 +66575,11 @@
         <v>322</v>
       </c>
       <c r="E439" s="49" t="str">
-        <f>IF(G439=0,"نا مشخص",IF(G439=1,"گاباری 4.7",IF(G439=2,"گاباری 4.6",IF(G439=3,"گاباری 4.9",IF(G439=4,"گاباری 5.2",IF(G439=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F439" s="49" t="str">
-        <f>C439&amp;D439</f>
+        <f t="shared" si="13"/>
         <v>سرچمرجین</v>
       </c>
       <c r="G439" s="49">
@@ -66598,11 +66597,11 @@
         <v>323</v>
       </c>
       <c r="E440" s="49" t="str">
-        <f>IF(G440=0,"نا مشخص",IF(G440=1,"گاباری 4.7",IF(G440=2,"گاباری 4.6",IF(G440=3,"گاباری 4.9",IF(G440=4,"گاباری 5.2",IF(G440=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F440" s="49" t="str">
-        <f>C440&amp;D440</f>
+        <f t="shared" si="13"/>
         <v>رجینپل دختر</v>
       </c>
       <c r="G440" s="49">
@@ -66620,11 +66619,11 @@
         <v>229</v>
       </c>
       <c r="E441" s="49" t="str">
-        <f>IF(G441=0,"نا مشخص",IF(G441=1,"گاباری 4.7",IF(G441=2,"گاباری 4.6",IF(G441=3,"گاباری 4.9",IF(G441=4,"گاباری 5.2",IF(G441=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F441" s="49" t="str">
-        <f>C441&amp;D441</f>
+        <f t="shared" si="13"/>
         <v>پل دخترمیانه</v>
       </c>
       <c r="G441" s="49">
@@ -66646,11 +66645,11 @@
         <v>45</v>
       </c>
       <c r="E442" s="49" t="str">
-        <f>IF(G442=0,"نا مشخص",IF(G442=1,"گاباری 4.7",IF(G442=2,"گاباری 4.6",IF(G442=3,"گاباری 4.9",IF(G442=4,"گاباری 5.2",IF(G442=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F442" s="49" t="str">
-        <f>C442&amp;D442</f>
+        <f t="shared" si="13"/>
         <v>میانهقرانقو</v>
       </c>
       <c r="G442" s="49">
@@ -66668,11 +66667,11 @@
         <v>324</v>
       </c>
       <c r="E443" s="49" t="str">
-        <f>IF(G443=0,"نا مشخص",IF(G443=1,"گاباری 4.7",IF(G443=2,"گاباری 4.6",IF(G443=3,"گاباری 4.9",IF(G443=4,"گاباری 5.2",IF(G443=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F443" s="49" t="str">
-        <f>C443&amp;D443</f>
+        <f t="shared" si="13"/>
         <v>قرانقوشیخ صفی</v>
       </c>
       <c r="G443" s="49">
@@ -66690,11 +66689,11 @@
         <v>325</v>
       </c>
       <c r="E444" s="49" t="str">
-        <f>IF(G444=0,"نا مشخص",IF(G444=1,"گاباری 4.7",IF(G444=2,"گاباری 4.6",IF(G444=3,"گاباری 4.9",IF(G444=4,"گاباری 5.2",IF(G444=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F444" s="49" t="str">
-        <f>C444&amp;D444</f>
+        <f t="shared" si="13"/>
         <v>شیخ صفیبابک</v>
       </c>
       <c r="G444" s="49">
@@ -66712,11 +66711,11 @@
         <v>326</v>
       </c>
       <c r="E445" s="49" t="str">
-        <f>IF(G445=0,"نا مشخص",IF(G445=1,"گاباری 4.7",IF(G445=2,"گاباری 4.6",IF(G445=3,"گاباری 4.9",IF(G445=4,"گاباری 5.2",IF(G445=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F445" s="49" t="str">
-        <f>C445&amp;D445</f>
+        <f t="shared" si="13"/>
         <v>بابکخراسانک</v>
       </c>
       <c r="G445" s="49">
@@ -66734,11 +66733,11 @@
         <v>46</v>
       </c>
       <c r="E446" s="49" t="str">
-        <f>IF(G446=0,"نا مشخص",IF(G446=1,"گاباری 4.7",IF(G446=2,"گاباری 4.6",IF(G446=3,"گاباری 4.9",IF(G446=4,"گاباری 5.2",IF(G446=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F446" s="49" t="str">
-        <f>C446&amp;D446</f>
+        <f t="shared" si="13"/>
         <v>خراسانکصائب</v>
       </c>
       <c r="G446" s="49">
@@ -66756,11 +66755,11 @@
         <v>47</v>
       </c>
       <c r="E447" s="49" t="str">
-        <f>IF(G447=0,"نا مشخص",IF(G447=1,"گاباری 4.7",IF(G447=2,"گاباری 4.6",IF(G447=3,"گاباری 4.9",IF(G447=4,"گاباری 5.2",IF(G447=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F447" s="49" t="str">
-        <f>C447&amp;D447</f>
+        <f t="shared" si="13"/>
         <v>صائبهشترود</v>
       </c>
       <c r="G447" s="49">
@@ -66778,11 +66777,11 @@
         <v>327</v>
       </c>
       <c r="E448" s="49" t="str">
-        <f>IF(G448=0,"نا مشخص",IF(G448=1,"گاباری 4.7",IF(G448=2,"گاباری 4.6",IF(G448=3,"گاباری 4.9",IF(G448=4,"گاباری 5.2",IF(G448=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F448" s="49" t="str">
-        <f>C448&amp;D448</f>
+        <f t="shared" si="13"/>
         <v>هشترودآتش بخ</v>
       </c>
       <c r="G448" s="49">
@@ -66800,11 +66799,11 @@
         <v>48</v>
       </c>
       <c r="E449" s="49" t="str">
-        <f>IF(G449=0,"نا مشخص",IF(G449=1,"گاباری 4.7",IF(G449=2,"گاباری 4.6",IF(G449=3,"گاباری 4.9",IF(G449=4,"گاباری 5.2",IF(G449=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="12"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F449" s="49" t="str">
-        <f>C449&amp;D449</f>
+        <f t="shared" si="13"/>
         <v>آتش بخسراجو</v>
       </c>
       <c r="G449" s="49">
@@ -66822,11 +66821,11 @@
         <v>49</v>
       </c>
       <c r="E450" s="49" t="str">
-        <f>IF(G450=0,"نا مشخص",IF(G450=1,"گاباری 4.7",IF(G450=2,"گاباری 4.6",IF(G450=3,"گاباری 4.9",IF(G450=4,"گاباری 5.2",IF(G450=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E450:E513" si="14">IF(G450=0,"نا مشخص",IF(G450=1,"گاباری 4.7",IF(G450=2,"گاباری 4.6",IF(G450=3,"گاباری 4.9",IF(G450=4,"گاباری 5.2",IF(G450=5,"گاباری 5.4"))))))</f>
         <v>گاباری 4.9</v>
       </c>
       <c r="F450" s="49" t="str">
-        <f>C450&amp;D450</f>
+        <f t="shared" ref="F450:F513" si="15">C450&amp;D450</f>
         <v>سراجوسهند</v>
       </c>
       <c r="G450" s="49">
@@ -66844,11 +66843,11 @@
         <v>328</v>
       </c>
       <c r="E451" s="49" t="str">
-        <f>IF(G451=0,"نا مشخص",IF(G451=1,"گاباری 4.7",IF(G451=2,"گاباری 4.6",IF(G451=3,"گاباری 4.9",IF(G451=4,"گاباری 5.2",IF(G451=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F451" s="49" t="str">
-        <f>C451&amp;D451</f>
+        <f t="shared" si="15"/>
         <v>سهندگل تپه</v>
       </c>
       <c r="G451" s="49">
@@ -66866,11 +66865,11 @@
         <v>329</v>
       </c>
       <c r="E452" s="49" t="str">
-        <f>IF(G452=0,"نا مشخص",IF(G452=1,"گاباری 4.7",IF(G452=2,"گاباری 4.6",IF(G452=3,"گاباری 4.9",IF(G452=4,"گاباری 5.2",IF(G452=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F452" s="49" t="str">
-        <f>C452&amp;D452</f>
+        <f t="shared" si="15"/>
         <v>گل تپهخواجه نصیر</v>
       </c>
       <c r="G452" s="49">
@@ -66888,11 +66887,11 @@
         <v>50</v>
       </c>
       <c r="E453" s="49" t="str">
-        <f>IF(G453=0,"نا مشخص",IF(G453=1,"گاباری 4.7",IF(G453=2,"گاباری 4.6",IF(G453=3,"گاباری 4.9",IF(G453=4,"گاباری 5.2",IF(G453=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F453" s="49" t="str">
-        <f>C453&amp;D453</f>
+        <f t="shared" si="15"/>
         <v>خواجه نصیرمراغه</v>
       </c>
       <c r="G453" s="49">
@@ -66912,11 +66911,11 @@
         <v>332</v>
       </c>
       <c r="E454" s="49" t="str">
-        <f>IF(G454=0,"نا مشخص",IF(G454=1,"گاباری 4.7",IF(G454=2,"گاباری 4.6",IF(G454=3,"گاباری 4.9",IF(G454=4,"گاباری 5.2",IF(G454=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F454" s="49" t="str">
-        <f>C454&amp;D454</f>
+        <f t="shared" si="15"/>
         <v>مراغهآذربناب</v>
       </c>
       <c r="G454" s="49">
@@ -66934,11 +66933,11 @@
         <v>788</v>
       </c>
       <c r="E455" s="49" t="str">
-        <f>IF(G455=0,"نا مشخص",IF(G455=1,"گاباری 4.7",IF(G455=2,"گاباری 4.6",IF(G455=3,"گاباری 4.9",IF(G455=4,"گاباری 5.2",IF(G455=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F455" s="49" t="str">
-        <f>C455&amp;D455</f>
+        <f t="shared" si="15"/>
         <v>آذربنابدیزه رود</v>
       </c>
       <c r="G455" s="49">
@@ -66956,11 +66955,11 @@
         <v>334</v>
       </c>
       <c r="E456" s="49" t="str">
-        <f>IF(G456=0,"نا مشخص",IF(G456=1,"گاباری 4.7",IF(G456=2,"گاباری 4.6",IF(G456=3,"گاباری 4.9",IF(G456=4,"گاباری 5.2",IF(G456=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F456" s="49" t="str">
-        <f>C456&amp;D456</f>
+        <f t="shared" si="15"/>
         <v>دیزه رودعجب شیر</v>
       </c>
       <c r="G456" s="49">
@@ -66978,11 +66977,11 @@
         <v>335</v>
       </c>
       <c r="E457" s="49" t="str">
-        <f>IF(G457=0,"نا مشخص",IF(G457=1,"گاباری 4.7",IF(G457=2,"گاباری 4.6",IF(G457=3,"گاباری 4.9",IF(G457=4,"گاباری 5.2",IF(G457=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F457" s="49" t="str">
-        <f>C457&amp;D457</f>
+        <f t="shared" si="15"/>
         <v>عجب شیرپرویزبهمن</v>
       </c>
       <c r="G457" s="49">
@@ -67000,11 +66999,11 @@
         <v>336</v>
       </c>
       <c r="E458" s="49" t="str">
-        <f>IF(G458=0,"نا مشخص",IF(G458=1,"گاباری 4.7",IF(G458=2,"گاباری 4.6",IF(G458=3,"گاباری 4.9",IF(G458=4,"گاباری 5.2",IF(G458=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F458" s="49" t="str">
-        <f>C458&amp;D458</f>
+        <f t="shared" si="15"/>
         <v>پرویزبهمنآذرشهر (شهید رهبری)</v>
       </c>
       <c r="G458" s="49">
@@ -67022,11 +67021,11 @@
         <v>337</v>
       </c>
       <c r="E459" s="49" t="str">
-        <f>IF(G459=0,"نا مشخص",IF(G459=1,"گاباری 4.7",IF(G459=2,"گاباری 4.6",IF(G459=3,"گاباری 4.9",IF(G459=4,"گاباری 5.2",IF(G459=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F459" s="49" t="str">
-        <f>C459&amp;D459</f>
+        <f t="shared" si="15"/>
         <v>آذرشهر (شهید رهبری)زارعی</v>
       </c>
       <c r="G459" s="49">
@@ -67044,11 +67043,11 @@
         <v>338</v>
       </c>
       <c r="E460" s="49" t="str">
-        <f>IF(G460=0,"نا مشخص",IF(G460=1,"گاباری 4.7",IF(G460=2,"گاباری 4.6",IF(G460=3,"گاباری 4.9",IF(G460=4,"گاباری 5.2",IF(G460=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F460" s="49" t="str">
-        <f>C460&amp;D460</f>
+        <f t="shared" si="15"/>
         <v>زارعیعباسی</v>
       </c>
       <c r="G460" s="49">
@@ -67066,11 +67065,11 @@
         <v>222</v>
       </c>
       <c r="E461" s="49" t="str">
-        <f>IF(G461=0,"نا مشخص",IF(G461=1,"گاباری 4.7",IF(G461=2,"گاباری 4.6",IF(G461=3,"گاباری 4.9",IF(G461=4,"گاباری 5.2",IF(G461=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F461" s="49" t="str">
-        <f>C461&amp;D461</f>
+        <f t="shared" si="15"/>
         <v>عباسیتبریز</v>
       </c>
       <c r="G461" s="49">
@@ -67090,11 +67089,11 @@
         <v>53</v>
       </c>
       <c r="E462" s="49" t="str">
-        <f>IF(G462=0,"نا مشخص",IF(G462=1,"گاباری 4.7",IF(G462=2,"گاباری 4.6",IF(G462=3,"گاباری 4.9",IF(G462=4,"گاباری 5.2",IF(G462=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F462" s="49" t="str">
-        <f>C462&amp;D462</f>
+        <f t="shared" si="15"/>
         <v>تبریزسهلان</v>
       </c>
       <c r="G462" s="49">
@@ -67112,11 +67111,11 @@
         <v>258</v>
       </c>
       <c r="E463" s="49" t="str">
-        <f>IF(G463=0,"نا مشخص",IF(G463=1,"گاباری 4.7",IF(G463=2,"گاباری 4.6",IF(G463=3,"گاباری 4.9",IF(G463=4,"گاباری 5.2",IF(G463=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F463" s="49" t="str">
-        <f>C463&amp;D463</f>
+        <f t="shared" si="15"/>
         <v>سهلانصوفیان</v>
       </c>
       <c r="G463" s="49">
@@ -67136,11 +67135,11 @@
         <v>339</v>
       </c>
       <c r="E464" s="49" t="str">
-        <f>IF(G464=0,"نا مشخص",IF(G464=1,"گاباری 4.7",IF(G464=2,"گاباری 4.6",IF(G464=3,"گاباری 4.9",IF(G464=4,"گاباری 5.2",IF(G464=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F464" s="49" t="str">
-        <f>C464&amp;D464</f>
+        <f t="shared" si="15"/>
         <v>صوفیانپیام</v>
       </c>
       <c r="G464" s="49">
@@ -67158,11 +67157,11 @@
         <v>55</v>
       </c>
       <c r="E465" s="49" t="str">
-        <f>IF(G465=0,"نا مشخص",IF(G465=1,"گاباری 4.7",IF(G465=2,"گاباری 4.6",IF(G465=3,"گاباری 4.9",IF(G465=4,"گاباری 5.2",IF(G465=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F465" s="49" t="str">
-        <f>C465&amp;D465</f>
+        <f t="shared" si="15"/>
         <v>پیاممرند</v>
       </c>
       <c r="G465" s="49">
@@ -67180,11 +67179,11 @@
         <v>56</v>
       </c>
       <c r="E466" s="49" t="str">
-        <f>IF(G466=0,"نا مشخص",IF(G466=1,"گاباری 4.7",IF(G466=2,"گاباری 4.6",IF(G466=3,"گاباری 4.9",IF(G466=4,"گاباری 5.2",IF(G466=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F466" s="49" t="str">
-        <f>C466&amp;D466</f>
+        <f t="shared" si="15"/>
         <v>مرندهرزند</v>
       </c>
       <c r="G466" s="49">
@@ -67202,11 +67201,11 @@
         <v>340</v>
       </c>
       <c r="E467" s="49" t="str">
-        <f>IF(G467=0,"نا مشخص",IF(G467=1,"گاباری 4.7",IF(G467=2,"گاباری 4.6",IF(G467=3,"گاباری 4.9",IF(G467=4,"گاباری 5.2",IF(G467=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F467" s="49" t="str">
-        <f>C467&amp;D467</f>
+        <f t="shared" si="15"/>
         <v>هرزندگرگر (آذربایجان)</v>
       </c>
       <c r="G467" s="49">
@@ -67224,11 +67223,11 @@
         <v>57</v>
       </c>
       <c r="E468" s="49" t="str">
-        <f>IF(G468=0,"نا مشخص",IF(G468=1,"گاباری 4.7",IF(G468=2,"گاباری 4.6",IF(G468=3,"گاباری 4.9",IF(G468=4,"گاباری 5.2",IF(G468=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F468" s="49" t="str">
-        <f>C468&amp;D468</f>
+        <f t="shared" si="15"/>
         <v>گرگر (آذربایجان)جلفا</v>
       </c>
       <c r="G468" s="49">
@@ -67248,11 +67247,11 @@
         <v>341</v>
       </c>
       <c r="E469" s="49" t="str">
-        <f>IF(G469=0,"نا مشخص",IF(G469=1,"گاباری 4.7",IF(G469=2,"گاباری 4.6",IF(G469=3,"گاباری 4.9",IF(G469=4,"گاباری 5.2",IF(G469=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F469" s="49" t="str">
-        <f>C469&amp;D469</f>
+        <f t="shared" si="15"/>
         <v>صوفیاندیزج خلیل</v>
       </c>
       <c r="G469" s="49">
@@ -67270,11 +67269,11 @@
         <v>58</v>
       </c>
       <c r="E470" s="49" t="str">
-        <f>IF(G470=0,"نا مشخص",IF(G470=1,"گاباری 4.7",IF(G470=2,"گاباری 4.6",IF(G470=3,"گاباری 4.9",IF(G470=4,"گاباری 5.2",IF(G470=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F470" s="49" t="str">
-        <f>C470&amp;D470</f>
+        <f t="shared" si="15"/>
         <v>دیزج خلیلشرفخانه</v>
       </c>
       <c r="G470" s="49">
@@ -67292,11 +67291,11 @@
         <v>342</v>
       </c>
       <c r="E471" s="49" t="str">
-        <f>IF(G471=0,"نا مشخص",IF(G471=1,"گاباری 4.7",IF(G471=2,"گاباری 4.6",IF(G471=3,"گاباری 4.9",IF(G471=4,"گاباری 5.2",IF(G471=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F471" s="49" t="str">
-        <f>C471&amp;D471</f>
+        <f t="shared" si="15"/>
         <v>شرفخانهچشمه کنان</v>
       </c>
       <c r="G471" s="49">
@@ -67314,11 +67313,11 @@
         <v>59</v>
       </c>
       <c r="E472" s="49" t="str">
-        <f>IF(G472=0,"نا مشخص",IF(G472=1,"گاباری 4.7",IF(G472=2,"گاباری 4.6",IF(G472=3,"گاباری 4.9",IF(G472=4,"گاباری 5.2",IF(G472=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F472" s="49" t="str">
-        <f>C472&amp;D472</f>
+        <f t="shared" si="15"/>
         <v>چشمه کنانسلماس</v>
       </c>
       <c r="G472" s="49">
@@ -67336,11 +67335,11 @@
         <v>343</v>
       </c>
       <c r="E473" s="49" t="str">
-        <f>IF(G473=0,"نا مشخص",IF(G473=1,"گاباری 4.7",IF(G473=2,"گاباری 4.6",IF(G473=3,"گاباری 4.9",IF(G473=4,"گاباری 5.2",IF(G473=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F473" s="49" t="str">
-        <f>C473&amp;D473</f>
+        <f t="shared" si="15"/>
         <v>سلماسبابکان</v>
       </c>
       <c r="G473" s="49">
@@ -67358,11 +67357,11 @@
         <v>344</v>
       </c>
       <c r="E474" s="49" t="str">
-        <f>IF(G474=0,"نا مشخص",IF(G474=1,"گاباری 4.7",IF(G474=2,"گاباری 4.6",IF(G474=3,"گاباری 4.9",IF(G474=4,"گاباری 5.2",IF(G474=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F474" s="49" t="str">
-        <f>C474&amp;D474</f>
+        <f t="shared" si="15"/>
         <v>بابکانمیلادی</v>
       </c>
       <c r="G474" s="49">
@@ -67380,11 +67379,11 @@
         <v>243</v>
       </c>
       <c r="E475" s="49" t="str">
-        <f>IF(G475=0,"نا مشخص",IF(G475=1,"گاباری 4.7",IF(G475=2,"گاباری 4.6",IF(G475=3,"گاباری 4.9",IF(G475=4,"گاباری 5.2",IF(G475=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F475" s="49" t="str">
-        <f>C475&amp;D475</f>
+        <f t="shared" si="15"/>
         <v>میلادیرازی</v>
       </c>
       <c r="G475" s="49">
@@ -67402,11 +67401,11 @@
         <v>436</v>
       </c>
       <c r="E476" s="49" t="str">
-        <f>IF(G476=0,"نا مشخص",IF(G476=1,"گاباری 4.7",IF(G476=2,"گاباری 4.6",IF(G476=3,"گاباری 4.9",IF(G476=4,"گاباری 5.2",IF(G476=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F476" s="49" t="str">
-        <f>C476&amp;D476</f>
+        <f t="shared" si="15"/>
         <v>رازیکاپی کوی</v>
       </c>
       <c r="G476" s="49">
@@ -67428,11 +67427,11 @@
         <v>261</v>
       </c>
       <c r="E477" s="49" t="str">
-        <f>IF(G477=0,"نا مشخص",IF(G477=1,"گاباری 4.7",IF(G477=2,"گاباری 4.6",IF(G477=3,"گاباری 4.9",IF(G477=4,"گاباری 5.2",IF(G477=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F477" s="49" t="str">
-        <f>C477&amp;D477</f>
+        <f t="shared" si="15"/>
         <v>گرمساربنکوه</v>
       </c>
       <c r="G477" s="49">
@@ -67450,11 +67449,11 @@
         <v>262</v>
       </c>
       <c r="E478" s="49" t="str">
-        <f>IF(G478=0,"نا مشخص",IF(G478=1,"گاباری 4.7",IF(G478=2,"گاباری 4.6",IF(G478=3,"گاباری 4.9",IF(G478=4,"گاباری 5.2",IF(G478=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F478" s="49" t="str">
-        <f>C478&amp;D478</f>
+        <f t="shared" si="15"/>
         <v>بنکوهکبوتر دره</v>
       </c>
       <c r="G478" s="49">
@@ -67472,11 +67471,11 @@
         <v>263</v>
       </c>
       <c r="E479" s="49" t="str">
-        <f>IF(G479=0,"نا مشخص",IF(G479=1,"گاباری 4.7",IF(G479=2,"گاباری 4.6",IF(G479=3,"گاباری 4.9",IF(G479=4,"گاباری 5.2",IF(G479=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F479" s="49" t="str">
-        <f>C479&amp;D479</f>
+        <f t="shared" si="15"/>
         <v>کبوتر درهسیمین دشت</v>
       </c>
       <c r="G479" s="49">
@@ -67494,11 +67493,11 @@
         <v>264</v>
       </c>
       <c r="E480" s="49" t="str">
-        <f>IF(G480=0,"نا مشخص",IF(G480=1,"گاباری 4.7",IF(G480=2,"گاباری 4.6",IF(G480=3,"گاباری 4.9",IF(G480=4,"گاباری 5.2",IF(G480=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F480" s="49" t="str">
-        <f>C480&amp;D480</f>
+        <f t="shared" si="15"/>
         <v>سیمین دشتزرین دشت</v>
       </c>
       <c r="G480" s="49">
@@ -67516,11 +67515,11 @@
         <v>556</v>
       </c>
       <c r="E481" s="49" t="str">
-        <f>IF(G481=0,"نا مشخص",IF(G481=1,"گاباری 4.7",IF(G481=2,"گاباری 4.6",IF(G481=3,"گاباری 4.9",IF(G481=4,"گاباری 5.2",IF(G481=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F481" s="49" t="str">
-        <f>C481&amp;D481</f>
+        <f t="shared" si="15"/>
         <v>زرین دشتمهاباد شمال</v>
       </c>
       <c r="G481" s="49">
@@ -67538,11 +67537,11 @@
         <v>265</v>
       </c>
       <c r="E482" s="49" t="str">
-        <f>IF(G482=0,"نا مشخص",IF(G482=1,"گاباری 4.7",IF(G482=2,"گاباری 4.6",IF(G482=3,"گاباری 4.9",IF(G482=4,"گاباری 5.2",IF(G482=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F482" s="49" t="str">
-        <f>C482&amp;D482</f>
+        <f t="shared" si="15"/>
         <v>مهاباد شمالفیروزکوه</v>
       </c>
       <c r="G482" s="49">
@@ -67562,11 +67561,11 @@
         <v>266</v>
       </c>
       <c r="E483" s="49" t="str">
-        <f>IF(G483=0,"نا مشخص",IF(G483=1,"گاباری 4.7",IF(G483=2,"گاباری 4.6",IF(G483=3,"گاباری 4.9",IF(G483=4,"گاباری 5.2",IF(G483=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F483" s="49" t="str">
-        <f>C483&amp;D483</f>
+        <f t="shared" si="15"/>
         <v>فیروزکوهکدوک</v>
       </c>
       <c r="G483" s="49">
@@ -67584,11 +67583,11 @@
         <v>8</v>
       </c>
       <c r="E484" s="49" t="str">
-        <f>IF(G484=0,"نا مشخص",IF(G484=1,"گاباری 4.7",IF(G484=2,"گاباری 4.6",IF(G484=3,"گاباری 4.9",IF(G484=4,"گاباری 5.2",IF(G484=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F484" s="49" t="str">
-        <f>C484&amp;D484</f>
+        <f t="shared" si="15"/>
         <v>کدوکدوگل</v>
       </c>
       <c r="G484" s="49">
@@ -67606,11 +67605,11 @@
         <v>267</v>
       </c>
       <c r="E485" s="49" t="str">
-        <f>IF(G485=0,"نا مشخص",IF(G485=1,"گاباری 4.7",IF(G485=2,"گاباری 4.6",IF(G485=3,"گاباری 4.9",IF(G485=4,"گاباری 5.2",IF(G485=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F485" s="49" t="str">
-        <f>C485&amp;D485</f>
+        <f t="shared" si="15"/>
         <v>دوگلورسک</v>
       </c>
       <c r="G485" s="49">
@@ -67628,11 +67627,11 @@
         <v>7</v>
       </c>
       <c r="E486" s="49" t="str">
-        <f>IF(G486=0,"نا مشخص",IF(G486=1,"گاباری 4.7",IF(G486=2,"گاباری 4.6",IF(G486=3,"گاباری 4.9",IF(G486=4,"گاباری 5.2",IF(G486=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F486" s="49" t="str">
-        <f>C486&amp;D486</f>
+        <f t="shared" si="15"/>
         <v>ورسکسرخ آباد</v>
       </c>
       <c r="G486" s="49">
@@ -67650,11 +67649,11 @@
         <v>268</v>
       </c>
       <c r="E487" s="49" t="str">
-        <f>IF(G487=0,"نا مشخص",IF(G487=1,"گاباری 4.7",IF(G487=2,"گاباری 4.6",IF(G487=3,"گاباری 4.9",IF(G487=4,"گاباری 5.2",IF(G487=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F487" s="49" t="str">
-        <f>C487&amp;D487</f>
+        <f t="shared" si="15"/>
         <v>سرخ آبادسواد کوه</v>
       </c>
       <c r="G487" s="49">
@@ -67672,11 +67671,11 @@
         <v>234</v>
       </c>
       <c r="E488" s="49" t="str">
-        <f>IF(G488=0,"نا مشخص",IF(G488=1,"گاباری 4.7",IF(G488=2,"گاباری 4.6",IF(G488=3,"گاباری 4.9",IF(G488=4,"گاباری 5.2",IF(G488=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F488" s="49" t="str">
-        <f>C488&amp;D488</f>
+        <f t="shared" si="15"/>
         <v>سواد کوهپل سفید</v>
       </c>
       <c r="G488" s="49">
@@ -67696,11 +67695,11 @@
         <v>269</v>
       </c>
       <c r="E489" s="49" t="str">
-        <f>IF(G489=0,"نا مشخص",IF(G489=1,"گاباری 4.7",IF(G489=2,"گاباری 4.6",IF(G489=3,"گاباری 4.9",IF(G489=4,"گاباری 5.2",IF(G489=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F489" s="49" t="str">
-        <f>C489&amp;D489</f>
+        <f t="shared" si="15"/>
         <v>پل سفیدزیرآب</v>
       </c>
       <c r="G489" s="49">
@@ -67718,11 +67717,11 @@
         <v>270</v>
       </c>
       <c r="E490" s="49" t="str">
-        <f>IF(G490=0,"نا مشخص",IF(G490=1,"گاباری 4.7",IF(G490=2,"گاباری 4.6",IF(G490=3,"گاباری 4.9",IF(G490=4,"گاباری 5.2",IF(G490=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F490" s="49" t="str">
-        <f>C490&amp;D490</f>
+        <f t="shared" si="15"/>
         <v>زیرآبشیرگاه</v>
       </c>
       <c r="G490" s="49">
@@ -67740,11 +67739,11 @@
         <v>271</v>
       </c>
       <c r="E491" s="49" t="str">
-        <f>IF(G491=0,"نا مشخص",IF(G491=1,"گاباری 4.7",IF(G491=2,"گاباری 4.6",IF(G491=3,"گاباری 4.9",IF(G491=4,"گاباری 5.2",IF(G491=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F491" s="49" t="str">
-        <f>C491&amp;D491</f>
+        <f t="shared" si="15"/>
         <v>شیرگاهقائم شهر</v>
       </c>
       <c r="G491" s="49">
@@ -67764,11 +67763,11 @@
         <v>272</v>
       </c>
       <c r="E492" s="49" t="str">
-        <f>IF(G492=0,"نا مشخص",IF(G492=1,"گاباری 4.7",IF(G492=2,"گاباری 4.6",IF(G492=3,"گاباری 4.9",IF(G492=4,"گاباری 5.2",IF(G492=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F492" s="49" t="str">
-        <f>C492&amp;D492</f>
+        <f t="shared" si="15"/>
         <v>قائم شهرگونی بافی</v>
       </c>
       <c r="G492" s="49">
@@ -67786,11 +67785,11 @@
         <v>273</v>
       </c>
       <c r="E493" s="49" t="str">
-        <f>IF(G493=0,"نا مشخص",IF(G493=1,"گاباری 4.7",IF(G493=2,"گاباری 4.6",IF(G493=3,"گاباری 4.9",IF(G493=4,"گاباری 5.2",IF(G493=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F493" s="49" t="str">
-        <f>C493&amp;D493</f>
+        <f t="shared" si="15"/>
         <v>گونی بافیساری</v>
       </c>
       <c r="G493" s="49">
@@ -67810,11 +67809,11 @@
         <v>274</v>
       </c>
       <c r="E494" s="49" t="str">
-        <f>IF(G494=0,"نا مشخص",IF(G494=1,"گاباری 4.7",IF(G494=2,"گاباری 4.6",IF(G494=3,"گاباری 4.9",IF(G494=4,"گاباری 5.2",IF(G494=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 4.6</v>
       </c>
       <c r="F494" s="49" t="str">
-        <f>C494&amp;D494</f>
+        <f t="shared" si="15"/>
         <v>ساریشهید نوبخت</v>
       </c>
       <c r="G494" s="49">
@@ -67832,11 +67831,11 @@
         <v>213</v>
       </c>
       <c r="E495" s="49" t="str">
-        <f>IF(G495=0,"نا مشخص",IF(G495=1,"گاباری 4.7",IF(G495=2,"گاباری 4.6",IF(G495=3,"گاباری 4.9",IF(G495=4,"گاباری 5.2",IF(G495=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F495" s="49" t="str">
-        <f>C495&amp;D495</f>
+        <f t="shared" si="15"/>
         <v>شهید نوبختنکا</v>
       </c>
       <c r="G495" s="49">
@@ -67854,11 +67853,11 @@
         <v>260</v>
       </c>
       <c r="E496" s="49" t="str">
-        <f>IF(G496=0,"نا مشخص",IF(G496=1,"گاباری 4.7",IF(G496=2,"گاباری 4.6",IF(G496=3,"گاباری 4.9",IF(G496=4,"گاباری 5.2",IF(G496=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F496" s="49" t="str">
-        <f>C496&amp;D496</f>
+        <f t="shared" si="15"/>
         <v>نکارستم کلا</v>
       </c>
       <c r="G496" s="49">
@@ -67876,11 +67875,11 @@
         <v>6</v>
       </c>
       <c r="E497" s="49" t="str">
-        <f>IF(G497=0,"نا مشخص",IF(G497=1,"گاباری 4.7",IF(G497=2,"گاباری 4.6",IF(G497=3,"گاباری 4.9",IF(G497=4,"گاباری 5.2",IF(G497=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F497" s="49" t="str">
-        <f>C497&amp;D497</f>
+        <f t="shared" si="15"/>
         <v>رستم کلابهشهر</v>
       </c>
       <c r="G497" s="49">
@@ -67900,11 +67899,11 @@
         <v>256</v>
       </c>
       <c r="E498" s="49" t="str">
-        <f>IF(G498=0,"نا مشخص",IF(G498=1,"گاباری 4.7",IF(G498=2,"گاباری 4.6",IF(G498=3,"گاباری 4.9",IF(G498=4,"گاباری 5.2",IF(G498=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F498" s="49" t="str">
-        <f>C498&amp;D498</f>
+        <f t="shared" si="15"/>
         <v>رستم کلابندرامیرآباد</v>
       </c>
       <c r="G498" s="49">
@@ -67924,11 +67923,11 @@
         <v>275</v>
       </c>
       <c r="E499" s="49" t="str">
-        <f>IF(G499=0,"نا مشخص",IF(G499=1,"گاباری 4.7",IF(G499=2,"گاباری 4.6",IF(G499=3,"گاباری 4.9",IF(G499=4,"گاباری 5.2",IF(G499=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F499" s="49" t="str">
-        <f>C499&amp;D499</f>
+        <f t="shared" si="15"/>
         <v>بهشهرتیرتاش</v>
       </c>
       <c r="G499" s="49">
@@ -67946,11 +67945,11 @@
         <v>5</v>
       </c>
       <c r="E500" s="49" t="str">
-        <f>IF(G500=0,"نا مشخص",IF(G500=1,"گاباری 4.7",IF(G500=2,"گاباری 4.6",IF(G500=3,"گاباری 4.9",IF(G500=4,"گاباری 5.2",IF(G500=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F500" s="49" t="str">
-        <f>C500&amp;D500</f>
+        <f t="shared" si="15"/>
         <v>تیرتاشگلوگاه</v>
       </c>
       <c r="G500" s="49">
@@ -67970,11 +67969,11 @@
         <v>187</v>
       </c>
       <c r="E501" s="49" t="str">
-        <f>IF(G501=0,"نا مشخص",IF(G501=1,"گاباری 4.7",IF(G501=2,"گاباری 4.6",IF(G501=3,"گاباری 4.9",IF(G501=4,"گاباری 5.2",IF(G501=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F501" s="49" t="str">
-        <f>C501&amp;D501</f>
+        <f t="shared" si="15"/>
         <v>گلوگاهبندرگز</v>
       </c>
       <c r="G501" s="49">
@@ -67992,11 +67991,11 @@
         <v>186</v>
       </c>
       <c r="E502" s="49" t="str">
-        <f>IF(G502=0,"نا مشخص",IF(G502=1,"گاباری 4.7",IF(G502=2,"گاباری 4.6",IF(G502=3,"گاباری 4.9",IF(G502=4,"گاباری 5.2",IF(G502=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F502" s="49" t="str">
-        <f>C502&amp;D502</f>
+        <f t="shared" si="15"/>
         <v>بندرگزبندرترکمن</v>
       </c>
       <c r="G502" s="49">
@@ -68014,11 +68013,11 @@
         <v>185</v>
       </c>
       <c r="E503" s="49" t="str">
-        <f>IF(G503=0,"نا مشخص",IF(G503=1,"گاباری 4.7",IF(G503=2,"گاباری 4.6",IF(G503=3,"گاباری 4.9",IF(G503=4,"گاباری 5.2",IF(G503=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F503" s="49" t="str">
-        <f>C503&amp;D503</f>
+        <f t="shared" si="15"/>
         <v>بندرترکمنسبزدشت</v>
       </c>
       <c r="G503" s="49">
@@ -68036,11 +68035,11 @@
         <v>184</v>
       </c>
       <c r="E504" s="49" t="str">
-        <f>IF(G504=0,"نا مشخص",IF(G504=1,"گاباری 4.7",IF(G504=2,"گاباری 4.6",IF(G504=3,"گاباری 4.9",IF(G504=4,"گاباری 5.2",IF(G504=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F504" s="49" t="str">
-        <f>C504&amp;D504</f>
+        <f t="shared" si="15"/>
         <v>سبزدشتگرگان</v>
       </c>
       <c r="G504" s="49">
@@ -68060,11 +68059,11 @@
         <v>312</v>
       </c>
       <c r="E505" s="49" t="str">
-        <f>IF(G505=0,"نا مشخص",IF(G505=1,"گاباری 4.7",IF(G505=2,"گاباری 4.6",IF(G505=3,"گاباری 4.9",IF(G505=4,"گاباری 5.2",IF(G505=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F505" s="49" t="str">
-        <f>C505&amp;D505</f>
+        <f t="shared" si="15"/>
         <v>سبزدشتیامپی</v>
       </c>
       <c r="G505" s="49">
@@ -68082,11 +68081,11 @@
         <v>313</v>
       </c>
       <c r="E506" s="49" t="str">
-        <f>IF(G506=0,"نا مشخص",IF(G506=1,"گاباری 4.7",IF(G506=2,"گاباری 4.6",IF(G506=3,"گاباری 4.9",IF(G506=4,"گاباری 5.2",IF(G506=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F506" s="49" t="str">
-        <f>C506&amp;D506</f>
+        <f t="shared" si="15"/>
         <v>یامپیپتروشیمی</v>
       </c>
       <c r="G506" s="49">
@@ -68104,11 +68103,11 @@
         <v>245</v>
       </c>
       <c r="E507" s="49" t="str">
-        <f>IF(G507=0,"نا مشخص",IF(G507=1,"گاباری 4.7",IF(G507=2,"گاباری 4.6",IF(G507=3,"گاباری 4.9",IF(G507=4,"گاباری 5.2",IF(G507=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F507" s="49" t="str">
-        <f>C507&amp;D507</f>
+        <f t="shared" si="15"/>
         <v>پتروشیمیاینچه برون</v>
       </c>
       <c r="G507" s="49">
@@ -68126,11 +68125,11 @@
         <v>434</v>
       </c>
       <c r="E508" s="49" t="str">
-        <f>IF(G508=0,"نا مشخص",IF(G508=1,"گاباری 4.7",IF(G508=2,"گاباری 4.6",IF(G508=3,"گاباری 4.9",IF(G508=4,"گاباری 5.2",IF(G508=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.2</v>
       </c>
       <c r="F508" s="49" t="str">
-        <f>C508&amp;D508</f>
+        <f t="shared" si="15"/>
         <v>اینچه برونآق یلا ترکمنستان</v>
       </c>
       <c r="G508" s="49">
@@ -68152,11 +68151,11 @@
         <v>429</v>
       </c>
       <c r="E509" s="49" t="str">
-        <f>IF(G509=0,"نا مشخص",IF(G509=1,"گاباری 4.7",IF(G509=2,"گاباری 4.6",IF(G509=3,"گاباری 4.9",IF(G509=4,"گاباری 5.2",IF(G509=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F509" s="49" t="str">
-        <f>C509&amp;D509</f>
+        <f t="shared" si="15"/>
         <v>صید آبادمهیار</v>
       </c>
       <c r="G509" s="49">
@@ -68174,11 +68173,11 @@
         <v>159</v>
       </c>
       <c r="E510" s="49" t="str">
-        <f>IF(G510=0,"نا مشخص",IF(G510=1,"گاباری 4.7",IF(G510=2,"گاباری 4.6",IF(G510=3,"گاباری 4.9",IF(G510=4,"گاباری 5.2",IF(G510=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F510" s="49" t="str">
-        <f>C510&amp;D510</f>
+        <f t="shared" si="15"/>
         <v>مهیارشهررضا</v>
       </c>
       <c r="G510" s="49">
@@ -68196,11 +68195,11 @@
         <v>552</v>
       </c>
       <c r="E511" s="49" t="str">
-        <f>IF(G511=0,"نا مشخص",IF(G511=1,"گاباری 4.7",IF(G511=2,"گاباری 4.6",IF(G511=3,"گاباری 4.9",IF(G511=4,"گاباری 5.2",IF(G511=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F511" s="49" t="str">
-        <f>C511&amp;D511</f>
+        <f t="shared" si="15"/>
         <v>شهررضاامین آباد</v>
       </c>
       <c r="G511" s="49">
@@ -68218,11 +68217,11 @@
         <v>1878</v>
       </c>
       <c r="E512" s="49" t="str">
-        <f>IF(G512=0,"نا مشخص",IF(G512=1,"گاباری 4.7",IF(G512=2,"گاباری 4.6",IF(G512=3,"گاباری 4.9",IF(G512=4,"گاباری 5.2",IF(G512=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F512" s="49" t="str">
-        <f>C512&amp;D512</f>
+        <f t="shared" si="15"/>
         <v>امین آبادشورجستان</v>
       </c>
       <c r="G512" s="49">
@@ -68240,11 +68239,11 @@
         <v>160</v>
       </c>
       <c r="E513" s="49" t="str">
-        <f>IF(G513=0,"نا مشخص",IF(G513=1,"گاباری 4.7",IF(G513=2,"گاباری 4.6",IF(G513=3,"گاباری 4.9",IF(G513=4,"گاباری 5.2",IF(G513=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="14"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F513" s="49" t="str">
-        <f>C513&amp;D513</f>
+        <f t="shared" si="15"/>
         <v>شورجستانآباده</v>
       </c>
       <c r="G513" s="49">
@@ -68264,11 +68263,11 @@
         <v>431</v>
       </c>
       <c r="E514" s="49" t="str">
-        <f>IF(G514=0,"نا مشخص",IF(G514=1,"گاباری 4.7",IF(G514=2,"گاباری 4.6",IF(G514=3,"گاباری 4.9",IF(G514=4,"گاباری 5.2",IF(G514=5,"گاباری 5.4"))))))</f>
+        <f t="shared" ref="E514:E560" si="16">IF(G514=0,"نا مشخص",IF(G514=1,"گاباری 4.7",IF(G514=2,"گاباری 4.6",IF(G514=3,"گاباری 4.9",IF(G514=4,"گاباری 5.2",IF(G514=5,"گاباری 5.4"))))))</f>
         <v>گاباری 5.4</v>
       </c>
       <c r="F514" s="49" t="str">
-        <f>C514&amp;D514</f>
+        <f t="shared" ref="F514:F560" si="17">C514&amp;D514</f>
         <v>آبادهاقلید</v>
       </c>
       <c r="G514" s="49">
@@ -68286,11 +68285,11 @@
         <v>164</v>
       </c>
       <c r="E515" s="49" t="str">
-        <f>IF(G515=0,"نا مشخص",IF(G515=1,"گاباری 4.7",IF(G515=2,"گاباری 4.6",IF(G515=3,"گاباری 4.9",IF(G515=4,"گاباری 5.2",IF(G515=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F515" s="49" t="str">
-        <f>C515&amp;D515</f>
+        <f t="shared" si="17"/>
         <v>اقلیدخانخوره</v>
       </c>
       <c r="G515" s="49">
@@ -68308,11 +68307,11 @@
         <v>553</v>
       </c>
       <c r="E516" s="49" t="str">
-        <f>IF(G516=0,"نا مشخص",IF(G516=1,"گاباری 4.7",IF(G516=2,"گاباری 4.6",IF(G516=3,"گاباری 4.9",IF(G516=4,"گاباری 5.2",IF(G516=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F516" s="49" t="str">
-        <f>C516&amp;D516</f>
+        <f t="shared" si="17"/>
         <v>خانخورهخرم بید</v>
       </c>
       <c r="G516" s="49">
@@ -68330,11 +68329,11 @@
         <v>161</v>
       </c>
       <c r="E517" s="49" t="str">
-        <f>IF(G517=0,"نا مشخص",IF(G517=1,"گاباری 4.7",IF(G517=2,"گاباری 4.6",IF(G517=3,"گاباری 4.9",IF(G517=4,"گاباری 5.2",IF(G517=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F517" s="49" t="str">
-        <f>C517&amp;D517</f>
+        <f t="shared" si="17"/>
         <v>خرم بیدصفاشهر</v>
       </c>
       <c r="G517" s="49">
@@ -68352,11 +68351,11 @@
         <v>165</v>
       </c>
       <c r="E518" s="49" t="str">
-        <f>IF(G518=0,"نا مشخص",IF(G518=1,"گاباری 4.7",IF(G518=2,"گاباری 4.6",IF(G518=3,"گاباری 4.9",IF(G518=4,"گاباری 5.2",IF(G518=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F518" s="49" t="str">
-        <f>C518&amp;D518</f>
+        <f t="shared" si="17"/>
         <v>صفاشهرقادرآباد</v>
       </c>
       <c r="G518" s="49">
@@ -68374,11 +68373,11 @@
         <v>162</v>
       </c>
       <c r="E519" s="49" t="str">
-        <f>IF(G519=0,"نا مشخص",IF(G519=1,"گاباری 4.7",IF(G519=2,"گاباری 4.6",IF(G519=3,"گاباری 4.9",IF(G519=4,"گاباری 5.2",IF(G519=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F519" s="49" t="str">
-        <f>C519&amp;D519</f>
+        <f t="shared" si="17"/>
         <v>قادرآبادسعادت شهر</v>
       </c>
       <c r="G519" s="49">
@@ -68396,11 +68395,11 @@
         <v>238</v>
       </c>
       <c r="E520" s="49" t="str">
-        <f>IF(G520=0,"نا مشخص",IF(G520=1,"گاباری 4.7",IF(G520=2,"گاباری 4.6",IF(G520=3,"گاباری 4.9",IF(G520=4,"گاباری 5.2",IF(G520=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F520" s="49" t="str">
-        <f>C520&amp;D520</f>
+        <f t="shared" si="17"/>
         <v>سعادت شهرسیوند</v>
       </c>
       <c r="G520" s="49">
@@ -68418,11 +68417,11 @@
         <v>163</v>
       </c>
       <c r="E521" s="49" t="str">
-        <f>IF(G521=0,"نا مشخص",IF(G521=1,"گاباری 4.7",IF(G521=2,"گاباری 4.6",IF(G521=3,"گاباری 4.9",IF(G521=4,"گاباری 5.2",IF(G521=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F521" s="49" t="str">
-        <f>C521&amp;D521</f>
+        <f t="shared" si="17"/>
         <v>سیوندمرودشت</v>
       </c>
       <c r="G521" s="49">
@@ -68440,11 +68439,11 @@
         <v>221</v>
       </c>
       <c r="E522" s="49" t="str">
-        <f>IF(G522=0,"نا مشخص",IF(G522=1,"گاباری 4.7",IF(G522=2,"گاباری 4.6",IF(G522=3,"گاباری 4.9",IF(G522=4,"گاباری 5.2",IF(G522=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F522" s="49" t="str">
-        <f>C522&amp;D522</f>
+        <f t="shared" si="17"/>
         <v>مرودشتشیراز</v>
       </c>
       <c r="G522" s="49">
@@ -68466,11 +68465,11 @@
         <v>51</v>
       </c>
       <c r="E523" s="49" t="str">
-        <f>IF(G523=0,"نا مشخص",IF(G523=1,"گاباری 4.7",IF(G523=2,"گاباری 4.6",IF(G523=3,"گاباری 4.9",IF(G523=4,"گاباری 5.2",IF(G523=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F523" s="50" t="str">
-        <f>C523&amp;D523</f>
+        <f t="shared" si="17"/>
         <v>مراغهملکان</v>
       </c>
       <c r="G523" s="49">
@@ -68488,11 +68487,11 @@
         <v>330</v>
       </c>
       <c r="E524" s="49" t="str">
-        <f>IF(G524=0,"نا مشخص",IF(G524=1,"گاباری 4.7",IF(G524=2,"گاباری 4.6",IF(G524=3,"گاباری 4.9",IF(G524=4,"گاباری 5.2",IF(G524=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F524" s="50" t="str">
-        <f>C524&amp;D524</f>
+        <f t="shared" si="17"/>
         <v>ملکانمیاندوآب</v>
       </c>
       <c r="G524" s="49">
@@ -68510,11 +68509,11 @@
         <v>52</v>
       </c>
       <c r="E525" s="49" t="str">
-        <f>IF(G525=0,"نا مشخص",IF(G525=1,"گاباری 4.7",IF(G525=2,"گاباری 4.6",IF(G525=3,"گاباری 4.9",IF(G525=4,"گاباری 5.2",IF(G525=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F525" s="50" t="str">
-        <f>C525&amp;D525</f>
+        <f t="shared" si="17"/>
         <v>میاندوآبقزقلعه</v>
       </c>
       <c r="G525" s="49">
@@ -68532,11 +68531,11 @@
         <v>331</v>
       </c>
       <c r="E526" s="49" t="str">
-        <f>IF(G526=0,"نا مشخص",IF(G526=1,"گاباری 4.7",IF(G526=2,"گاباری 4.6",IF(G526=3,"گاباری 4.9",IF(G526=4,"گاباری 5.2",IF(G526=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F526" s="50" t="str">
-        <f>C526&amp;D526</f>
+        <f t="shared" si="17"/>
         <v>قزقلعهمهاباد (شمالغرب)</v>
       </c>
       <c r="G526" s="49">
@@ -68554,11 +68553,11 @@
         <v>208</v>
       </c>
       <c r="E527" s="49" t="str">
-        <f>IF(G527=0,"نا مشخص",IF(G527=1,"گاباری 4.7",IF(G527=2,"گاباری 4.6",IF(G527=3,"گاباری 4.9",IF(G527=4,"گاباری 5.2",IF(G527=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F527" s="50" t="str">
-        <f>C527&amp;D527</f>
+        <f t="shared" si="17"/>
         <v>مهاباد (شمالغرب)نقده</v>
       </c>
       <c r="G527" s="49">
@@ -68576,11 +68575,11 @@
         <v>928</v>
       </c>
       <c r="E528" s="49" t="str">
-        <f>IF(G528=0,"نا مشخص",IF(G528=1,"گاباری 4.7",IF(G528=2,"گاباری 4.6",IF(G528=3,"گاباری 4.9",IF(G528=4,"گاباری 5.2",IF(G528=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F528" s="50" t="str">
-        <f>C528&amp;D528</f>
+        <f t="shared" si="17"/>
         <v>نقدهشیرین بلاغ</v>
       </c>
       <c r="G528" s="49">
@@ -68598,11 +68597,11 @@
         <v>932</v>
       </c>
       <c r="E529" s="49" t="str">
-        <f>IF(G529=0,"نا مشخص",IF(G529=1,"گاباری 4.7",IF(G529=2,"گاباری 4.6",IF(G529=3,"گاباری 4.9",IF(G529=4,"گاباری 5.2",IF(G529=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F529" s="50" t="str">
-        <f>C529&amp;D529</f>
+        <f t="shared" si="17"/>
         <v>شیرین بلاغرشکان</v>
       </c>
       <c r="G529" s="49">
@@ -68620,11 +68619,11 @@
         <v>443</v>
       </c>
       <c r="E530" s="49" t="str">
-        <f>IF(G530=0,"نا مشخص",IF(G530=1,"گاباری 4.7",IF(G530=2,"گاباری 4.6",IF(G530=3,"گاباری 4.9",IF(G530=4,"گاباری 5.2",IF(G530=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 4.9</v>
       </c>
       <c r="F530" s="50" t="str">
-        <f>C530&amp;D530</f>
+        <f t="shared" si="17"/>
         <v>رشکانارومیه</v>
       </c>
       <c r="G530" s="49">
@@ -68646,11 +68645,11 @@
         <v>24</v>
       </c>
       <c r="E531" s="49" t="str">
-        <f>IF(G531=0,"نا مشخص",IF(G531=1,"گاباری 4.7",IF(G531=2,"گاباری 4.6",IF(G531=3,"گاباری 4.9",IF(G531=4,"گاباری 5.2",IF(G531=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F531" s="50" t="str">
-        <f>C531&amp;D531</f>
+        <f t="shared" si="17"/>
         <v>سمنگانحک</v>
       </c>
       <c r="G531" s="49">
@@ -68668,11 +68667,11 @@
         <v>286</v>
       </c>
       <c r="E532" s="49" t="str">
-        <f>IF(G532=0,"نا مشخص",IF(G532=1,"گاباری 4.7",IF(G532=2,"گاباری 4.6",IF(G532=3,"گاباری 4.9",IF(G532=4,"گاباری 5.2",IF(G532=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F532" s="50" t="str">
-        <f>C532&amp;D532</f>
+        <f t="shared" si="17"/>
         <v>حکجلایر</v>
       </c>
       <c r="G532" s="49">
@@ -68690,11 +68689,11 @@
         <v>25</v>
       </c>
       <c r="E533" s="49" t="str">
-        <f>IF(G533=0,"نا مشخص",IF(G533=1,"گاباری 4.7",IF(G533=2,"گاباری 4.6",IF(G533=3,"گاباری 4.9",IF(G533=4,"گاباری 5.2",IF(G533=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F533" s="50" t="str">
-        <f>C533&amp;D533</f>
+        <f t="shared" si="17"/>
         <v>جلایرزنگنه</v>
       </c>
       <c r="G533" s="49">
@@ -68712,11 +68711,11 @@
         <v>231</v>
       </c>
       <c r="E534" s="49" t="str">
-        <f>IF(G534=0,"نا مشخص",IF(G534=1,"گاباری 4.7",IF(G534=2,"گاباری 4.6",IF(G534=3,"گاباری 4.9",IF(G534=4,"گاباری 5.2",IF(G534=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F534" s="50" t="str">
-        <f>C534&amp;D534</f>
+        <f t="shared" si="17"/>
         <v>زنگنهملایر</v>
       </c>
       <c r="G534" s="49">
@@ -68734,11 +68733,11 @@
         <v>2167</v>
       </c>
       <c r="E535" s="49" t="str">
-        <f>IF(G535=0,"نا مشخص",IF(G535=1,"گاباری 4.7",IF(G535=2,"گاباری 4.6",IF(G535=3,"گاباری 4.9",IF(G535=4,"گاباری 5.2",IF(G535=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F535" s="50" t="str">
-        <f>C535&amp;D535</f>
+        <f t="shared" si="17"/>
         <v>ملایرکهریز</v>
       </c>
       <c r="G535" s="49">
@@ -68756,11 +68755,11 @@
         <v>2175</v>
       </c>
       <c r="E536" s="49" t="str">
-        <f>IF(G536=0,"نا مشخص",IF(G536=1,"گاباری 4.7",IF(G536=2,"گاباری 4.6",IF(G536=3,"گاباری 4.9",IF(G536=4,"گاباری 5.2",IF(G536=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F536" s="50" t="str">
-        <f>C536&amp;D536</f>
+        <f t="shared" si="17"/>
         <v>کهریزشادمانه</v>
       </c>
       <c r="G536" s="49">
@@ -68778,11 +68777,11 @@
         <v>2177</v>
       </c>
       <c r="E537" s="49" t="str">
-        <f>IF(G537=0,"نا مشخص",IF(G537=1,"گاباری 4.7",IF(G537=2,"گاباری 4.6",IF(G537=3,"گاباری 4.9",IF(G537=4,"گاباری 5.2",IF(G537=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F537" s="50" t="str">
-        <f>C537&amp;D537</f>
+        <f t="shared" si="17"/>
         <v>شادمانهفیروزان</v>
       </c>
       <c r="G537" s="49">
@@ -68800,11 +68799,11 @@
         <v>201</v>
       </c>
       <c r="E538" s="49" t="str">
-        <f>IF(G538=0,"نا مشخص",IF(G538=1,"گاباری 4.7",IF(G538=2,"گاباری 4.6",IF(G538=3,"گاباری 4.9",IF(G538=4,"گاباری 5.2",IF(G538=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F538" s="50" t="str">
-        <f>C538&amp;D538</f>
+        <f t="shared" si="17"/>
         <v>فیروزانزاگرس</v>
       </c>
       <c r="G538" s="49">
@@ -68822,11 +68821,11 @@
         <v>2179</v>
       </c>
       <c r="E539" s="49" t="str">
-        <f>IF(G539=0,"نا مشخص",IF(G539=1,"گاباری 4.7",IF(G539=2,"گاباری 4.6",IF(G539=3,"گاباری 4.9",IF(G539=4,"گاباری 5.2",IF(G539=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F539" s="50" t="str">
-        <f>C539&amp;D539</f>
+        <f t="shared" si="17"/>
         <v>زاگرسگاماسیاب</v>
       </c>
       <c r="G539" s="49">
@@ -68844,11 +68843,11 @@
         <v>555</v>
       </c>
       <c r="E540" s="49" t="str">
-        <f>IF(G540=0,"نا مشخص",IF(G540=1,"گاباری 4.7",IF(G540=2,"گاباری 4.6",IF(G540=3,"گاباری 4.9",IF(G540=4,"گاباری 5.2",IF(G540=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F540" s="50" t="str">
-        <f>C540&amp;D540</f>
+        <f t="shared" si="17"/>
         <v>گاماسیاببیستون</v>
       </c>
       <c r="G540" s="49">
@@ -68866,11 +68865,11 @@
         <v>554</v>
       </c>
       <c r="E541" s="49" t="str">
-        <f>IF(G541=0,"نا مشخص",IF(G541=1,"گاباری 4.7",IF(G541=2,"گاباری 4.6",IF(G541=3,"گاباری 4.9",IF(G541=4,"گاباری 5.2",IF(G541=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F541" s="50" t="str">
-        <f>C541&amp;D541</f>
+        <f t="shared" si="17"/>
         <v>بیستونباری کرمانشاه</v>
       </c>
       <c r="G541" s="49">
@@ -68888,11 +68887,11 @@
         <v>468</v>
       </c>
       <c r="E542" s="49" t="str">
-        <f>IF(G542=0,"نا مشخص",IF(G542=1,"گاباری 4.7",IF(G542=2,"گاباری 4.6",IF(G542=3,"گاباری 4.9",IF(G542=4,"گاباری 5.2",IF(G542=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>نا مشخص</v>
       </c>
       <c r="F542" s="50" t="str">
-        <f>C542&amp;D542</f>
+        <f t="shared" si="17"/>
         <v>باری کرمانشاهکرمانشاه</v>
       </c>
       <c r="G542" s="49">
@@ -68914,11 +68913,11 @@
         <v>2675</v>
       </c>
       <c r="E543" s="49" t="str">
-        <f>IF(G543=0,"نا مشخص",IF(G543=1,"گاباری 4.7",IF(G543=2,"گاباری 4.6",IF(G543=3,"گاباری 4.9",IF(G543=4,"گاباری 5.2",IF(G543=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F543" s="49" t="str">
-        <f>C543&amp;D543</f>
+        <f t="shared" si="17"/>
         <v>جدایششهدای پرندک</v>
       </c>
       <c r="G543" s="49">
@@ -68936,11 +68935,11 @@
         <v>2676</v>
       </c>
       <c r="E544" s="49" t="str">
-        <f>IF(G544=0,"نا مشخص",IF(G544=1,"گاباری 4.7",IF(G544=2,"گاباری 4.6",IF(G544=3,"گاباری 4.9",IF(G544=4,"گاباری 5.2",IF(G544=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F544" s="49" t="str">
-        <f>C544&amp;D544</f>
+        <f t="shared" si="17"/>
         <v>شهدای پرندکمامونیه</v>
       </c>
       <c r="G544" s="49">
@@ -68958,11 +68957,11 @@
         <v>190</v>
       </c>
       <c r="E545" s="49" t="str">
-        <f>IF(G545=0,"نا مشخص",IF(G545=1,"گاباری 4.7",IF(G545=2,"گاباری 4.6",IF(G545=3,"گاباری 4.9",IF(G545=4,"گاباری 5.2",IF(G545=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F545" s="49" t="str">
-        <f>C545&amp;D545</f>
+        <f t="shared" si="17"/>
         <v>مامونیهساوه</v>
       </c>
       <c r="G545" s="49">
@@ -68980,11 +68979,11 @@
         <v>456</v>
       </c>
       <c r="E546" s="49" t="str">
-        <f>IF(G546=0,"نا مشخص",IF(G546=1,"گاباری 4.7",IF(G546=2,"گاباری 4.6",IF(G546=3,"گاباری 4.9",IF(G546=4,"گاباری 5.2",IF(G546=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F546" s="49" t="str">
-        <f>C546&amp;D546</f>
+        <f t="shared" si="17"/>
         <v>ساوهرازقین</v>
       </c>
       <c r="G546" s="49">
@@ -69002,11 +69001,11 @@
         <v>191</v>
       </c>
       <c r="E547" s="49" t="str">
-        <f>IF(G547=0,"نا مشخص",IF(G547=1,"گاباری 4.7",IF(G547=2,"گاباری 4.6",IF(G547=3,"گاباری 4.9",IF(G547=4,"گاباری 5.2",IF(G547=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F547" s="49" t="str">
-        <f>C547&amp;D547</f>
+        <f t="shared" si="17"/>
         <v>رازقیننوبران</v>
       </c>
       <c r="G547" s="49">
@@ -69024,11 +69023,11 @@
         <v>2673</v>
       </c>
       <c r="E548" s="49" t="str">
-        <f>IF(G548=0,"نا مشخص",IF(G548=1,"گاباری 4.7",IF(G548=2,"گاباری 4.6",IF(G548=3,"گاباری 4.9",IF(G548=4,"گاباری 5.2",IF(G548=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F548" s="49" t="str">
-        <f>C548&amp;D548</f>
+        <f t="shared" si="17"/>
         <v>نوبرانگوجه منار</v>
       </c>
       <c r="G548" s="49">
@@ -69046,11 +69045,11 @@
         <v>457</v>
       </c>
       <c r="E549" s="49" t="str">
-        <f>IF(G549=0,"نا مشخص",IF(G549=1,"گاباری 4.7",IF(G549=2,"گاباری 4.6",IF(G549=3,"گاباری 4.9",IF(G549=4,"گاباری 5.2",IF(G549=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F549" s="49" t="str">
-        <f>C549&amp;D549</f>
+        <f t="shared" si="17"/>
         <v>گوجه منارتجرک</v>
       </c>
       <c r="G549" s="49">
@@ -69068,11 +69067,11 @@
         <v>458</v>
       </c>
       <c r="E550" s="49" t="str">
-        <f>IF(G550=0,"نا مشخص",IF(G550=1,"گاباری 4.7",IF(G550=2,"گاباری 4.6",IF(G550=3,"گاباری 4.9",IF(G550=4,"گاباری 5.2",IF(G550=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F550" s="49" t="str">
-        <f>C550&amp;D550</f>
+        <f t="shared" si="17"/>
         <v>تجرکامیرآباد</v>
       </c>
       <c r="G550" s="49">
@@ -69090,11 +69089,11 @@
         <v>459</v>
       </c>
       <c r="E551" s="49" t="str">
-        <f>IF(G551=0,"نا مشخص",IF(G551=1,"گاباری 4.7",IF(G551=2,"گاباری 4.6",IF(G551=3,"گاباری 4.9",IF(G551=4,"گاباری 5.2",IF(G551=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F551" s="49" t="str">
-        <f>C551&amp;D551</f>
+        <f t="shared" si="17"/>
         <v>امیرآبادفامنین</v>
       </c>
       <c r="G551" s="49">
@@ -69112,11 +69111,11 @@
         <v>2677</v>
       </c>
       <c r="E552" s="49" t="str">
-        <f>IF(G552=0,"نا مشخص",IF(G552=1,"گاباری 4.7",IF(G552=2,"گاباری 4.6",IF(G552=3,"گاباری 4.9",IF(G552=4,"گاباری 5.2",IF(G552=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F552" s="49" t="str">
-        <f>C552&amp;D552</f>
+        <f t="shared" si="17"/>
         <v>فامنینگوریجان</v>
       </c>
       <c r="G552" s="49">
@@ -69134,11 +69133,11 @@
         <v>194</v>
       </c>
       <c r="E553" s="49" t="str">
-        <f>IF(G553=0,"نا مشخص",IF(G553=1,"گاباری 4.7",IF(G553=2,"گاباری 4.6",IF(G553=3,"گاباری 4.9",IF(G553=4,"گاباری 5.2",IF(G553=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F553" s="49" t="str">
-        <f>C553&amp;D553</f>
+        <f t="shared" si="17"/>
         <v>گوریجانهمدان</v>
       </c>
       <c r="G553" s="49">
@@ -69160,11 +69159,11 @@
         <v>442</v>
       </c>
       <c r="E554" s="49" t="str">
-        <f>IF(G554=0,"نا مشخص",IF(G554=1,"گاباری 4.7",IF(G554=2,"گاباری 4.6",IF(G554=3,"گاباری 4.9",IF(G554=4,"گاباری 5.2",IF(G554=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F554" s="51" t="str">
-        <f>C554&amp;D554</f>
+        <f t="shared" si="17"/>
         <v>سیاه چشمهکوهین</v>
       </c>
       <c r="G554" s="49">
@@ -69182,11 +69181,11 @@
         <v>1691</v>
       </c>
       <c r="E555" s="49" t="str">
-        <f>IF(G555=0,"نا مشخص",IF(G555=1,"گاباری 4.7",IF(G555=2,"گاباری 4.6",IF(G555=3,"گاباری 4.9",IF(G555=4,"گاباری 5.2",IF(G555=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F555" s="51" t="str">
-        <f>C555&amp;D555</f>
+        <f t="shared" si="17"/>
         <v>کوهینشیرین سو</v>
       </c>
       <c r="G555" s="49">
@@ -69204,11 +69203,11 @@
         <v>1695</v>
       </c>
       <c r="E556" s="49" t="str">
-        <f>IF(G556=0,"نا مشخص",IF(G556=1,"گاباری 4.7",IF(G556=2,"گاباری 4.6",IF(G556=3,"گاباری 4.9",IF(G556=4,"گاباری 5.2",IF(G556=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F556" s="51" t="str">
-        <f>C556&amp;D556</f>
+        <f t="shared" si="17"/>
         <v>شیرین سولوشان</v>
       </c>
       <c r="G556" s="49">
@@ -69226,11 +69225,11 @@
         <v>1696</v>
       </c>
       <c r="E557" s="49" t="str">
-        <f>IF(G557=0,"نا مشخص",IF(G557=1,"گاباری 4.7",IF(G557=2,"گاباری 4.6",IF(G557=3,"گاباری 4.9",IF(G557=4,"گاباری 5.2",IF(G557=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F557" s="51" t="str">
-        <f>C557&amp;D557</f>
+        <f t="shared" si="17"/>
         <v>لوشانمنجیل</v>
       </c>
       <c r="G557" s="49">
@@ -69248,11 +69247,11 @@
         <v>1698</v>
       </c>
       <c r="E558" s="49" t="str">
-        <f>IF(G558=0,"نا مشخص",IF(G558=1,"گاباری 4.7",IF(G558=2,"گاباری 4.6",IF(G558=3,"گاباری 4.9",IF(G558=4,"گاباری 5.2",IF(G558=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F558" s="51" t="str">
-        <f>C558&amp;D558</f>
+        <f t="shared" si="17"/>
         <v>منجیلرستم آباد</v>
       </c>
       <c r="G558" s="49">
@@ -69270,11 +69269,11 @@
         <v>1702</v>
       </c>
       <c r="E559" s="49" t="str">
-        <f>IF(G559=0,"نا مشخص",IF(G559=1,"گاباری 4.7",IF(G559=2,"گاباری 4.6",IF(G559=3,"گاباری 4.9",IF(G559=4,"گاباری 5.2",IF(G559=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F559" s="51" t="str">
-        <f>C559&amp;D559</f>
+        <f t="shared" si="17"/>
         <v>رستم آبادسراوان</v>
       </c>
       <c r="G559" s="49">
@@ -69292,11 +69291,11 @@
         <v>1705</v>
       </c>
       <c r="E560" s="49" t="str">
-        <f>IF(G560=0,"نا مشخص",IF(G560=1,"گاباری 4.7",IF(G560=2,"گاباری 4.6",IF(G560=3,"گاباری 4.9",IF(G560=4,"گاباری 5.2",IF(G560=5,"گاباری 5.4"))))))</f>
+        <f t="shared" si="16"/>
         <v>گاباری 5.4</v>
       </c>
       <c r="F560" s="51" t="str">
-        <f>C560&amp;D560</f>
+        <f t="shared" si="17"/>
         <v>سراوانرشت</v>
       </c>
       <c r="G560" s="49">
